--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1065.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1065.xlsx
@@ -914,24 +914,24 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2738,19 +2738,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$K$65:$K$2000</f>
+              <f>'1'!$K$65:$K$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$J$65:$J$2000</f>
+              <f>'1'!$J$65:$J$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2781,19 +2781,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$M$65:$M$2000</f>
+              <f>'1'!$M$65:$M$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$L$65:$L$2000</f>
+              <f>'1'!$L$65:$L$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2824,19 +2824,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$O$65:$O$2000</f>
+              <f>'1'!$O$65:$O$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$N$65:$N$2000</f>
+              <f>'1'!$N$65:$N$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3181,19 +3181,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3399,7 +3399,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3508,7 +3508,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3657,19 +3657,19 @@
           </trendline>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3749,10 +3749,9 @@
             <numRef>
               <f>'1'!$A$81:$A$82</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3814,10 +3813,9 @@
             <numRef>
               <f>'1'!$A$75:$A$76</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3869,7 +3867,7 @@
             <numRef>
               <f>'1'!$A$85:$A$86</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -3923,7 +3921,7 @@
             <numRef>
               <f>'1'!$A$88:$A$89</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>#N/A</v>
@@ -3978,7 +3976,7 @@
             <numRef>
               <f>'1'!$A$78:$A$79</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -4088,7 +4086,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4198,7 +4196,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4886,8 +4884,8 @@
   </sheetPr>
   <dimension ref="A1:BF264"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4917,13 +4915,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="150" t="inlineStr">
+      <c r="A1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
       </c>
-      <c r="L1" s="150" t="n"/>
-      <c r="M1" s="150" t="inlineStr">
+      <c r="L1" s="153" t="n"/>
+      <c r="M1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
@@ -4974,13 +4972,13 @@
       <c r="BC1" s="40" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="150" t="inlineStr">
+      <c r="A2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
       </c>
-      <c r="L2" s="150" t="n"/>
-      <c r="M2" s="150" t="inlineStr">
+      <c r="L2" s="153" t="n"/>
+      <c r="M2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
@@ -5096,13 +5094,13 @@
       <c r="BD2" s="50" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="150" t="inlineStr">
+      <c r="A3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
       </c>
-      <c r="L3" s="150" t="n"/>
-      <c r="M3" s="150" t="inlineStr">
+      <c r="L3" s="153" t="n"/>
+      <c r="M3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
@@ -5173,27 +5171,27 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="150" t="n"/>
-      <c r="B4" s="150" t="n"/>
-      <c r="C4" s="150" t="n"/>
-      <c r="D4" s="150" t="n"/>
-      <c r="E4" s="150" t="n"/>
-      <c r="F4" s="150" t="n"/>
-      <c r="G4" s="150" t="n"/>
-      <c r="H4" s="150" t="n"/>
-      <c r="I4" s="150" t="n"/>
-      <c r="J4" s="150" t="n"/>
-      <c r="K4" s="150" t="n"/>
-      <c r="L4" s="150" t="n"/>
-      <c r="M4" s="150" t="n"/>
-      <c r="N4" s="150" t="n"/>
-      <c r="O4" s="150" t="n"/>
-      <c r="P4" s="150" t="n"/>
-      <c r="Q4" s="150" t="n"/>
-      <c r="R4" s="150" t="n"/>
-      <c r="S4" s="150" t="n"/>
-      <c r="T4" s="150" t="n"/>
-      <c r="U4" s="150" t="n"/>
+      <c r="A4" s="153" t="n"/>
+      <c r="B4" s="153" t="n"/>
+      <c r="C4" s="153" t="n"/>
+      <c r="D4" s="153" t="n"/>
+      <c r="E4" s="153" t="n"/>
+      <c r="F4" s="153" t="n"/>
+      <c r="G4" s="153" t="n"/>
+      <c r="H4" s="153" t="n"/>
+      <c r="I4" s="153" t="n"/>
+      <c r="J4" s="153" t="n"/>
+      <c r="K4" s="153" t="n"/>
+      <c r="L4" s="153" t="n"/>
+      <c r="M4" s="153" t="n"/>
+      <c r="N4" s="153" t="n"/>
+      <c r="O4" s="153" t="n"/>
+      <c r="P4" s="153" t="n"/>
+      <c r="Q4" s="153" t="n"/>
+      <c r="R4" s="153" t="n"/>
+      <c r="S4" s="153" t="n"/>
+      <c r="T4" s="153" t="n"/>
+      <c r="U4" s="153" t="n"/>
       <c r="X4" s="66">
         <f>X2-X1</f>
         <v/>
@@ -5256,13 +5254,13 @@
       <c r="BC4" s="58" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="150" t="inlineStr">
+      <c r="A5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
       </c>
-      <c r="L5" s="150" t="n"/>
-      <c r="M5" s="150" t="inlineStr">
+      <c r="L5" s="153" t="n"/>
+      <c r="M5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
@@ -5377,13 +5375,13 @@
       <c r="BC5" s="58" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="154" t="inlineStr">
+      <c r="A6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
       </c>
-      <c r="L6" s="154" t="n"/>
-      <c r="M6" s="154" t="inlineStr">
+      <c r="L6" s="152" t="n"/>
+      <c r="M6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
@@ -5456,13 +5454,13 @@
       <c r="BF6" s="67" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="150" t="inlineStr">
+      <c r="A7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
       </c>
-      <c r="L7" s="150" t="n"/>
-      <c r="M7" s="150" t="inlineStr">
+      <c r="L7" s="153" t="n"/>
+      <c r="M7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
@@ -5624,8 +5622,8 @@
       <c r="BF8" s="67" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="156" t="n"/>
-      <c r="M9" s="156" t="inlineStr">
+      <c r="A9" s="155" t="n"/>
+      <c r="M9" s="155" t="inlineStr">
         <is>
           <t>Протокол испытаний № 13-63/30 от 28-11-2022</t>
         </is>
@@ -6442,13 +6440,13 @@
       <c r="BC17" s="58" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="155" t="inlineStr">
+      <c r="A18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
       </c>
-      <c r="L18" s="155" t="n"/>
-      <c r="M18" s="155" t="inlineStr">
+      <c r="L18" s="154" t="n"/>
+      <c r="M18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
@@ -7328,13 +7326,13 @@
       <c r="BC26" s="58" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="155" t="inlineStr">
+      <c r="A27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
       </c>
-      <c r="L27" s="155" t="n"/>
-      <c r="M27" s="155" t="inlineStr">
+      <c r="L27" s="154" t="n"/>
+      <c r="M27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
@@ -9133,26 +9131,26 @@
       <c r="U59" s="10" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="152" t="inlineStr">
+      <c r="A60" s="156" t="inlineStr">
         <is>
           <t>Лист 1 , всего листов 2</t>
         </is>
       </c>
-      <c r="L60" s="152" t="n"/>
-      <c r="M60" s="152" t="inlineStr">
+      <c r="L60" s="156" t="n"/>
+      <c r="M60" s="156" t="inlineStr">
         <is>
           <t>Лист 2 , всего листов 2</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="153" t="inlineStr">
+      <c r="A61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
       </c>
-      <c r="L61" s="153" t="n"/>
-      <c r="M61" s="153" t="inlineStr">
+      <c r="L61" s="150" t="n"/>
+      <c r="M61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
@@ -9257,7 +9255,7 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9272,29 +9270,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>-0.0001749999999999946</v>
+        <v>0.0002399999999999972</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>-0.0001749999999999946</v>
+        <v>0.0002399999999999972</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>-0.0002699999999999925</v>
+        <v>0.01692592197543397</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0004088356287685784</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>-0.001950000000000007</v>
+        <v>0.03109751010448591</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0</v>
+        <v>0.0004146303583088018</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9314,29 +9312,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.009782172189684052</v>
+        <v>0.008908763958462261</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006516557040361192</v>
+        <v>0.0005939131428488382</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.009782172189684052</v>
+        <v>0.008908763958462261</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0006516557040361192</v>
+        <v>0.0005939131428488382</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01584554397700202</v>
+        <v>0.02956276016723472</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0003554132394841586</v>
+        <v>0.0008355188219406829</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02891522869364482</v>
+        <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0004055234003105205</v>
+        <v>0.001091132521865268</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9357,26 +9355,26 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
         <v>0.0174681646244358</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
         <v>0.03601259994773187</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001211636043695995</v>
+        <v>0.001304794559899719</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05455703527102795</v>
+        <v>0.0562478041790721</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001147707736727888</v>
+        <v>0.00166889028671519</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9396,29 +9394,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01818538814781115</v>
+        <v>0.01892550153026287</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002124006436697108</v>
+        <v>0.002513219915089693</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01818538814781115</v>
+        <v>0.01892550153026287</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002124006436697108</v>
+        <v>0.002513219915089693</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03869506778904369</v>
+        <v>0.04062054869837178</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002115958140620715</v>
+        <v>0.002506556465822049</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05784681737644809</v>
+        <v>0.06281323794138599</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002114994397299588</v>
+        <v>0.002503335430072786</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9443,29 +9441,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01862012598121032</v>
+        <v>0.01957160003981877</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00283200858226281</v>
+        <v>0.003350959886786257</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01862012598121032</v>
+        <v>0.01957160003981877</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00283200858226281</v>
+        <v>0.003350959886786257</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04032576546210748</v>
+        <v>0.03962313848938301</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00282127752082762</v>
+        <v>0.003342075287762732</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06162960748642798</v>
+        <v>0.06421683848524373</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002819992529732784</v>
+        <v>0.003337780573430381</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9480,62 +9478,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0006516557040361192</v>
+        <v>0.0005939131428488382</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009782172189684052</v>
+        <v>0.008908763958462261</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02001377948861942</v>
+        <v>0.02112757410846013</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003540010727828513</v>
+        <v>0.004188699858482821</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02001377948861942</v>
+        <v>0.02112757410846013</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003540010727828513</v>
+        <v>0.004188699858482821</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04089953757727149</v>
+        <v>0.04363536160477779</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003526596901034524</v>
+        <v>0.004177594109703415</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06457185479002042</v>
+        <v>0.0692724358156786</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00352499066216598</v>
+        <v>0.004172225716787975</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02043194036981499</v>
+        <v>0.02208564554516429</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004248012873394216</v>
+        <v>0.005026439830179385</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02043194036981499</v>
+        <v>0.02208564554516429</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004248012873394216</v>
+        <v>0.005026439830179385</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04578141389325291</v>
+        <v>0.04612638250657167</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004231916281241429</v>
+        <v>0.005013112931644098</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06866853015594915</v>
+        <v>0.07049804974164142</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004229988794599175</v>
+        <v>0.005006670860145571</v>
       </c>
     </row>
     <row r="72">
@@ -9550,29 +9548,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.0215838197839488</v>
+        <v>0.02159404406380401</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004956015018959918</v>
+        <v>0.005864179801875949</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0215838197839488</v>
+        <v>0.02159404406380401</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.004956015018959918</v>
+        <v>0.005864179801875949</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04554372820119246</v>
+        <v>0.04845676719225767</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.004937235661448334</v>
+        <v>0.00584863175358478</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07081305307076524</v>
+        <v>0.07160859235294248</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.004934986927032372</v>
+        <v>0.005841116003503166</v>
       </c>
     </row>
     <row r="73">
@@ -9596,29 +9594,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02274256213612486</v>
+        <v>0.02329419279975063</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005664017164525621</v>
+        <v>0.006701919773572514</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02274256213612486</v>
+        <v>0.02329419279975063</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005664017164525621</v>
+        <v>0.006701919773572514</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04709637539456138</v>
+        <v>0.04658079440483434</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.00564255504165524</v>
+        <v>0.006684150575525463</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07429287136302642</v>
+        <v>0.0735603923970386</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005639985059465567</v>
+        <v>0.006675561146860761</v>
       </c>
     </row>
     <row r="74">
@@ -9633,29 +9631,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02279223185006501</v>
+        <v>0.02287462513201481</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006372019310091324</v>
+        <v>0.007539659745269077</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02279223185006501</v>
+        <v>0.02287462513201481</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006372019310091324</v>
+        <v>0.007539659745269077</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0476185892694273</v>
+        <v>0.04867716638319922</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006347874421862144</v>
+        <v>0.007519669397466146</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07662576340001109</v>
+        <v>0.07617262738723635</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006344983191898763</v>
+        <v>0.007510006290218357</v>
       </c>
     </row>
     <row r="75">
@@ -9677,29 +9675,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02354941651768021</v>
+        <v>0.02406058367221008</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007080021455657026</v>
+        <v>0.008377399716965642</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02354941651768021</v>
+        <v>0.02406058367221008</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007080021455657026</v>
+        <v>0.008377399716965642</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05064926905125686</v>
+        <v>0.05240165093531671</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007053193802069048</v>
+        <v>0.008355188219406829</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.0792143465218067</v>
+        <v>0.07668922120063465</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007049981324331959</v>
+        <v>0.00834445143357595</v>
       </c>
     </row>
     <row r="76">
@@ -9719,29 +9717,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02514900259579085</v>
+        <v>0.02484004177937713</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007788023601222729</v>
+        <v>0.009215139688662208</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02514900259579085</v>
+        <v>0.02484004177937713</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.007788023601222729</v>
+        <v>0.009215139688662208</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05056768362396172</v>
+        <v>0.05301961475185471</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007758513182275954</v>
+        <v>0.009190707041347513</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07755044764223074</v>
+        <v>0.07803199088576812</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007754979456765155</v>
+        <v>0.009178896576933547</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9756,28 +9754,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02561797316531944</v>
+        <v>0.02481525402727841</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008496025746788432</v>
+        <v>0.01005287966035877</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02561797316531944</v>
+        <v>0.02481525402727841</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008496025746788432</v>
+        <v>0.01005287966035877</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05189795643085982</v>
+        <v>0.05158393995210703</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008463832562482858</v>
+        <v>0.0100262258632882</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08098883825029363</v>
+        <v>0.08081858288906746</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00845997758919835</v>
+        <v>0.01001334172029114</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9796,28 +9794,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0256560980570356</v>
+        <v>0.02532800336612995</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009204027892354133</v>
+        <v>0.01089061963205533</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0256560980570356</v>
+        <v>0.02532800336612995</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009204027892354133</v>
+        <v>0.01089061963205533</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05423488991730274</v>
+        <v>0.05510806465028015</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009169151942689763</v>
+        <v>0.01086174468522888</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08266084350720215</v>
+        <v>0.07884331054130123</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009164975721631547</v>
+        <v>0.01084778686364874</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9838,28 +9836,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02596543094827251</v>
+        <v>0.02585239056351915</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009912030037919836</v>
+        <v>0.0117283596037519</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02596543094827251</v>
+        <v>0.02585239056351915</v>
       </c>
       <c r="K79" t="n">
-        <v>0.009912030037919836</v>
+        <v>0.0117283596037519</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05602203375895207</v>
+        <v>0.0566048755456835</v>
       </c>
       <c r="M79" t="n">
-        <v>0.009874471322896669</v>
+        <v>0.01169726350716956</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08228196774455288</v>
+        <v>0.08373609223478978</v>
       </c>
       <c r="O79" t="n">
-        <v>0.009869973854064743</v>
+        <v>0.01168223200700633</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9869,28 +9867,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02686252526129806</v>
+        <v>0.02713256193696324</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01062003218348554</v>
+        <v>0.01256609957544846</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02686252526129806</v>
+        <v>0.02713256193696324</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01062003218348554</v>
+        <v>0.01256609957544846</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05512356825979237</v>
+        <v>0.05499393121210733</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01057979070310357</v>
+        <v>0.01253278232911025</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08569198191815802</v>
+        <v>0.08397488489125082</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01057497198649794</v>
+        <v>0.01251667715036393</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9906,28 +9904,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02664116700367312</v>
+        <v>0.02689761943923451</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01132803432905124</v>
+        <v>0.01340383954714503</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02664116700367312</v>
+        <v>0.02689761943923451</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01132803432905124</v>
+        <v>0.01340383954714503</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05864098512199478</v>
+        <v>0.05800680500613817</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01128511008331048</v>
+        <v>0.01336830115105093</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08631630414634028</v>
+        <v>0.08767575833156527</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01127997011893113</v>
+        <v>0.01335112229372152</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9940,28 +9938,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02717500215712106</v>
+        <v>0.02650817069672924</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01203603647461694</v>
+        <v>0.01424157951884159</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02717500215712106</v>
+        <v>0.02650817069672924</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01203603647461694</v>
+        <v>0.01424157951884159</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05900736557421296</v>
+        <v>0.0559504453118484</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01199042946351738</v>
+        <v>0.01420381997299161</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08950517800786012</v>
+        <v>0.08752977731294537</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01198496825136433</v>
+        <v>0.01418556743707912</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9971,28 +9969,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02811715600587104</v>
+        <v>0.0268351232145551</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01274403862018265</v>
+        <v>0.01507931949053815</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02811715600587104</v>
+        <v>0.0268351232145551</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01274403862018265</v>
+        <v>0.01507931949053815</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05869102862264003</v>
+        <v>0.05811181596520909</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01269574884372429</v>
+        <v>0.01503933879493229</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08682704461443691</v>
+        <v>0.08819022797899406</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01268996638379753</v>
+        <v>0.01502001258043671</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10007,28 +10005,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02875959441227328</v>
+        <v>0.02812296934986698</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01345204076574835</v>
+        <v>0.01591705946223472</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02875959441227328</v>
+        <v>0.02812296934986698</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01345204076574835</v>
+        <v>0.01591705946223472</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05864101112564726</v>
+        <v>0.05753710079721591</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01340106822393119</v>
+        <v>0.01587485761687298</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09181507916844206</v>
+        <v>0.08672457604714606</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01339496451623072</v>
+        <v>0.01585445772379431</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10047,28 +10045,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02903861703667918</v>
+        <v>0.02790902407212981</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01416004291131405</v>
+        <v>0.01675479943393128</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02903861703667918</v>
+        <v>0.02790902407212981</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01416004291131405</v>
+        <v>0.01675479943393128</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05930338445522765</v>
+        <v>0.05867157132329845</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0141063876041381</v>
+        <v>0.01671037643881366</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09244670678754136</v>
+        <v>0.08495712441675957</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01409996264866392</v>
+        <v>0.0166889028671519</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10089,28 +10087,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02934769202178261</v>
+        <v>0.02795134537712696</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01486804505687975</v>
+        <v>0.01759253940562785</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02934769202178261</v>
+        <v>0.02795134537712696</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01486804505687975</v>
+        <v>0.01759253940562785</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05978413031224381</v>
+        <v>0.05659239965857271</v>
       </c>
       <c r="M86" t="n">
-        <v>0.014811706984345</v>
+        <v>0.01754589526075434</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09139936602033921</v>
+        <v>0.09083884508878964</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01480496078109711</v>
+        <v>0.0175233480105095</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10120,28 +10118,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02857640450279378</v>
+        <v>0.02900767852888755</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01557604720244546</v>
+        <v>0.01843027937732442</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02857640450279378</v>
+        <v>0.02900767852888755</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01557604720244546</v>
+        <v>0.01843027937732442</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06148178323021716</v>
+        <v>0.05877228132950557</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01551702636455191</v>
+        <v>0.01838141408269503</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08903574871352488</v>
+        <v>0.08697783893474831</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01550995891353031</v>
+        <v>0.01835779315386709</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10155,28 +10153,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0297416035130893</v>
+        <v>0.02867110067671681</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01628404934801116</v>
+        <v>0.01926801934902098</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0297416035130893</v>
+        <v>0.02867110067671681</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01628404934801116</v>
+        <v>0.01926801934902098</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06110534675412538</v>
+        <v>0.05913294977775965</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01622234574475881</v>
+        <v>0.01921693290463571</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09331672694223836</v>
+        <v>0.08831820074234398</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01621495704596351</v>
+        <v>0.01919223829722469</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10189,4578 +10187,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03028596044864262</v>
+        <v>0.02868996102982083</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01699205149357686</v>
+        <v>0.02010575932071754</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03028596044864262</v>
+        <v>0.02868996102982083</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01699205149357686</v>
+        <v>0.02010575932071754</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06207899855271815</v>
+        <v>0.05974177125696517</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01692766512496572</v>
+        <v>0.02005245172657639</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09062677134223884</v>
+        <v>0.08697693921515987</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0169199551783967</v>
+        <v>0.02002668344058229</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02971583321097697</v>
+        <v>0.02898423376493736</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01770005363914257</v>
+        <v>0.0209434992924141</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02971583321097697</v>
+        <v>0.02898423376493736</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01770005363914257</v>
+        <v>0.0209434992924141</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0624114071234553</v>
+        <v>0.05874682894672933</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01763298450517262</v>
+        <v>0.02088797054851707</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09195662188484294</v>
+        <v>0.08942937422306357</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0176249533108299</v>
+        <v>0.02086112858393988</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0299368359727627</v>
+        <v>0.02866883116509464</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01840805578470827</v>
+        <v>0.02178123926411067</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0299368359727627</v>
+        <v>0.02866883116509464</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01840805578470827</v>
+        <v>0.02178123926411067</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06069979394646399</v>
+        <v>0.0588287853931613</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01833830388537953</v>
+        <v>0.02172348937045775</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09367525419385214</v>
+        <v>0.0916248340660184</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01832995144326309</v>
+        <v>0.02169557372729747</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02998843398148986</v>
+        <v>0.02957861350092969</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01911605793027397</v>
+        <v>0.02261897923580724</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02998843398148986</v>
+        <v>0.02957861350092969</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01911605793027397</v>
+        <v>0.02261897923580724</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06284128642143444</v>
+        <v>0.05900242511187057</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01904362326558643</v>
+        <v>0.02255900819239844</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09450503709310559</v>
+        <v>0.09157244566517514</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01903494957569629</v>
+        <v>0.02253001887065507</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03032390674451803</v>
+        <v>0.02819025861665861</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01982406007583967</v>
+        <v>0.0234567192075038</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03032390674451803</v>
+        <v>0.02819025861665861</v>
       </c>
       <c r="K93" t="n">
-        <v>0.01982406007583967</v>
+        <v>0.0234567192075038</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06294628933804114</v>
+        <v>0.06038392930141834</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01974894264579334</v>
+        <v>0.02339452701433912</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09325104039266702</v>
+        <v>0.09205336788798341</v>
       </c>
       <c r="O93" t="n">
-        <v>0.01973994770812949</v>
+        <v>0.02336446401401266</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03081127951413155</v>
+        <v>0.02961417738655991</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02053206222140538</v>
+        <v>0.02429445917920036</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03081127951413155</v>
+        <v>0.02961417738655991</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02053206222140538</v>
+        <v>0.02429445917920036</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06336712117331575</v>
+        <v>0.05900863519250668</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02045426202600024</v>
+        <v>0.0242300458362798</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09609481374735535</v>
+        <v>0.09345475791616487</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02044494584056268</v>
+        <v>0.02419890915737026</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03069957533584566</v>
+        <v>0.0286859101267458</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02124006436697108</v>
+        <v>0.02513219915089693</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03069957533584566</v>
+        <v>0.0286859101267458</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02124006436697108</v>
+        <v>0.02513219915089693</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06314296080796836</v>
+        <v>0.06126045883898096</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02115958140620715</v>
+        <v>0.02506556465822049</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0940498977982403</v>
+        <v>0.09332260844962575</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02114994397299588</v>
+        <v>0.02503335430072785</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03087646429681368</v>
+        <v>0.02966045843238839</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02194806651253678</v>
+        <v>0.02596993912259349</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03087646429681368</v>
+        <v>0.02966045843238839</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02194806651253678</v>
+        <v>0.02596993912259349</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06215647129018592</v>
+        <v>0.06083127368713459</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02186490078641406</v>
+        <v>0.02590108348016117</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09648891234116663</v>
+        <v>0.09624174884956593</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02185494210542907</v>
+        <v>0.02586779944408545</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03125682082294466</v>
+        <v>0.02945847318760669</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02265606865810248</v>
+        <v>0.02680767909429006</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03125682082294466</v>
+        <v>0.02945847318760669</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02265606865810248</v>
+        <v>0.02680767909429006</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06378398653150333</v>
+        <v>0.06235228546337887</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02257022016662096</v>
+        <v>0.02673660230210185</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09693305930327817</v>
+        <v>0.09357240324709981</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02255994023786227</v>
+        <v>0.02670224458744305</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03072202222942466</v>
+        <v>0.02928984888051449</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02336407080366819</v>
+        <v>0.02764541906598662</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03072202222942466</v>
+        <v>0.02928984888051449</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02336407080366819</v>
+        <v>0.02764541906598662</v>
       </c>
       <c r="L98" t="n">
-        <v>0.062957558454978</v>
+        <v>0.06012398722769999</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02327553954682786</v>
+        <v>0.02757212112404254</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09459366220187054</v>
+        <v>0.0934730144639479</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02326493837029546</v>
+        <v>0.02753668973080064</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03079744610773426</v>
+        <v>0.0303036528326609</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02407207294923389</v>
+        <v>0.02848315903768318</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03079744610773426</v>
+        <v>0.0303036528326609</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02407207294923389</v>
+        <v>0.02848315903768318</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06529709054161267</v>
+        <v>0.05941830844565332</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02398085892703477</v>
+        <v>0.02840763994598322</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09913684434734354</v>
+        <v>0.09694862427507989</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02396993650272866</v>
+        <v>0.02837113487415823</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03166605910786176</v>
+        <v>0.02950242633872817</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02478007509479959</v>
+        <v>0.02932089900937975</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03166605910786176</v>
+        <v>0.02950242633872817</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02478007509479959</v>
+        <v>0.02932089900937975</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06523007709817125</v>
+        <v>0.06236787766971447</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02468617830724167</v>
+        <v>0.0292431587679239</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09516800188316815</v>
+        <v>0.09440493739595335</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02467493463516186</v>
+        <v>0.02920558001751583</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03157798128289489</v>
+        <v>0.03018378657281796</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02548807724036529</v>
+        <v>0.03015863898107631</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03157798128289489</v>
+        <v>0.03018378657281796</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02548807724036529</v>
+        <v>0.03015863898107631</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06453138287593205</v>
+        <v>0.06096365944840432</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02539149768744858</v>
+        <v>0.03007867758986458</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09570443634358189</v>
+        <v>0.09695487380692952</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02537993276759505</v>
+        <v>0.03004002516087343</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03126228913840191</v>
+        <v>0.0306841662455412</v>
       </c>
       <c r="G102" t="n">
-        <v>0.026196079385931</v>
+        <v>0.03099637895277288</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03126228913840191</v>
+        <v>0.0306841662455412</v>
       </c>
       <c r="K102" t="n">
-        <v>0.026196079385931</v>
+        <v>0.03099637895277288</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06638849880291364</v>
+        <v>0.06338426317589763</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02609681706765548</v>
+        <v>0.03091419641180527</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1002151325205631</v>
+        <v>0.09236133643165223</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02608493090002825</v>
+        <v>0.03087447030423102</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03096791550820897</v>
+        <v>0.03041560864779871</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0269040815314967</v>
+        <v>0.03183411892446944</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03096791550820897</v>
+        <v>0.03041560864779871</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0269040815314967</v>
+        <v>0.03183411892446944</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06683817982698348</v>
+        <v>0.06445003375157768</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02680213644786239</v>
+        <v>0.03174971523374595</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0959833489773147</v>
+        <v>0.09268410911471708</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02678992903246144</v>
+        <v>0.03170891544758862</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03173999366130173</v>
+        <v>0.03087393607586758</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0276120836770624</v>
+        <v>0.032671858896166</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03173999366130173</v>
+        <v>0.03087393607586758</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0276120836770624</v>
+        <v>0.032671858896166</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06648173511656832</v>
+        <v>0.06368351078071419</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02750745582806929</v>
+        <v>0.03258523405568663</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1012174017821222</v>
+        <v>0.09830614124211978</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02749492716489464</v>
+        <v>0.03254336059094622</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0317805887927952</v>
+        <v>0.03009051554060546</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0283200858226281</v>
+        <v>0.03350959886786257</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0317805887927952</v>
+        <v>0.03009051554060546</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0283200858226281</v>
+        <v>0.03350959886786257</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06732721279870921</v>
+        <v>0.06204012625510813</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02821277520827619</v>
+        <v>0.03342075287762732</v>
       </c>
       <c r="N105" t="n">
-        <v>0.097777879493471</v>
+        <v>0.09689458521405175</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02819992529732784</v>
+        <v>0.0333778057343038</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03176393613586877</v>
+        <v>0.03042970057668683</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02902808796819381</v>
+        <v>0.03434733883955914</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03176393613586877</v>
+        <v>0.03042970057668683</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02902808796819381</v>
+        <v>0.03434733883955914</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06503742934670659</v>
+        <v>0.06471058453452846</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0289180945884831</v>
+        <v>0.034256271699568</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09990801405159294</v>
+        <v>0.09835257973425754</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02890492342976103</v>
+        <v>0.0342122508776614</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03132895866876506</v>
+        <v>0.03135902023414018</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02973609011375951</v>
+        <v>0.0351850788112557</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03132895866876506</v>
+        <v>0.03135902023414018</v>
       </c>
       <c r="K107" t="n">
-        <v>0.02973609011375951</v>
+        <v>0.0351850788112557</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06641118514904737</v>
+        <v>0.06575812080111454</v>
       </c>
       <c r="M107" t="n">
-        <v>0.02962341396869001</v>
+        <v>0.03509179052150868</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1022759651688494</v>
+        <v>0.09939012361767091</v>
       </c>
       <c r="O107" t="n">
-        <v>0.02960992156219423</v>
+        <v>0.035046696021019</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03159956742634025</v>
+        <v>0.03101251564352167</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03044409225932521</v>
+        <v>0.03602281878295226</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03159956742634025</v>
+        <v>0.03101251564352167</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03044409225932521</v>
+        <v>0.03602281878295226</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06755749025193802</v>
+        <v>0.06187819734467162</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03032873334889691</v>
+        <v>0.03592730934344936</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1020726769307532</v>
+        <v>0.09780675137145067</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03031491969462742</v>
+        <v>0.03588114116437659</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03258613939261631</v>
+        <v>0.03159256643928894</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03115209440489091</v>
+        <v>0.03686055875464883</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03258613939261631</v>
+        <v>0.03159256643928894</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03115209440489091</v>
+        <v>0.03686055875464883</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06842691728862282</v>
+        <v>0.06555526714598808</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03103405272910381</v>
+        <v>0.03676282816539005</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09826016394495846</v>
+        <v>0.09753832066308021</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03101991782706062</v>
+        <v>0.03671558630773419</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03154531183895092</v>
+        <v>0.03120514422825624</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03186009655045662</v>
+        <v>0.03769829872634539</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03154531183895092</v>
+        <v>0.03120514422825624</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03186009655045662</v>
+        <v>0.03769829872634539</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06685251084310934</v>
+        <v>0.06454570559839404</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03173937210931072</v>
+        <v>0.03759834698733073</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09847442958445507</v>
+        <v>0.1004981387320706</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03172491595949382</v>
+        <v>0.03755003145109179</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03222015639732737</v>
+        <v>0.03151583621238695</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03256809869602232</v>
+        <v>0.03853603869804195</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03222015639732737</v>
+        <v>0.03151583621238695</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03256809869602232</v>
+        <v>0.03853603869804195</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06838875914321785</v>
+        <v>0.06537424350628693</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03244469148951763</v>
+        <v>0.03843386580927142</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1022868055712594</v>
+        <v>0.09749033299517912</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03242991409192701</v>
+        <v>0.03838447659444938</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03224957128301316</v>
+        <v>0.03090896818656293</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03327610084158802</v>
+        <v>0.03937377866973851</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03224957128301316</v>
+        <v>0.03090896818656293</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03327610084158802</v>
+        <v>0.03937377866973851</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06835334089742129</v>
+        <v>0.06499119201751374</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03315001086972453</v>
+        <v>0.03926938463121209</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0982947436664478</v>
+        <v>0.09455963100258891</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03313491222436021</v>
+        <v>0.03921892173780697</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03179151985175432</v>
+        <v>0.03065402648395529</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03398410298715373</v>
+        <v>0.04021151864143508</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03179151985175432</v>
+        <v>0.03065402648395529</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03398410298715373</v>
+        <v>0.04021151864143508</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06772062205516846</v>
+        <v>0.06496147486622353</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03385533024993143</v>
+        <v>0.04010490345315278</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1029463482142357</v>
+        <v>0.09828105376562413</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0338399103567934</v>
+        <v>0.04005336688116457</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03214498689646206</v>
+        <v>0.0314786461302279</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03469210513271943</v>
+        <v>0.04104925861313165</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03214498689646206</v>
+        <v>0.0314786461302279</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03469210513271943</v>
+        <v>0.04104925861313165</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0688784005556998</v>
+        <v>0.06237958713616401</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03456064963013834</v>
+        <v>0.04094042227509347</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09986655511528758</v>
+        <v>0.1010973839189045</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0345449084892266</v>
+        <v>0.04088781202452216</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03222985838841613</v>
+        <v>0.03236486412192023</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03540010727828513</v>
+        <v>0.04188699858482821</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03222985838841613</v>
+        <v>0.03236486412192023</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03540010727828513</v>
+        <v>0.04188699858482821</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06848261753977375</v>
+        <v>0.06360343243986469</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03526596901034525</v>
+        <v>0.04177594109703414</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1042429287781524</v>
+        <v>0.09841591291771551</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0352499066216598</v>
+        <v>0.04172225716787976</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03231389323600407</v>
+        <v>0.03053056431403957</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03610810942385084</v>
+        <v>0.04272473855652478</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03231389323600407</v>
+        <v>0.03053056431403957</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03610810942385084</v>
+        <v>0.04272473855652478</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06818914034068882</v>
+        <v>0.06686850425868957</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03597128839055215</v>
+        <v>0.04261145991897483</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1020051691968017</v>
+        <v>0.09810109966645064</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03595490475409299</v>
+        <v>0.04255670231123735</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03327501698573902</v>
+        <v>0.03197756488622099</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03681611156941653</v>
+        <v>0.04356247852822134</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03327501698573902</v>
+        <v>0.03197756488622099</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03681611156941653</v>
+        <v>0.04356247852822134</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0692581378079915</v>
+        <v>0.06635144507072963</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03667660777075905</v>
+        <v>0.04344697874091551</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1039064449329495</v>
+        <v>0.0973823128399402</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03665990288652619</v>
+        <v>0.04339114745459495</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03325456292985829</v>
+        <v>0.03114904948141939</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03752411371498224</v>
+        <v>0.0444002184999179</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03325456292985829</v>
+        <v>0.03114904948141939</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03752411371498224</v>
+        <v>0.0444002184999179</v>
       </c>
       <c r="L118" t="n">
-        <v>0.067550244278828</v>
+        <v>0.06637996923505185</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03738192715096596</v>
+        <v>0.0442824975628562</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1033321627729021</v>
+        <v>0.09665442369730243</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03736490101895938</v>
+        <v>0.04422559259795254</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03306555857636247</v>
+        <v>0.03138867196433254</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03823211586054794</v>
+        <v>0.04523795847161447</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03306555857636247</v>
+        <v>0.03138867196433254</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03823211586054794</v>
+        <v>0.04523795847161447</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06969450631681084</v>
+        <v>0.06622621878609483</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03808724653117287</v>
+        <v>0.04511801638479688</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1033694396159539</v>
+        <v>0.1017193689943861</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03806989915139258</v>
+        <v>0.04506003774131014</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03368248973245601</v>
+        <v>0.03197920613219889</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03894011800611365</v>
+        <v>0.04607569844331103</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03368248973245601</v>
+        <v>0.03197920613219889</v>
       </c>
       <c r="K120" t="n">
-        <v>0.03894011800611365</v>
+        <v>0.04607569844331103</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06958822466054512</v>
+        <v>0.06515885133283428</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03879256591137977</v>
+        <v>0.04595353520673756</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1021789432689459</v>
+        <v>0.100944746534421</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03877489728382577</v>
+        <v>0.04589448288466774</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03342316487074597</v>
+        <v>0.03179699875006531</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03964812015167934</v>
+        <v>0.04691343841500759</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03342316487074597</v>
+        <v>0.03179699875006531</v>
       </c>
       <c r="K121" t="n">
-        <v>0.03964812015167934</v>
+        <v>0.04691343841500759</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07140530491165023</v>
+        <v>0.06371192611635149</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03949788529158667</v>
+        <v>0.04678905402867824</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1025796715909587</v>
+        <v>0.09774488861005459</v>
       </c>
       <c r="O121" t="n">
-        <v>0.03947989541625897</v>
+        <v>0.04672892802802533</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03355397558477285</v>
+        <v>0.03164150693889892</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04035612229724505</v>
+        <v>0.04775117838670416</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03355397558477285</v>
+        <v>0.03164150693889892</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04035612229724505</v>
+        <v>0.04775117838670416</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0689068809056316</v>
+        <v>0.06571868147702431</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04020320467179358</v>
+        <v>0.04762457285061893</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1033213636084007</v>
+        <v>0.1014804841473875</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04018489354869217</v>
+        <v>0.04756337317138292</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03375836238972496</v>
+        <v>0.03208512408304506</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04106412444281075</v>
+        <v>0.04858891835840072</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03375836238972496</v>
+        <v>0.03208512408304506</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04106412444281075</v>
+        <v>0.04858891835840072</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06792804089170812</v>
+        <v>0.06786546422431577</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04090852405200049</v>
+        <v>0.04846009167255961</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1042909407297382</v>
+        <v>0.1006282535444485</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04088989168112536</v>
+        <v>0.04839781831474052</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03299332937976197</v>
+        <v>0.03234321763205948</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04177212658837646</v>
+        <v>0.04942665833009729</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03299332937976197</v>
+        <v>0.03234321763205948</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04177212658837646</v>
+        <v>0.04942665833009729</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07094275746294185</v>
+        <v>0.06608587383078413</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04161384343220739</v>
+        <v>0.04929561049450029</v>
       </c>
       <c r="N124" t="n">
-        <v>0.102248229831481</v>
+        <v>0.09964193295166007</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04159488981355856</v>
+        <v>0.04923226345809811</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03350527589795532</v>
+        <v>0.03143325280164286</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04248012873394216</v>
+        <v>0.05026439830179386</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03350527589795532</v>
+        <v>0.03143325280164286</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04248012873394216</v>
+        <v>0.05026439830179386</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06824076963560066</v>
+        <v>0.06457564907834604</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0423191628124143</v>
+        <v>0.05013112931644098</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1031291342236688</v>
+        <v>0.1026790539961589</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04229988794599175</v>
+        <v>0.05006670860145571</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03297917642373481</v>
+        <v>0.03200299226694669</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04318813087950786</v>
+        <v>0.05110213827349042</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03297917642373481</v>
+        <v>0.03200299226694669</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04318813087950786</v>
+        <v>0.05110213827349042</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07061803504434919</v>
+        <v>0.0673323840131505</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0430244821926212</v>
+        <v>0.05096664813838166</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1020225612484278</v>
+        <v>0.1022384989207754</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04300488607842495</v>
+        <v>0.05090115374481331</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0327698714337263</v>
+        <v>0.03183511823134438</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04389613302507357</v>
+        <v>0.05193987824518698</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0327698714337263</v>
+        <v>0.03183511823134438</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04389613302507357</v>
+        <v>0.05193987824518698</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06965382886996654</v>
+        <v>0.06667570769311082</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04372980157282811</v>
+        <v>0.05180216696032234</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1020601422140928</v>
+        <v>0.1006490077610296</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04370988421085814</v>
+        <v>0.0517355988881709</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03322059889709102</v>
+        <v>0.03228313475218103</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04460413517063927</v>
+        <v>0.05277761821688355</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03322059889709102</v>
+        <v>0.03228313475218103</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04460413517063927</v>
+        <v>0.05277761821688355</v>
       </c>
       <c r="L128" t="n">
-        <v>0.0717876607223098</v>
+        <v>0.06740761847279281</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04443512095303501</v>
+        <v>0.05263768578226302</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1032575366889897</v>
+        <v>0.09965739737580637</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04441488234329134</v>
+        <v>0.05257004403152849</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03357070464784868</v>
+        <v>0.03234686942342181</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04531213731620497</v>
+        <v>0.05361535818858011</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03357070464784868</v>
+        <v>0.03234686942342181</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04531213731620497</v>
+        <v>0.05361535818858011</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07125576145447132</v>
+        <v>0.06835766881495939</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04514044033324192</v>
+        <v>0.0534732046042037</v>
       </c>
       <c r="N129" t="n">
-        <v>0.103443332245357</v>
+        <v>0.09871898365968912</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04511988047572454</v>
+        <v>0.05340448917488609</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03376323648571757</v>
+        <v>0.03305636125504764</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04602013946177067</v>
+        <v>0.05445309816027667</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03376323648571757</v>
+        <v>0.03305636125504764</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04602013946177067</v>
+        <v>0.05445309816027667</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07080032820691695</v>
+        <v>0.06892437347962976</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04584575971344882</v>
+        <v>0.05430872342614439</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1059712540515967</v>
+        <v>0.09980567554843134</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04582487860815773</v>
+        <v>0.05423893431824368</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03427214229341857</v>
+        <v>0.0321027745225753</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04672814160733638</v>
+        <v>0.05529083813197324</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03427214229341857</v>
+        <v>0.0321027745225753</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04672814160733638</v>
+        <v>0.05529083813197324</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07060143105714184</v>
+        <v>0.06683347268849227</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04655107909365572</v>
+        <v>0.05514424224808508</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1055132157349226</v>
+        <v>0.10394065415595</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04652987674059093</v>
+        <v>0.05507337946160128</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03404570653550815</v>
+        <v>0.03287957353353871</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04743614375290208</v>
+        <v>0.0561285781036698</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03404570653550815</v>
+        <v>0.03287957353353871</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04743614375290208</v>
+        <v>0.0561285781036698</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07031484545779745</v>
+        <v>0.06571772576471138</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04725639847386263</v>
+        <v>0.05597976107002575</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1074054465487308</v>
+        <v>0.1045906288564616</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04723487487302412</v>
+        <v>0.05590782460495888</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0334304659422463</v>
+        <v>0.03289678988701492</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04814414589846778</v>
+        <v>0.05696631807536636</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0334304659422463</v>
+        <v>0.03289678988701492</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04814414589846778</v>
+        <v>0.05696631807536636</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07174563608742307</v>
+        <v>0.07011332436008211</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04796171785406953</v>
+        <v>0.05681527989196643</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1056476225139661</v>
+        <v>0.1043013075631717</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04793987300545732</v>
+        <v>0.05674226974831647</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03419431279745737</v>
+        <v>0.03264848219822444</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04885214804403348</v>
+        <v>0.05780405804706294</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03419431279745737</v>
+        <v>0.03264848219822444</v>
       </c>
       <c r="K134" t="n">
-        <v>0.04885214804403348</v>
+        <v>0.05780405804706294</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06903120653340844</v>
+        <v>0.07024864202552084</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04866703723427643</v>
+        <v>0.05765079871390712</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1053888511809172</v>
+        <v>0.1045071039965211</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04864487113789052</v>
+        <v>0.05757671489167407</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03332272909942394</v>
+        <v>0.03332374484573669</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04956015018959919</v>
+        <v>0.0586417980187595</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03332272909942394</v>
+        <v>0.03332374484573669</v>
       </c>
       <c r="K135" t="n">
-        <v>0.04956015018959919</v>
+        <v>0.0586417980187595</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06948496192141962</v>
+        <v>0.06764394469612456</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04937235661448334</v>
+        <v>0.05848631753584781</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1050942142261431</v>
+        <v>0.1002516685437028</v>
       </c>
       <c r="O135" t="n">
-        <v>0.04934986927032371</v>
+        <v>0.05841116003503166</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03417875488833437</v>
+        <v>0.03277504278147039</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05026815233516489</v>
+        <v>0.05947953799045606</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03417875488833437</v>
+        <v>0.03277504278147039</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05026815233516489</v>
+        <v>0.05947953799045606</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0691293351051403</v>
+        <v>0.06960203231897427</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05007767599469025</v>
+        <v>0.05932183635778849</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1052698472433619</v>
+        <v>0.1017521473798598</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05005486740275691</v>
+        <v>0.05924560517838925</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03361609786868741</v>
+        <v>0.03291721373841677</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05097615448073059</v>
+        <v>0.06031727796215262</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03361609786868741</v>
+        <v>0.03291721373841677</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05097615448073059</v>
+        <v>0.06031727796215262</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.06844838936959516</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05078299537489715</v>
+        <v>0.06015735517972916</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1070798895039068</v>
+        <v>0.1015810529841208</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0507598655351901</v>
+        <v>0.06008005032174685</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03440544063858261</v>
+        <v>0.03359359194731953</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05168415662629629</v>
+        <v>0.06115501793384919</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03440544063858261</v>
+        <v>0.03359359194731953</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05168415662629629</v>
+        <v>0.06115501793384919</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07234981525697712</v>
+        <v>0.06832093349634077</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05148831475510406</v>
+        <v>0.06099287400166985</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1051685487261203</v>
+        <v>0.103776428732344</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0514648636676233</v>
+        <v>0.06091449546510445</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03395128543060258</v>
+        <v>0.03293312622394849</v>
       </c>
       <c r="G139" t="n">
-        <v>0.052392158771862</v>
+        <v>0.06199275790554575</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03395128543060258</v>
+        <v>0.03293312622394849</v>
       </c>
       <c r="K139" t="n">
-        <v>0.052392158771862</v>
+        <v>0.06199275790554575</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06995081042432033</v>
+        <v>0.07110486012029629</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05219363413531096</v>
+        <v>0.06182839282361054</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1038042243097993</v>
+        <v>0.1063988578554798</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0521698618000565</v>
+        <v>0.06174894060846204</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03438270454743579</v>
+        <v>0.03386857687575821</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0531001609174277</v>
+        <v>0.06283049787724231</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03438270454743579</v>
+        <v>0.03386857687575821</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0531001609174277</v>
+        <v>0.06283049787724231</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07205181195963817</v>
+        <v>0.06921956112493738</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05289895351551787</v>
+        <v>0.06266391164555123</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1076767873679811</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05287485993248969</v>
+        <v>0.06258338575181964</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03357141803405837</v>
+        <v>0.03383983928570455</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05380816306299339</v>
+        <v>0.06366823784893888</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03357141803405837</v>
+        <v>0.03383983928570455</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05380816306299339</v>
+        <v>0.06366823784893888</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06894095436633052</v>
+        <v>0.06892680872453591</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05360427289572477</v>
+        <v>0.0634994304674919</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1046057218851347</v>
+        <v>0.1043798951877951</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05357985806492289</v>
+        <v>0.06341783089517723</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0344355990344114</v>
+        <v>0.03371903285301872</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0545161652085591</v>
+        <v>0.06450597782063544</v>
       </c>
       <c r="J142" t="n">
-        <v>0.0344355990344114</v>
+        <v>0.03371903285301872</v>
       </c>
       <c r="K142" t="n">
-        <v>0.0545161652085591</v>
+        <v>0.06450597782063544</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07042000194647058</v>
+        <v>0.07163667695624357</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05430959227593168</v>
+        <v>0.06433494928943259</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1070314737862642</v>
+        <v>0.1078333557148</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05428485619735609</v>
+        <v>0.06425227603853483</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03386762076940858</v>
+        <v>0.03402368048219175</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0552241673541248</v>
+        <v>0.065343717792332</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03386762076940858</v>
+        <v>0.03402368048219175</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0552241673541248</v>
+        <v>0.065343717792332</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06926880899940946</v>
+        <v>0.06970897916972132</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05501491165613858</v>
+        <v>0.06517046811137327</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1082445722719729</v>
+        <v>0.1064568102110326</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05498985432978928</v>
+        <v>0.06508672118189243</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03359224690029451</v>
+        <v>0.03390606554667293</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05593216949969051</v>
+        <v>0.06618145776402858</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03359224690029451</v>
+        <v>0.03390606554667293</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05593216949969051</v>
+        <v>0.06618145776402858</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07155570350620763</v>
+        <v>0.06829861797497438</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05572023103634548</v>
+        <v>0.06600598693331394</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1061460791737419</v>
+        <v>0.1049416807199568</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05569485246222248</v>
+        <v>0.06592116632525002</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03444120482150269</v>
+        <v>0.03450413588560873</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05664017164525621</v>
+        <v>0.06701919773572514</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03444120482150269</v>
+        <v>0.03450413588560873</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05664017164525621</v>
+        <v>0.06701919773572514</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07138944911555672</v>
+        <v>0.07163175164103677</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05642555041655239</v>
+        <v>0.06684150575525463</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1042228924088072</v>
+        <v>0.1065513103757808</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05639985059465567</v>
+        <v>0.0667556114686076</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03376069299376071</v>
+        <v>0.03455972027991779</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05734817379082191</v>
+        <v>0.0678569377074217</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03376069299376071</v>
+        <v>0.03455972027991779</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05734817379082191</v>
+        <v>0.0678569377074217</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07271976117513493</v>
+        <v>0.07197943657074632</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05713086979675929</v>
+        <v>0.06767702457719532</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1085386121120788</v>
+        <v>0.1060753923295198</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05710484872708886</v>
+        <v>0.06759005661196521</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03436019357629636</v>
+        <v>0.03328886771898093</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05805617593638761</v>
+        <v>0.06869467767911827</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03436019357629636</v>
+        <v>0.03328886771898093</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05805617593638761</v>
+        <v>0.06869467767911827</v>
       </c>
       <c r="L147" t="n">
-        <v>0.0700099246754835</v>
+        <v>0.06984236996474399</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05783618917696621</v>
+        <v>0.068512543399136</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1063331411910831</v>
+        <v>0.1027778002660535</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05780984685952206</v>
+        <v>0.0684245017553228</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03425709087913685</v>
+        <v>0.03487952649869495</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05876417808195331</v>
+        <v>0.06953241765081483</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03425709087913685</v>
+        <v>0.03487952649869495</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05876417808195331</v>
+        <v>0.06953241765081483</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07235888300818916</v>
+        <v>0.07296832206676535</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05854150855717311</v>
+        <v>0.06934806222107667</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1049264894180413</v>
+        <v>0.1032608811813922</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05851484499195526</v>
+        <v>0.0692589468986804</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03482626757522507</v>
+        <v>0.03367022095679588</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05947218022751902</v>
+        <v>0.07037015762251139</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03482626757522507</v>
+        <v>0.03367022095679588</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05947218022751902</v>
+        <v>0.07037015762251139</v>
       </c>
       <c r="L149" t="n">
-        <v>0.0692355396346051</v>
+        <v>0.07029504448567964</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05924682793738002</v>
+        <v>0.07018358104301736</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1067167871667444</v>
+        <v>0.1103122920876666</v>
       </c>
       <c r="O149" t="n">
-        <v>0.05921984312438845</v>
+        <v>0.070093392042038</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03367988807606795</v>
+        <v>0.03426887173849311</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06018018237308472</v>
+        <v>0.07120789759420797</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03367988807606795</v>
+        <v>0.03426887173849311</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06018018237308472</v>
+        <v>0.07120789759420797</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06987305268020669</v>
+        <v>0.07222610208413474</v>
       </c>
       <c r="M150" t="n">
-        <v>0.05995214731758692</v>
+        <v>0.07101909986495805</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1055646896331024</v>
       </c>
       <c r="O150" t="n">
-        <v>0.05992484125682165</v>
+        <v>0.0709278371853956</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03433603904334442</v>
+        <v>0.03466463621933007</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06088818451865043</v>
+        <v>0.07204563756590453</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03433603904334442</v>
+        <v>0.03466463621933007</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06088818451865043</v>
+        <v>0.07204563756590453</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06941038556218046</v>
+        <v>0.0695366729763007</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06065746669779382</v>
+        <v>0.07185461868689873</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1068749088159593</v>
+        <v>0.10878146019141</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06062983938925485</v>
+        <v>0.07176228232875319</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03461176782829353</v>
+        <v>0.03522488346143354</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06159618666421612</v>
+        <v>0.07288337753760109</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03461176782829353</v>
+        <v>0.03522488346143354</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06159618666421612</v>
+        <v>0.07288337753760109</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07087696735603241</v>
+        <v>0.06904962466140396</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06136278607800073</v>
+        <v>0.07269013750883942</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1061861894094177</v>
+        <v>0.1105468980513139</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06133483752168804</v>
+        <v>0.07259672747211078</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03434548739187697</v>
+        <v>0.03477288765047629</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06230418880978183</v>
+        <v>0.07372111750929766</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03434548739187697</v>
+        <v>0.03477288765047629</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06230418880978183</v>
+        <v>0.07372111750929766</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06955705235926343</v>
+        <v>0.07066888889511136</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06206810545820763</v>
+        <v>0.07352565633078011</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1084006660582992</v>
+        <v>0.1090011541476566</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06203983565412124</v>
+        <v>0.07343117261546837</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03507870296344651</v>
+        <v>0.03485948762104947</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06301219095534753</v>
+        <v>0.07455885748099422</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03507870296344651</v>
+        <v>0.03485948762104947</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06301219095534753</v>
+        <v>0.07455885748099422</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07042204943323055</v>
+        <v>0.07246872993988884</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06277342483841453</v>
+        <v>0.07436117515272078</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1052901906926156</v>
+        <v>0.1101345555065842</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06274483378655443</v>
+        <v>0.07426561775882597</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03413862023072095</v>
+        <v>0.03435004774272454</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06372019310091323</v>
+        <v>0.07539659745269078</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03413862023072095</v>
+        <v>0.03435004774272454</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06372019310091323</v>
+        <v>0.07539659745269078</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06945312657292946</v>
+        <v>0.07074817089546842</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06347874421862144</v>
+        <v>0.07519669397466146</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1063415664452947</v>
+        <v>0.106657002911856</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06344983191898763</v>
+        <v>0.07510006290218357</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03520366805238601</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06442819524647894</v>
+        <v>0.07623433742438734</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03520366805238601</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06442819524647894</v>
+        <v>0.07623433742438734</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07071450302192595</v>
+        <v>0.07204174303281186</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06418406359882835</v>
+        <v>0.07603221279660215</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1081043450849244</v>
+        <v>0.1118400529176763</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06415483005142082</v>
+        <v>0.07593450804554117</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03409071442625902</v>
+        <v>0.03517599714199805</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06513619739204464</v>
+        <v>0.0770720773960839</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03409071442625902</v>
+        <v>0.03517599714199805</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06513619739204464</v>
+        <v>0.0770720773960839</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07254057221861135</v>
+        <v>0.07067571790440355</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06488938297903525</v>
+        <v>0.07686773161854284</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1084875855710062</v>
+        <v>0.1058555876950337</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06485982818385402</v>
+        <v>0.07676895318889876</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03448123128945528</v>
+        <v>0.03477449157798718</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06584419953761034</v>
+        <v>0.07790981736778047</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03448123128945528</v>
+        <v>0.03477449157798718</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06584419953761034</v>
+        <v>0.07790981736778047</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06993578492641275</v>
+        <v>0.07193856857458084</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06559470235924215</v>
+        <v>0.07770325044048351</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1098120615001379</v>
+        <v>0.1077142034761809</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06556482631628723</v>
+        <v>0.07760339833225635</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03519067637589038</v>
+        <v>0.03441139727643711</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06655220168317605</v>
+        <v>0.07874755733947703</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03519067637589038</v>
+        <v>0.03441139727643711</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06655220168317605</v>
+        <v>0.07874755733947703</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06951539815230987</v>
+        <v>0.07032671276324204</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06630002173944906</v>
+        <v>0.07853876926242419</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1087863831565318</v>
+        <v>0.1114305379683569</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06626982444872041</v>
+        <v>0.07843784347561394</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03432013243908008</v>
+        <v>0.03566409455427277</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06726020382874175</v>
+        <v>0.0795852973111736</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03432013243908008</v>
+        <v>0.03566409455427277</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06726020382874175</v>
+        <v>0.0795852973111736</v>
       </c>
       <c r="L160" t="n">
-        <v>0.071901402493802</v>
+        <v>0.07059009706296901</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06700534111965596</v>
+        <v>0.07937428808436488</v>
       </c>
       <c r="N160" t="n">
-        <v>0.10551907947915</v>
+        <v>0.1109215526019442</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06697482258115361</v>
+        <v>0.07927228861897154</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03477155372627752</v>
+        <v>0.03403425288289322</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06796820597430746</v>
+        <v>0.08042303728287016</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03477155372627752</v>
+        <v>0.03403425288289322</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06796820597430746</v>
+        <v>0.08042303728287016</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07054257641881193</v>
+        <v>0.07109584635902286</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06771066049986287</v>
+        <v>0.08020980690630557</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1060789900887619</v>
+        <v>0.1086590688710083</v>
       </c>
       <c r="O161" t="n">
-        <v>0.0676798207135868</v>
+        <v>0.08010673376232914</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03486748431734692</v>
+        <v>0.03460794945726095</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06867620811987316</v>
+        <v>0.08126077725456672</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03486748431734692</v>
+        <v>0.03460794945726095</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06867620811987316</v>
+        <v>0.08126077725456672</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06972143238363576</v>
+        <v>0.07104527524341392</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06841597988006977</v>
+        <v>0.08104532572824624</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1068767730102215</v>
+        <v>0.1115480869115297</v>
       </c>
       <c r="O162" t="n">
-        <v>0.06838481884601999</v>
+        <v>0.08094117890568674</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03403547581792668</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06938421026543885</v>
+        <v>0.0820985172262633</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03403547581792668</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06938421026543885</v>
+        <v>0.0820985172262633</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07175772982586665</v>
+        <v>0.07220271494889527</v>
       </c>
       <c r="M163" t="n">
-        <v>0.06912129926027667</v>
+        <v>0.08188084455018693</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1095726326090797</v>
+        <v>0.1085496758668293</v>
       </c>
       <c r="O163" t="n">
-        <v>0.06908981697845319</v>
+        <v>0.08177562404904433</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03457698487942086</v>
+        <v>0.03404975588407669</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07009221241100456</v>
+        <v>0.08293625719795986</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03457698487942086</v>
+        <v>0.03404975588407669</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07009221241100456</v>
+        <v>0.08293625719795986</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07060461277135538</v>
+        <v>0.07154592509999924</v>
       </c>
       <c r="M164" t="n">
-        <v>0.06982661864048359</v>
+        <v>0.08271636337212761</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1068265881279776</v>
+        <v>0.1080005699013068</v>
       </c>
       <c r="O164" t="n">
-        <v>0.06979481511088639</v>
+        <v>0.08261006919240192</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03484275784070172</v>
+        <v>0.03417191762964354</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07080021455657026</v>
+        <v>0.08377399716965642</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03484275784070172</v>
+        <v>0.03417191762964354</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07080021455657026</v>
+        <v>0.08377399716965642</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07031537358439804</v>
+        <v>0.07057686125393445</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07053193802069049</v>
+        <v>0.08355188219406828</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1064178507101234</v>
+        <v>0.1081310444276499</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0704998132433196</v>
+        <v>0.08344451433575951</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03432999926321276</v>
+        <v>0.03391869840899711</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07150821670213596</v>
+        <v>0.08461173714135299</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03432999926321276</v>
+        <v>0.03391869840899711</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07150821670213596</v>
+        <v>0.08461173714135299</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07043358469497768</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0712372574008974</v>
+        <v>0.08438740101600897</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1074973623347804</v>
+        <v>0.1062838141393961</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07120481137575278</v>
+        <v>0.08427895947911711</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0351691183302178</v>
+        <v>0.03540185581325989</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07221621884770167</v>
+        <v>0.08544947711304955</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0351691183302178</v>
+        <v>0.03540185581325989</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07221621884770167</v>
+        <v>0.08544947711304955</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07148130163307448</v>
+        <v>0.06995410164636207</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0719425767811043</v>
+        <v>0.08522291983794966</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1046910208685035</v>
+        <v>0.11061311433541</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07190980950818598</v>
+        <v>0.0851134046224747</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03436209910123104</v>
+        <v>0.0354025391885493</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07292422099326737</v>
+        <v>0.08628721708474611</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03436209910123104</v>
+        <v>0.0354025391885493</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07292422099326737</v>
+        <v>0.08628721708474611</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07038037176506226</v>
+        <v>0.07152200342981416</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0726478961613112</v>
+        <v>0.08605843865989034</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1065669720488699</v>
+        <v>0.1104074984133758</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07261480764061919</v>
+        <v>0.08594784976583231</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0341165680332281</v>
+        <v>0.03489481511191081</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07363222313883307</v>
+        <v>0.08712495705644267</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0341165680332281</v>
+        <v>0.03489481511191081</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07363222313883307</v>
+        <v>0.08712495705644267</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07155258818195051</v>
+        <v>0.07100082270977279</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07335321554151811</v>
+        <v>0.08689395748183101</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1089236642249827</v>
+        <v>0.107047073575627</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07331980577305237</v>
+        <v>0.0867822949091899</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03440138558139322</v>
+        <v>0.03507988438565805</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07434022528439878</v>
+        <v>0.08796269702813925</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03440138558139322</v>
+        <v>0.03507988438565805</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07434022528439878</v>
+        <v>0.08796269702813925</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06946200297618563</v>
+        <v>0.07391981542148693</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07405853492172501</v>
+        <v>0.0877294763037717</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1059229999724866</v>
+        <v>0.1097476410869506</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07402480390548556</v>
+        <v>0.08761674005254749</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03506079007435911</v>
+        <v>0.03391220086854425</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07504822742996448</v>
+        <v>0.08880043699983581</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03506079007435911</v>
+        <v>0.03391220086854425</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07504822742996448</v>
+        <v>0.08880043699983581</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07041773948968658</v>
+        <v>0.07355074954656846</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07476385430193191</v>
+        <v>0.08856499512571239</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1051296820670863</v>
+        <v>0.1105066105082675</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07472980203791876</v>
+        <v>0.08845118519590509</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03398368297491584</v>
+        <v>0.0347334897122341</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07575622957553019</v>
+        <v>0.08963817697153237</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03398368297491584</v>
+        <v>0.0347334897122341</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07575622957553019</v>
+        <v>0.08963817697153237</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07066872549070222</v>
+        <v>0.07234870938460808</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07546917368213883</v>
+        <v>0.08940051394765307</v>
       </c>
       <c r="N172" t="n">
-        <v>0.104980986547771</v>
+        <v>0.1066502223354341</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07543480017035195</v>
+        <v>0.08928563033926268</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03464869322143613</v>
+        <v>0.03573410221621691</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07646423172109588</v>
+        <v>0.09047591694322894</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03464869322143613</v>
+        <v>0.03573410221621691</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07646423172109588</v>
+        <v>0.09047591694322894</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06964809383903972</v>
+        <v>0.07276474710224751</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07617449306234574</v>
+        <v>0.09023603276959376</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1037328810335741</v>
+        <v>0.1110484930975358</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07613979830278515</v>
+        <v>0.09012007548262027</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03463818980119165</v>
+        <v>0.03501625706163428</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07717223386666158</v>
+        <v>0.0913136569149255</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03463818980119165</v>
+        <v>0.03501625706163428</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07717223386666158</v>
+        <v>0.0913136569149255</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07052595225079628</v>
+        <v>0.06977326308614318</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07687981244255264</v>
+        <v>0.09107155159153445</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1062255917105927</v>
+        <v>0.1061396199008859</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07684479643521835</v>
+        <v>0.09095452062597788</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03496807034898589</v>
+        <v>0.03494768553018593</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07788023601222729</v>
+        <v>0.09215139688662206</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03496807034898589</v>
+        <v>0.03494768553018593</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07788023601222729</v>
+        <v>0.09215139688662206</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06863034709998916</v>
+        <v>0.07091972101539656</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07758513182275954</v>
+        <v>0.09190707041347512</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1062400435172</v>
+        <v>0.1086179297552272</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07754979456765154</v>
+        <v>0.09178896576933547</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03463316800448979</v>
+        <v>0.03475117528562248</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07858823815779299</v>
+        <v>0.09298913685831862</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03463316800448979</v>
+        <v>0.03475117528562248</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07858823815779299</v>
+        <v>0.09298913685831862</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06974473887892169</v>
+        <v>0.07200877004870693</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07829045120296645</v>
+        <v>0.0927425892354158</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1049601535316849</v>
+        <v>0.1073871455013985</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07825479270008474</v>
+        <v>0.09262341091269306</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0339846171432879</v>
+        <v>0.03535355305269933</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07929624030335869</v>
+        <v>0.09382687683001519</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0339846171432879</v>
+        <v>0.03535355305269933</v>
       </c>
       <c r="K177" t="n">
-        <v>0.07929624030335869</v>
+        <v>0.09382687683001519</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06974163085388549</v>
+        <v>0.06980195829036667</v>
       </c>
       <c r="M177" t="n">
-        <v>0.07899577058317335</v>
+        <v>0.09357810805735649</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1027668090362849</v>
+        <v>0.1101661722051653</v>
       </c>
       <c r="O177" t="n">
-        <v>0.07895979083251795</v>
+        <v>0.09345785605605066</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03429951608022101</v>
+        <v>0.03492488790444223</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0800042424489244</v>
+        <v>0.09466461680171175</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03429951608022101</v>
+        <v>0.03492488790444223</v>
       </c>
       <c r="K178" t="n">
-        <v>0.0800042424489244</v>
+        <v>0.09466461680171175</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06944754149423563</v>
+        <v>0.06995565651908331</v>
       </c>
       <c r="M178" t="n">
-        <v>0.07970108996338025</v>
+        <v>0.09441362687929718</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1068599937399879</v>
+        <v>0.1119381737547376</v>
       </c>
       <c r="O178" t="n">
-        <v>0.07966478896495115</v>
+        <v>0.09429230119940825</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03505506710351761</v>
+        <v>0.03442610777160902</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0807122445944901</v>
+        <v>0.09550235677340832</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03505506710351761</v>
+        <v>0.03442610777160902</v>
       </c>
       <c r="K179" t="n">
-        <v>0.0807122445944901</v>
+        <v>0.09550235677340832</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06737382587539956</v>
+        <v>0.07110800857360247</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08040640934358716</v>
+        <v>0.09524914570123785</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1063387220571059</v>
+        <v>0.1067706453204404</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08036978709738433</v>
+        <v>0.09512674634276584</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03483440438223231</v>
+        <v>0.03450061829415313</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08142024674005581</v>
+        <v>0.09634009674510488</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03483440438223231</v>
+        <v>0.03450061829415313</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08142024674005581</v>
+        <v>0.09634009674510488</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06952988430962428</v>
+        <v>0.06928558334455698</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08111172872379406</v>
+        <v>0.09608466452317853</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1063501007812199</v>
+        <v>0.1105351417664578</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08107478522981752</v>
+        <v>0.09596119148612345</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03402263997620888</v>
+        <v>0.0341268206360503</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08212824888562151</v>
+        <v>0.09717783671680144</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03402263997620888</v>
+        <v>0.0341268206360503</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08212824888562151</v>
+        <v>0.09717783671680144</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06887588968381028</v>
+        <v>0.07283098101438326</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08181704810400098</v>
+        <v>0.09692018334511922</v>
       </c>
       <c r="N181" t="n">
-        <v>0.101762347157756</v>
+        <v>0.1090340290901912</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08177978336225072</v>
+        <v>0.09679563662948104</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0345231532845693</v>
+        <v>0.03374904773854585</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08283625103118721</v>
+        <v>0.09801557668849802</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0345231532845693</v>
+        <v>0.03374904773854585</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08283625103118721</v>
+        <v>0.09801557668849802</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07036773289460097</v>
+        <v>0.06963228235779903</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08252236748420788</v>
+        <v>0.09775570216705991</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1059339848208604</v>
+        <v>0.1058774422900106</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08248478149468391</v>
+        <v>0.09763008177283863</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03460559278305636</v>
+        <v>0.03538348584349171</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08354425317675292</v>
+        <v>0.09885331666019458</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03460559278305636</v>
+        <v>0.03538348584349171</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08354425317675292</v>
+        <v>0.09885331666019458</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06788108544926311</v>
+        <v>0.0707017596995029</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08322768686441478</v>
+        <v>0.09859122098900058</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1020008354964995</v>
+        <v>0.1091511313398229</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08318977962711711</v>
+        <v>0.09846452691619623</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03496490701103463</v>
+        <v>0.03524205099966504</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08425225532231861</v>
+        <v>0.09969105663189114</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03496490701103463</v>
+        <v>0.03524205099966504</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08425225532231861</v>
+        <v>0.09969105663189114</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06848705990034379</v>
+        <v>0.07194735434932634</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08393300624462169</v>
+        <v>0.09942673981094127</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1028224370308376</v>
+        <v>0.1040939398220536</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08389477775955032</v>
+        <v>0.09929897205955382</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03377302327707724</v>
+        <v>0.03430863897359077</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08496025746788431</v>
+        <v>0.1005287966035877</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03377302327707724</v>
+        <v>0.03430863897359077</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08496025746788431</v>
+        <v>0.1005287966035877</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06904242769737309</v>
+        <v>0.06975471878122397</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08463832562482859</v>
+        <v>0.100262258632882</v>
       </c>
       <c r="N185" t="n">
-        <v>0.103095734776453</v>
+        <v>0.1102414382054263</v>
       </c>
       <c r="O185" t="n">
-        <v>0.0845997758919835</v>
+        <v>0.1001334172029114</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03448285782594884</v>
+        <v>0.03410549126194719</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08566825961345002</v>
+        <v>0.1013665365752843</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03448285782594884</v>
+        <v>0.03410549126194719</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08566825961345002</v>
+        <v>0.1013665365752843</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06953096549496357</v>
+        <v>0.06908107831155291</v>
       </c>
       <c r="M186" t="n">
-        <v>0.0853436450050355</v>
+        <v>0.1010977774548226</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1015484101158036</v>
+        <v>0.1104505012391305</v>
       </c>
       <c r="O186" t="n">
-        <v>0.0853047740244167</v>
+        <v>0.100967862346269</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03474453066892987</v>
+        <v>0.03479162430550774</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08637626175901572</v>
+        <v>0.1022042765469808</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03474453066892987</v>
+        <v>0.03479162430550774</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08637626175901572</v>
+        <v>0.1022042765469808</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06609784751557632</v>
+        <v>0.06960331701530303</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0860489643852424</v>
+        <v>0.1019332962767633</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1010448475370468</v>
+        <v>0.1110261142355386</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08600977215684991</v>
+        <v>0.1018023074896266</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03423578606905808</v>
+        <v>0.03408278897960941</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08708426390458142</v>
+        <v>0.1030420165186774</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03423578606905808</v>
+        <v>0.03408278897960941</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08708426390458142</v>
+        <v>0.1030420165186774</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06658161083469788</v>
+        <v>0.07023660869757065</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0867542837654493</v>
+        <v>0.102768815098704</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1059593851573745</v>
+        <v>0.1055003311161546</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08671477028928309</v>
+        <v>0.1026367526329842</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03369978796558219</v>
+        <v>0.0345001943625747</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08779226605014713</v>
+        <v>0.103879756490374</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03369978796558219</v>
+        <v>0.0345001943625747</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08779226605014713</v>
+        <v>0.103879756490374</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06660075673635327</v>
+        <v>0.06993682098900722</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08745960314565622</v>
+        <v>0.1036043339206447</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1045385809352081</v>
+        <v>0.1080432150865025</v>
       </c>
       <c r="O189" t="n">
-        <v>0.08741976842171628</v>
+        <v>0.1034711977763418</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03393643707458213</v>
+        <v>0.03521544254266405</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08850026819571283</v>
+        <v>0.1047174964620705</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03393643707458213</v>
+        <v>0.03521544254266405</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08850026819571283</v>
+        <v>0.1047174964620705</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06702780475916395</v>
+        <v>0.07188401732594132</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08816492252586312</v>
+        <v>0.1044398527425854</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1031592546501413</v>
+        <v>0.1083737416715527</v>
       </c>
       <c r="O190" t="n">
-        <v>0.08812476655414948</v>
+        <v>0.1043056429196994</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.0349588568842983</v>
+        <v>0.03378944718747506</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08920827034127854</v>
+        <v>0.1055552364337671</v>
       </c>
       <c r="J191" t="n">
-        <v>0.0349588568842983</v>
+        <v>0.03378944718747506</v>
       </c>
       <c r="K191" t="n">
-        <v>0.08920827034127854</v>
+        <v>0.1055552364337671</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06762207291008226</v>
+        <v>0.07307975961681021</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08887024190607003</v>
+        <v>0.105275371564526</v>
       </c>
       <c r="N191" t="n">
-        <v>0.102357405643158</v>
+        <v>0.1101954814865311</v>
       </c>
       <c r="O191" t="n">
-        <v>0.08882976468658269</v>
+        <v>0.105140088063057</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03404912358741839</v>
+        <v>0.03527739430438771</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08991627248684424</v>
+        <v>0.1063929764054637</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03404912358741839</v>
+        <v>0.03527739430438771</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08991627248684424</v>
+        <v>0.1063929764054637</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06877070776369337</v>
+        <v>0.06941369204306</v>
       </c>
       <c r="M192" t="n">
-        <v>0.08957556128627693</v>
+        <v>0.1061108903864667</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1051284931912451</v>
+        <v>0.1106443590241793</v>
       </c>
       <c r="O192" t="n">
-        <v>0.08953476281901587</v>
+        <v>0.1059745332064146</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03431985978028049</v>
+        <v>0.03504511467552848</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09062427463240993</v>
+        <v>0.1072307163771602</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03431985978028049</v>
+        <v>0.03504511467552848</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09062427463240993</v>
+        <v>0.1072307163771602</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06864028214914047</v>
+        <v>0.07237720030442427</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09028088066648383</v>
+        <v>0.1069464092084074</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1035466843877499</v>
+        <v>0.1046520565051126</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09023976095144907</v>
+        <v>0.1068089783497722</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03466839227571773</v>
+        <v>0.03452967315275977</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09133227677797565</v>
+        <v>0.1080684563488568</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03466839227571773</v>
+        <v>0.03452967315275977</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09133227677797565</v>
+        <v>0.1080684563488568</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06841290685614826</v>
+        <v>0.07274797383219922</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09098620004669074</v>
+        <v>0.1077819280303481</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1035877127024019</v>
+        <v>0.1055429860689437</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09094475908388228</v>
+        <v>0.1076434234931298</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03436689341447209</v>
+        <v>0.03479085813533458</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09204027892354134</v>
+        <v>0.1089061963205533</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03436689341447209</v>
+        <v>0.03479085813533458</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09204027892354134</v>
+        <v>0.1089061963205533</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06638477431066356</v>
+        <v>0.07023379859753803</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09169151942689764</v>
+        <v>0.1086174468522888</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1015541104347492</v>
+        <v>0.1100487205935526</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09164975721631546</v>
+        <v>0.1084778686364874</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03391858218583751</v>
+        <v>0.03386924060532899</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09274828106910704</v>
+        <v>0.1097439362922499</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03391858218583751</v>
+        <v>0.03386924060532899</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09274828106910704</v>
+        <v>0.1097439362922499</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06858533417847826</v>
+        <v>0.06949740947475302</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09239683880710454</v>
+        <v>0.1094529656742295</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1034917020050249</v>
+        <v>0.1041928236114299</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09235475534874867</v>
+        <v>0.109312313779845</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03393582155485771</v>
+        <v>0.03388190705077776</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09345628321467275</v>
+        <v>0.1105816762639465</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03393582155485771</v>
+        <v>0.03388190705077776</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09345628321467275</v>
+        <v>0.1105816762639465</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06787625316151111</v>
+        <v>0.07021286669220639</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09310215818731145</v>
+        <v>0.1102884844961702</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1007060423966193</v>
+        <v>0.1099318098742557</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09305975348118185</v>
+        <v>0.1101467589232026</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03376162776525507</v>
+        <v>0.035217484594604</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09416428536023845</v>
+        <v>0.111419416235643</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03376162776525507</v>
+        <v>0.035217484594604</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09416428536023845</v>
+        <v>0.111419416235643</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0686499819380382</v>
+        <v>0.06985553027938451</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09380747756751835</v>
+        <v>0.1111240033181108</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1012184548648979</v>
+        <v>0.1106546334528473</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09376475161361504</v>
+        <v>0.1109812040665601</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03367365759056659</v>
+        <v>0.03419578913027088</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09487228750580416</v>
+        <v>0.1122571562073396</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03367365759056659</v>
+        <v>0.03419578913027088</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09487228750580416</v>
+        <v>0.1122571562073396</v>
       </c>
       <c r="L199" t="n">
-        <v>0.0674784118921527</v>
+        <v>0.07249318586667455</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09451279694772526</v>
+        <v>0.1119595221400515</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1025225961876583</v>
+        <v>0.1080411075086942</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09446974974604824</v>
+        <v>0.1118156492099178</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03468094028178453</v>
+        <v>0.03430097528851495</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09558028965136986</v>
+        <v>0.1130948961790362</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03468094028178453</v>
+        <v>0.03430097528851495</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09558028965136986</v>
+        <v>0.1130948961790362</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06543619482291541</v>
+        <v>0.06967788380923726</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09521811632793216</v>
+        <v>0.1127950409619922</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1019134029119853</v>
+        <v>0.1069321421548136</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09517474787848144</v>
+        <v>0.1126500943532754</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03397952227250695</v>
+        <v>0.03531134888122556</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09628829179693556</v>
+        <v>0.1139326361507327</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03397952227250695</v>
+        <v>0.03531134888122556</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09628829179693556</v>
+        <v>0.1139326361507327</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06645506958898162</v>
+        <v>0.06892022233998679</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09592343570813906</v>
+        <v>0.1136305597839329</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1008879341688461</v>
+        <v>0.1091973879085139</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09587974601091465</v>
+        <v>0.1134845394966329</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03421169789135926</v>
+        <v>0.03474459372318896</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09699629394250127</v>
+        <v>0.1147703761224293</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03421169789135926</v>
+        <v>0.03474459372318896</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09699629394250127</v>
+        <v>0.1147703761224293</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06626446309631598</v>
+        <v>0.06950146323929854</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09662875508834597</v>
+        <v>0.1144660786058736</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09954177325506525</v>
+        <v>0.1042382936843506</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09658474414334783</v>
+        <v>0.1143189846399905</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0349722692110274</v>
+        <v>0.03379536801692122</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09770429608806697</v>
+        <v>0.1156081160941259</v>
       </c>
       <c r="J203" t="n">
-        <v>0.0349722692110274</v>
+        <v>0.03379536801692122</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09770429608806697</v>
+        <v>0.1156081160941259</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06596492625526706</v>
+        <v>0.07153987198774386</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09733407446855287</v>
+        <v>0.1153015974278142</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1006856901788888</v>
+        <v>0.1093282766004537</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09728974227578104</v>
+        <v>0.1151534297833481</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03480556127370402</v>
+        <v>0.03513690570051815</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09841229823363266</v>
+        <v>0.1164458560658224</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03480556127370402</v>
+        <v>0.03513690570051815</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09841229823363266</v>
+        <v>0.1164458560658224</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06654567192536429</v>
+        <v>0.07201806590462281</v>
       </c>
       <c r="M204" t="n">
-        <v>0.09803939384875977</v>
+        <v>0.1161371162497549</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1014332175970632</v>
+        <v>0.1068523512600566</v>
       </c>
       <c r="O204" t="n">
-        <v>0.09799474040821424</v>
+        <v>0.1159878749267057</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03458823083216797</v>
+        <v>0.03333940884449259</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09912030037919838</v>
+        <v>0.117283596037519</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03458823083216797</v>
+        <v>0.03333940884449259</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09912030037919838</v>
+        <v>0.117283596037519</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06736688796176307</v>
+        <v>0.07119493659709231</v>
       </c>
       <c r="M205" t="n">
-        <v>0.09874471322896668</v>
+        <v>0.1169726350716956</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1013804224477374</v>
+        <v>0.1092955033917952</v>
       </c>
       <c r="O205" t="n">
-        <v>0.09869973854064742</v>
+        <v>0.1168223200700633</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03354529951265373</v>
+        <v>0.03356272997541974</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09982830252476407</v>
+        <v>0.1181213360092156</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03354529951265373</v>
+        <v>0.03356272997541974</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09982830252476407</v>
+        <v>0.1181213360092156</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06652481010727079</v>
+        <v>0.07095685303298729</v>
       </c>
       <c r="M206" t="n">
-        <v>0.09945003260917359</v>
+        <v>0.1178081538936363</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1021224399835916</v>
+        <v>0.1073271124657795</v>
       </c>
       <c r="O206" t="n">
-        <v>0.09940473667308063</v>
+        <v>0.1176567652134209</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03457668930026479</v>
+        <v>0.03438626029455527</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1005363046703298</v>
+        <v>0.1189590759809121</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03457668930026479</v>
+        <v>0.03438626029455527</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1005363046703298</v>
+        <v>0.1189590759809121</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06552925219883723</v>
+        <v>0.06933141613185489</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1001553519893805</v>
+        <v>0.118643672715577</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09998543189639642</v>
+        <v>0.1055745345282513</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1001097348055138</v>
+        <v>0.1184912103567785</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03436405576125269</v>
+        <v>0.03510951119570443</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1012443068158955</v>
+        <v>0.1197968159526087</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03436405576125269</v>
+        <v>0.03510951119570443</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1012443068158955</v>
+        <v>0.1197968159526087</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06643225387624319</v>
+        <v>0.06955382865000895</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1008606713695874</v>
+        <v>0.1194791915375177</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1022857438138882</v>
+        <v>0.1086380897115511</v>
       </c>
       <c r="O208" t="n">
-        <v>0.100814732937947</v>
+        <v>0.1193256555001361</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03369063946273619</v>
+        <v>0.03471944132788732</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1019523089614612</v>
+        <v>0.1206345559243052</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03369063946273619</v>
+        <v>0.03471944132788732</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1019523089614612</v>
+        <v>0.1206345559243052</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06688674899439442</v>
+        <v>0.06894515223821032</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1015659907497943</v>
+        <v>0.1203147103594583</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09941731371202456</v>
+        <v>0.1067076402952014</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1015197310703802</v>
+        <v>0.1201601006434937</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03405285166599539</v>
+        <v>0.03439707976013064</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1026603111070269</v>
+        <v>0.1214722958960018</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03405285166599539</v>
+        <v>0.03439707976013064</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1026603111070269</v>
+        <v>0.1214722958960018</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06536799817388847</v>
+        <v>0.07178249201539924</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1022713101300012</v>
+        <v>0.121150229181399</v>
       </c>
       <c r="N210" t="n">
-        <v>0.101285189374733</v>
+        <v>0.1086562576778155</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1022247292028134</v>
+        <v>0.1209945457868513</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03398978587591815</v>
+        <v>0.0340696203516009</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1033683132525926</v>
+        <v>0.1223100358676984</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03398978587591815</v>
+        <v>0.0340696203516009</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1033683132525926</v>
+        <v>0.1223100358676984</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06656180338830592</v>
+        <v>0.07167810163957383</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1029766295102081</v>
+        <v>0.1219857480033397</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1000006015745855</v>
+        <v>0.1083964233338724</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1029297273352466</v>
+        <v>0.1218289909302089</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03417342261535758</v>
+        <v>0.03438481460550218</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1040763153981583</v>
+        <v>0.1231477758393949</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03417342261535758</v>
+        <v>0.03438481460550218</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1040763153981583</v>
+        <v>0.1231477758393949</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06642719920338039</v>
+        <v>0.06965159852800715</v>
       </c>
       <c r="M212" t="n">
-        <v>0.103681948890415</v>
+        <v>0.1228212668252804</v>
       </c>
       <c r="N212" t="n">
-        <v>0.102627532811767</v>
+        <v>0.1087274060085434</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1036347254676798</v>
+        <v>0.1226634360735665</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03480809197665394</v>
+        <v>0.03340415718197545</v>
       </c>
       <c r="G213" t="n">
-        <v>0.104784317543724</v>
+        <v>0.1239855158110915</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03480809197665394</v>
+        <v>0.03340415718197545</v>
       </c>
       <c r="K213" t="n">
-        <v>0.104784317543724</v>
+        <v>0.1239855158110915</v>
       </c>
       <c r="L213" t="n">
-        <v>0.0677581639582871</v>
+        <v>0.06846434667381474</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1043872682706219</v>
+        <v>0.1236567856472211</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09947089214058596</v>
+        <v>0.1059436295732272</v>
       </c>
       <c r="O213" t="n">
-        <v>0.104339723600113</v>
+        <v>0.1234978812169241</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03383869440237879</v>
+        <v>0.03452058003436528</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1054923196892897</v>
+        <v>0.1248232557827881</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03383869440237879</v>
+        <v>0.03452058003436528</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1054923196892897</v>
+        <v>0.1248232557827881</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06639375092721561</v>
+        <v>0.07144185136649547</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1050925876508288</v>
+        <v>0.1244923044691618</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09969808049846851</v>
+        <v>0.1099116780983039</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1050447217325462</v>
+        <v>0.1243323263602817</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03403736478035145</v>
+        <v>0.03384231839846966</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1062003218348554</v>
+        <v>0.1256609957544846</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03403736478035145</v>
+        <v>0.03384231839846966</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1062003218348554</v>
+        <v>0.1256609957544846</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06639586796785418</v>
+        <v>0.0723928397666487</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1057979070310357</v>
+        <v>0.1253278232911025</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1000681751993225</v>
+        <v>0.1086028362495874</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1057497198649794</v>
+        <v>0.1251667715036393</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03454049798002351</v>
+        <v>0.03394874447257155</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1069083239804211</v>
+        <v>0.1264987357261812</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03454049798002351</v>
+        <v>0.03394874447257155</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1069083239804211</v>
+        <v>0.1264987357261812</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06738573006278198</v>
+        <v>0.0687929461419676</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1065032264112426</v>
+        <v>0.1261633421130431</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1016838691839526</v>
+        <v>0.1079122222419026</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1064547179974126</v>
+        <v>0.1260012166469969</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03352696011837471</v>
+        <v>0.03425343841371815</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1076163261259868</v>
+        <v>0.1273364756978778</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03352696011837471</v>
+        <v>0.03425343841371815</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1076163261259868</v>
+        <v>0.1273364756978778</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06617242109229607</v>
+        <v>0.06920099775528005</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1072085457914495</v>
+        <v>0.1269988609349838</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1028251657919336</v>
+        <v>0.1084477809721099</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1071597161298458</v>
+        <v>0.1268356617903545</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03454309741153685</v>
+        <v>0.03412090324000792</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1083243282715525</v>
+        <v>0.1281742156695743</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03454309741153685</v>
+        <v>0.03412090324000792</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1083243282715525</v>
+        <v>0.1281742156695743</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06698413143928963</v>
+        <v>0.06885858501779774</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1079138651716564</v>
+        <v>0.1278343797569245</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1030547857071071</v>
+        <v>0.1039532816977977</v>
       </c>
       <c r="O218" t="n">
-        <v>0.107864714262279</v>
+        <v>0.1276701069337121</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03481007701419749</v>
+        <v>0.03374207900062848</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1090323304171182</v>
+        <v>0.1290119556412709</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03481007701419749</v>
+        <v>0.03374207900062848</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1090323304171182</v>
+        <v>0.1290119556412709</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06530737049361315</v>
+        <v>0.07163700500071857</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1086191845518634</v>
+        <v>0.1286698985788652</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1033594865421963</v>
+        <v>0.1085929314936823</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1085697123947122</v>
+        <v>0.1285045520770697</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03368438841083637</v>
+        <v>0.03469342692000012</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1097403325626839</v>
+        <v>0.1298496956129674</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03368438841083637</v>
+        <v>0.03469342692000012</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1097403325626839</v>
+        <v>0.1298496956129674</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06851752213389459</v>
+        <v>0.07122766904596628</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1093245039320703</v>
+        <v>0.1295054174008058</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1019465696150048</v>
+        <v>0.1045403189305366</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1092747105271454</v>
+        <v>0.1293389972204272</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03472604606048359</v>
+        <v>0.03385574326780601</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1104483347082496</v>
+        <v>0.130687435584664</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03472604606048359</v>
+        <v>0.03385574326780601</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1104483347082496</v>
+        <v>0.130687435584664</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06881662699243257</v>
+        <v>0.06872192460132168</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1100298233122772</v>
+        <v>0.1303409362227465</v>
       </c>
       <c r="N221" t="n">
-        <v>0.101917510205323</v>
+        <v>0.1077261669925388</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1099797086595786</v>
+        <v>0.1301734423637849</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03374412735713246</v>
+        <v>0.03314135028633822</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1111563368538153</v>
+        <v>0.1315251755563606</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03374412735713246</v>
+        <v>0.03314135028633822</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1111563368538153</v>
+        <v>0.1315251755563606</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06871915345937682</v>
+        <v>0.07049392137667124</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1107351426924841</v>
+        <v>0.1311764550446872</v>
       </c>
       <c r="N222" t="n">
-        <v>0.09859847507695046</v>
+        <v>0.1067560710191965</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1106847067920118</v>
+        <v>0.1310078875071424</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03416465936981787</v>
+        <v>0.0347187573327374</v>
       </c>
       <c r="G223" t="n">
-        <v>0.111864338999381</v>
+        <v>0.1323629155280572</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03416465936981787</v>
+        <v>0.0347187573327374</v>
       </c>
       <c r="K223" t="n">
-        <v>0.111864338999381</v>
+        <v>0.1323629155280572</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06922378061681397</v>
+        <v>0.07042676790448835</v>
       </c>
       <c r="M223" t="n">
-        <v>0.111440462072691</v>
+        <v>0.1320119738666279</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1010582381193347</v>
+        <v>0.1048392847012092</v>
       </c>
       <c r="O223" t="n">
-        <v>0.111389704924445</v>
+        <v>0.1318423326505</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0338318302957845</v>
+        <v>0.03426465909464897</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1125723411449467</v>
+        <v>0.1332006554997537</v>
       </c>
       <c r="J224" t="n">
-        <v>0.0338318302957845</v>
+        <v>0.03426465909464897</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1125723411449467</v>
+        <v>0.1332006554997537</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06872012025935501</v>
+        <v>0.07132053088300039</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1121457814528979</v>
+        <v>0.1328474926885686</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1008858598447888</v>
+        <v>0.1040164411945002</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1120947030568781</v>
+        <v>0.1326767777938576</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0339719763761674</v>
+        <v>0.03341339092079144</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1132803432905124</v>
+        <v>0.1340383954714503</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0339719763761674</v>
+        <v>0.03341339092079144</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1132803432905124</v>
+        <v>0.1340383954714503</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0681518160057159</v>
+        <v>0.0715188490028304</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1128511008331048</v>
+        <v>0.1336830115105093</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1010830245271039</v>
+        <v>0.1081618425009346</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1127997011893113</v>
+        <v>0.1335112229372152</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03423592545325105</v>
+        <v>0.03381430005849229</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1139883454360781</v>
+        <v>0.1348761354431468</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03423592545325105</v>
+        <v>0.03381430005849229</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1139883454360781</v>
+        <v>0.1348761354431468</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06704096480832711</v>
+        <v>0.06971041825097798</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1135564202133117</v>
+        <v>0.13451853033245</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09885647556746313</v>
+        <v>0.1075063972536874</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1135046993217445</v>
+        <v>0.1343456680805728</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03351683348107166</v>
+        <v>0.03325090255032677</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1146963475816438</v>
+        <v>0.1357138754148434</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03351683348107166</v>
+        <v>0.03325090255032677</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1146963475816438</v>
+        <v>0.1357138754148434</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06790859467217458</v>
+        <v>0.06825773308502284</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1142617395935186</v>
+        <v>0.1353540491543906</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1031739001140817</v>
+        <v>0.1023588577210602</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1142096974541777</v>
+        <v>0.1351801132239304</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03402530007422365</v>
+        <v>0.03313886615507007</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1154043497272095</v>
+        <v>0.13655161538654</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03402530007422365</v>
+        <v>0.03313886615507007</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1154043497272095</v>
+        <v>0.13655161538654</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06971453354782825</v>
+        <v>0.06882729179161434</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1149670589737255</v>
+        <v>0.1361895679763313</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09956576748201101</v>
+        <v>0.1041655939917263</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1149146955866109</v>
+        <v>0.136014558367288</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03357466150063053</v>
+        <v>0.03373010112877925</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1161123518727752</v>
+        <v>0.1373893553582365</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03357466150063053</v>
+        <v>0.03373010112877925</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1161123518727752</v>
+        <v>0.1373893553582365</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06825721832747628</v>
+        <v>0.07148783120961824</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1156723783539324</v>
+        <v>0.137025086798272</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1005246611015403</v>
+        <v>0.1046432454973081</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1156196937190441</v>
+        <v>0.1368490035106456</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03473548730044225</v>
+        <v>0.03344879360772365</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1168203540183409</v>
+        <v>0.1382270953299331</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03473548730044225</v>
+        <v>0.03344879360772365</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1168203540183409</v>
+        <v>0.1382270953299331</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06941434604659577</v>
+        <v>0.0693890753429999</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1163776977341393</v>
+        <v>0.1378606056202127</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1042275446111051</v>
+        <v>0.1017293840549129</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1163246918514773</v>
+        <v>0.1376834486540032</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03398990893031138</v>
+        <v>0.0329253694022949</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1175283561639066</v>
+        <v>0.1390648353016297</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03398990893031138</v>
+        <v>0.0329253694022949</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1175283561639066</v>
+        <v>0.1390648353016297</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06829862564003694</v>
+        <v>0.07115550389461561</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1170830171143462</v>
+        <v>0.1386961244421533</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1039478348433933</v>
+        <v>0.1019129936580402</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1170296899839105</v>
+        <v>0.1385178937973608</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03429287841413906</v>
+        <v>0.03319644439870996</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1182363583094724</v>
+        <v>0.1399025752733262</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03429287841413906</v>
+        <v>0.03319644439870996</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1182363583094724</v>
+        <v>0.1399025752733262</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07094498965230658</v>
+        <v>0.06918240306715154</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1177883364945531</v>
+        <v>0.1395316432640941</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1046803224142615</v>
+        <v>0.1019508452305209</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1177346881163437</v>
+        <v>0.1393523389407184</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.0340434032704051</v>
+        <v>0.03279014584621599</v>
       </c>
       <c r="G233" t="n">
-        <v>0.118944360455038</v>
+        <v>0.1407403152450228</v>
       </c>
       <c r="J233" t="n">
-        <v>0.0340434032704051</v>
+        <v>0.03279014584621599</v>
       </c>
       <c r="K233" t="n">
-        <v>0.118944360455038</v>
+        <v>0.1407403152450228</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07030288299772169</v>
+        <v>0.06927057844814144</v>
       </c>
       <c r="M233" t="n">
-        <v>0.11849365587476</v>
+        <v>0.1403671620860347</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1035406683659379</v>
+        <v>0.1039301940029772</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1184396862487769</v>
+        <v>0.140186784084076</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03331350843140114</v>
+        <v>0.03358831334271938</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1196523626006037</v>
+        <v>0.1415780552167193</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03331350843140114</v>
+        <v>0.03358831334271938</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1196523626006037</v>
+        <v>0.1415780552167193</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06942379037240978</v>
+        <v>0.06977460226973881</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1191989752549669</v>
+        <v>0.1412026809079754</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1021576199685443</v>
+        <v>0.1079764864671809</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1191446843812101</v>
+        <v>0.1410212292274336</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03387225309131149</v>
+        <v>0.03383235995924039</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1203603647461694</v>
+        <v>0.1424157951884159</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03387225309131149</v>
+        <v>0.03383235995924039</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1203603647461694</v>
+        <v>0.1424157951884159</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07053525963406612</v>
+        <v>0.06775672789610926</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1199042946351738</v>
+        <v>0.1420381997299161</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1022198559432674</v>
+        <v>0.1036549572775702</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1198496825136433</v>
+        <v>0.1418556743707912</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03371146760266606</v>
+        <v>0.03415110119196282</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1210683668917352</v>
+        <v>0.1432535351601125</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03371146760266606</v>
+        <v>0.03415110119196282</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1210683668917352</v>
+        <v>0.1432535351601125</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07047125848824556</v>
+        <v>0.06895103279100512</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1206096140153808</v>
+        <v>0.1428737185518568</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1026386667267268</v>
+        <v>0.1041843935568177</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1205546806460765</v>
+        <v>0.1426901195141488</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03428366678002986</v>
+        <v>0.03332421650205009</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1217763690373009</v>
+        <v>0.1440912751318091</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03428366678002986</v>
+        <v>0.03332421650205009</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1217763690373009</v>
+        <v>0.1440912751318091</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07032185019038678</v>
+        <v>0.06828786194356015</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1213149333955876</v>
+        <v>0.1437092373737975</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1020016117614474</v>
+        <v>0.1009925410491782</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1212596787785097</v>
+        <v>0.1435245646575064</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03467622840684557</v>
+        <v>0.03271480181667306</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1224843711828666</v>
+        <v>0.1449290151035056</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03467622840684557</v>
+        <v>0.03271480181667306</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1224843711828666</v>
+        <v>0.1449290151035056</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06990747970519604</v>
+        <v>0.06851775932553492</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1220202527757946</v>
+        <v>0.1445447561957381</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1002505670154447</v>
+        <v>0.1019104096222315</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1219646769109429</v>
+        <v>0.144359009800864</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03405377041867964</v>
+        <v>0.03414340865518892</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1231923733284322</v>
+        <v>0.1457667550752022</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03405377041867964</v>
+        <v>0.03414340865518892</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1231923733284322</v>
+        <v>0.1457667550752022</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06781982963200051</v>
+        <v>0.06813433087513177</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1227255721560015</v>
+        <v>0.1453802750176788</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1002268922875557</v>
+        <v>0.1013397182980231</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1226696750433761</v>
+        <v>0.1451934549442216</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03345340240165177</v>
+        <v>0.03332516064895218</v>
       </c>
       <c r="G240" t="n">
-        <v>0.123900375473998</v>
+        <v>0.1466044950468987</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03345340240165177</v>
+        <v>0.03332516064895218</v>
       </c>
       <c r="K240" t="n">
-        <v>0.123900375473998</v>
+        <v>0.1466044950468987</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06970228081958024</v>
+        <v>0.06765743060137952</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1234308915362084</v>
+        <v>0.1462157938396195</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09993557240639001</v>
+        <v>0.1073739073583791</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1233746731758093</v>
+        <v>0.1460279000875792</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03417770112990921</v>
+        <v>0.03322391137331659</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1246083776195637</v>
+        <v>0.1474422350185953</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03417770112990921</v>
+        <v>0.03322391137331659</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1246083776195637</v>
+        <v>0.1474422350185953</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07074507189035489</v>
+        <v>0.06703731543205449</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1241362109164153</v>
+        <v>0.1470513126615602</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1034159712534508</v>
+        <v>0.1036470379898056</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1240796713082425</v>
+        <v>0.1468623452309367</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03386621247044427</v>
+        <v>0.03292271917586115</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1253163797651294</v>
+        <v>0.1482799749902919</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03386621247044427</v>
+        <v>0.03292271917586115</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1253163797651294</v>
+        <v>0.1482799749902919</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07047370369364464</v>
+        <v>0.06763309976380377</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1248415302966222</v>
+        <v>0.1478868314835009</v>
       </c>
       <c r="N242" t="n">
-        <v>0.102760747860439</v>
+        <v>0.1042750133885694</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1247846694406757</v>
+        <v>0.1476967903742944</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03344107695236899</v>
+        <v>0.03366326857786957</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1260243819106951</v>
+        <v>0.1491177149619884</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03344107695236899</v>
+        <v>0.03366326857786957</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1260243819106951</v>
+        <v>0.1491177149619884</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07140496251680781</v>
+        <v>0.06926224052690222</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1255468496768291</v>
+        <v>0.1487223503054416</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1004017745850837</v>
+        <v>0.1068069784265288</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1254896675731089</v>
+        <v>0.1485312355176519</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03426241406623376</v>
+        <v>0.03295264856785714</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1267323840562608</v>
+        <v>0.149955454933685</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03426241406623376</v>
+        <v>0.03295264856785714</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1267323840562608</v>
+        <v>0.149955454933685</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06957154323559722</v>
+        <v>0.06848943861651827</v>
       </c>
       <c r="M244" t="n">
-        <v>0.126252169057036</v>
+        <v>0.1495578691273823</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1010719681100076</v>
+        <v>0.1043898419993188</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1261946657055421</v>
+        <v>0.1493656806610095</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03426630552444961</v>
+        <v>0.03374208532880059</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1274403862018265</v>
+        <v>0.1507931949053816</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03426630552444961</v>
+        <v>0.03374208532880059</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1274403862018265</v>
+        <v>0.1507931949053816</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06820360986225976</v>
+        <v>0.0685692622969423</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1269574884372429</v>
+        <v>0.1503933879493229</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1035109829961566</v>
+        <v>0.1055262911614749</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1268996638379753</v>
+        <v>0.1502001258043671</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03333099699433187</v>
+        <v>0.03285632182793925</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1281483883473922</v>
+        <v>0.1516309348770781</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03333099699433187</v>
+        <v>0.03285632182793925</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1281483883473922</v>
+        <v>0.1516309348770781</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06864505555499922</v>
+        <v>0.06940086551432181</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1276628078174498</v>
+        <v>0.1512289067712636</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1030570484007514</v>
+        <v>0.1045119209672107</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1276046619704085</v>
+        <v>0.1510345709477247</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03375380652747291</v>
+        <v>0.03268671790863599</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1288563904929579</v>
+        <v>0.1524686748487747</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03375380652747291</v>
+        <v>0.03268671790863599</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1288563904929579</v>
+        <v>0.1524686748487747</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06951540450990901</v>
+        <v>0.0692846550243556</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1283681271976567</v>
+        <v>0.1520644255932043</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1020352628381684</v>
+        <v>0.1020998714216158</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1283096601028416</v>
+        <v>0.1518690160910823</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03388502742192154</v>
+        <v>0.03211740173847256</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1295643926385236</v>
+        <v>0.1533064148204712</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03388502742192154</v>
+        <v>0.03211740173847256</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1295643926385236</v>
+        <v>0.1533064148204712</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07055178283432267</v>
+        <v>0.06757339446132968</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1290734465778636</v>
+        <v>0.152899944415145</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1042298643348176</v>
+        <v>0.1066060720619571</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1290146582352748</v>
+        <v>0.1527034612344399</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03445368060984712</v>
+        <v>0.03366937605632737</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1302723947840893</v>
+        <v>0.1541441547921678</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03445368060984712</v>
+        <v>0.03366937605632737</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1302723947840893</v>
+        <v>0.1541441547921678</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06929584718343171</v>
+        <v>0.068343248069307</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1297787659580705</v>
+        <v>0.1537354632370857</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09954326010624387</v>
+        <v>0.103019205965073</v>
       </c>
       <c r="O249" t="n">
-        <v>0.129719656367708</v>
+        <v>0.1535379063777975</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03335616421083097</v>
+        <v>0.032160193488147</v>
       </c>
       <c r="G250" t="n">
-        <v>0.130980396929655</v>
+        <v>0.1549818947638644</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03335616421083097</v>
+        <v>0.032160193488147</v>
       </c>
       <c r="K250" t="n">
-        <v>0.130980396929655</v>
+        <v>0.1549818947638644</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07023707308797822</v>
+        <v>0.0696853032641028</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1304840853382774</v>
+        <v>0.1545709820590263</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1020732980674509</v>
+        <v>0.1055125151419521</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1304246545001412</v>
+        <v>0.1543723515211551</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03343460616460059</v>
+        <v>0.03351945989809337</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1316883990752207</v>
+        <v>0.1558196347355609</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03343460616460059</v>
+        <v>0.03351945989809337</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1316883990752207</v>
+        <v>0.1558196347355609</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07091402163585531</v>
+        <v>0.06671711130945587</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1311894047184843</v>
+        <v>0.155406500880967</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1021821468582106</v>
+        <v>0.1025143656369603</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1311296526325745</v>
+        <v>0.1552067966645127</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03364355721326469</v>
+        <v>0.03332300718291914</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1323964012207864</v>
+        <v>0.1566573747072575</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03364355721326469</v>
+        <v>0.03332300718291914</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1323964012207864</v>
+        <v>0.1566573747072575</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06895357022450102</v>
+        <v>0.06945904551310078</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1318947240986912</v>
+        <v>0.1562420197029077</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1014881763351348</v>
+        <v>0.103243601862705</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1318346507650076</v>
+        <v>0.1560412418078703</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03346461691333336</v>
+        <v>0.03262811858653547</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1331044033663521</v>
+        <v>0.1574951146789541</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03346461691333336</v>
+        <v>0.03262811858653547</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1331044033663521</v>
+        <v>0.1574951146789541</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07023263048808173</v>
+        <v>0.06662406673450944</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1326000434788981</v>
+        <v>0.1570775385248484</v>
       </c>
       <c r="N253" t="n">
-        <v>0.09882119747292178</v>
+        <v>0.1004516819901003</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1325396488974408</v>
+        <v>0.1568756869512279</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0328232332474169</v>
+        <v>0.03346166265602618</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1338124055119178</v>
+        <v>0.1583328546506506</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0328232332474169</v>
+        <v>0.03346166265602618</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1338124055119178</v>
+        <v>0.1583328546506506</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07088983088807904</v>
+        <v>0.06703563418361311</v>
       </c>
       <c r="M254" t="n">
-        <v>0.133305362859105</v>
+        <v>0.1579130573467891</v>
       </c>
       <c r="N254" t="n">
-        <v>0.103743427738161</v>
+        <v>0.1000019665951902</v>
       </c>
       <c r="O254" t="n">
-        <v>0.133244647029874</v>
+        <v>0.1577101320945855</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03275092511920084</v>
+        <v>0.03267444529181678</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1345204076574835</v>
+        <v>0.1591705946223472</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03275092511920084</v>
+        <v>0.03267444529181678</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1345204076574835</v>
+        <v>0.1591705946223472</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06892208390836341</v>
+        <v>0.06619796467613537</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1340106822393119</v>
+        <v>0.1587485761687298</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1034640090486366</v>
+        <v>0.102475185886913</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1339496451623072</v>
+        <v>0.1585445772379431</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03376401801408843</v>
+        <v>0.03348176245309284</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1352284098030492</v>
+        <v>0.1600083345940438</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03376401801408843</v>
+        <v>0.03348176245309284</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1352284098030492</v>
+        <v>0.1600083345940438</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07152292491578705</v>
+        <v>0.06896629546374863</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1347160016195189</v>
+        <v>0.1595840949906704</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1022879111304939</v>
+        <v>0.09985956716432526</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1346546432947404</v>
+        <v>0.1593790223813007</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03325213557011374</v>
+        <v>0.03340807037795081</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1359364119486149</v>
+        <v>0.1608460745657403</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03325213557011374</v>
+        <v>0.03340807037795081</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1359364119486149</v>
+        <v>0.1608460745657403</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07179438724590656</v>
+        <v>0.06871979464478778</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1354213209997257</v>
+        <v>0.1604196138126111</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1035018159973804</v>
+        <v>0.099713244829368</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1353596414271736</v>
+        <v>0.1602134675246583</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03284075230539654</v>
+        <v>0.03204307193471073</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1366444140941806</v>
+        <v>0.1616838145374369</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03284075230539654</v>
+        <v>0.03204307193471073</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1366444140941806</v>
+        <v>0.1616838145374369</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06948282702941297</v>
+        <v>0.06783566231760588</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1361266403799327</v>
+        <v>0.1612551326345518</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1031008471979056</v>
+        <v>0.1054251196272903</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1360646395596068</v>
+        <v>0.1610479126680159</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03326432374921875</v>
+        <v>0.03248269797601122</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1373524162397463</v>
+        <v>0.1625215545091334</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03326432374921875</v>
+        <v>0.03248269797601122</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1373524162397463</v>
+        <v>0.1625215545091334</v>
       </c>
       <c r="L259" t="n">
-        <v>0.0707995975287368</v>
+        <v>0.06882770512453942</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1368319597601395</v>
+        <v>0.1620906514564925</v>
       </c>
       <c r="N259" t="n">
-        <v>0.09927263393338848</v>
+        <v>0.09921275205659169</v>
       </c>
       <c r="O259" t="n">
-        <v>0.13676963769204</v>
+        <v>0.1618823578113735</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03337663423030451</v>
+        <v>0.03201193505024641</v>
       </c>
       <c r="G260" t="n">
-        <v>0.138060418385312</v>
+        <v>0.16335929448083</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03337663423030451</v>
+        <v>0.03201193505024641</v>
       </c>
       <c r="K260" t="n">
-        <v>0.138060418385312</v>
+        <v>0.16335929448083</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07074068845264628</v>
+        <v>0.06591568726833588</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1375372791403465</v>
+        <v>0.1629261702784332</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1024209136017787</v>
+        <v>0.1033683481675389</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1374746358244732</v>
+        <v>0.162716802954731</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03280414081756901</v>
+        <v>0.0318466012739794</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1387684205308777</v>
+        <v>0.1641970344525266</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03280414081756901</v>
+        <v>0.0318466012739794</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1387684205308777</v>
+        <v>0.1641970344525266</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06971629772458299</v>
+        <v>0.06715442727149848</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1382425985205533</v>
+        <v>0.1637616891003739</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1011245094691374</v>
+        <v>0.1020266106884855</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1381796339569064</v>
+        <v>0.1635512480980887</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03253162726061831</v>
+        <v>0.03308798343535739</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1394764226764434</v>
+        <v>0.1650347744242232</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03253162726061831</v>
+        <v>0.03308798343535739</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1394764226764434</v>
+        <v>0.1650347744242232</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07076700747817483</v>
+        <v>0.06723521700048965</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1389479179007603</v>
+        <v>0.1645972079223145</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1003833749117557</v>
+        <v>0.09811940281059633</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1388846320893396</v>
+        <v>0.1643856932414463</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03314967359590526</v>
+        <v>0.03250844726720611</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1401844248220091</v>
+        <v>0.1658725143959197</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03314967359590526</v>
+        <v>0.03250844726720611</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1401844248220091</v>
+        <v>0.1658725143959197</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07239091252518351</v>
+        <v>0.06873627415218792</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1396532372809672</v>
+        <v>0.1654327267442552</v>
       </c>
       <c r="N263" t="n">
-        <v>0.100315414840946</v>
+        <v>0.1042726378823621</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1395896302217728</v>
+        <v>0.1652201383848038</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03321712602385583</v>
+        <v>0.03175746742181533</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1408924269675748</v>
+        <v>0.1667102543676163</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03321712602385583</v>
+        <v>0.03175746742181533</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1408924269675748</v>
+        <v>0.1667102543676163</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07016485286573826</v>
+        <v>0.06666526592500829</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1403585566611741</v>
+        <v>0.1662682455661959</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1031422435519412</v>
+        <v>0.1022390579124052</v>
       </c>
       <c r="O264" t="n">
-        <v>0.140294628354206</v>
+        <v>0.1660545835281614</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1065.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1065.xlsx
@@ -4882,7 +4882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="S81" sqref="S81"/>
@@ -8805,7 +8805,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.06746816462443581</v>
+        <v>0.1006139320975862</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9252,10 +9252,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9270,29 +9270,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.0002399999999999972</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.0002399999999999972</v>
+        <v>0.0004100000000000006</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.01692592197543397</v>
+        <v>0.01440503997909276</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0004088356287685784</v>
+        <v>0.0002936785309132092</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.03109751010448591</v>
+        <v>0.03055193975177567</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0004146303583088018</v>
+        <v>0.0003993687661729089</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9312,29 +9312,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.008908763958462261</v>
+        <v>0.007848086982238427</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005939131428488382</v>
+        <v>0.00045516217423545</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.008908763958462261</v>
+        <v>0.009432808897195333</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0005939131428488382</v>
+        <v>0.0006288492100752402</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.02956276016723472</v>
+        <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0008355188219406829</v>
+        <v>0.001101294490924534</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001091132521865268</v>
+        <v>0.001069737766534577</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9352,10 +9352,10 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.0151812285652731</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.0009103243484708999</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
@@ -9365,16 +9365,16 @@
         <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03601259994773187</v>
+        <v>0.0373999545785012</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001304794559899719</v>
+        <v>0.001668992417057494</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0562478041790721</v>
+        <v>0.05905028289837772</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00166889028671519</v>
+        <v>0.00166867526404855</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9394,29 +9394,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01892550153026287</v>
+        <v>0.02157893907239446</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002513219915089693</v>
+        <v>0.00136548652270635</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01892550153026287</v>
+        <v>0.01761446736583716</v>
       </c>
       <c r="K68" s="171" t="n">
         <v>0.002513219915089693</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.04062054869837178</v>
+        <v>0.03897819413252845</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002506556465822049</v>
+        <v>0.002503488625586242</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.06281323794138599</v>
+        <v>0.06025281967802948</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002503335430072786</v>
+        <v>0.002503012896072825</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9441,29 +9441,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01957160003981877</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003350959886786257</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01957160003981877</v>
+        <v>0.0197678301673217</v>
       </c>
       <c r="K69" s="171" t="n">
         <v>0.003350959886786257</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03962313848938301</v>
+        <v>0.04159912756132525</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003342075287762732</v>
+        <v>0.003337984834114989</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06421683848524373</v>
+        <v>0.0632535199850302</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003337780573430381</v>
+        <v>0.0033373505280971</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9478,62 +9478,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0005939131428488382</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="B70" t="n">
-        <v>0.008908763958462261</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02112757410846013</v>
+        <v>0.03138562773942012</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004188699858482821</v>
+        <v>0.00227581087117725</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02112757410846013</v>
+        <v>0.02007982439414492</v>
       </c>
       <c r="K70" s="171" t="n">
         <v>0.004188699858482821</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04363536160477779</v>
+        <v>0.04269718801595529</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004177594109703415</v>
+        <v>0.004172481042643736</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0692724358156786</v>
+        <v>0.06509668699610099</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004172225716787975</v>
+        <v>0.004171688160121375</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02208564554516429</v>
+        <v>0.03590351268165734</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.005026439830179385</v>
+        <v>0.0027309730454127</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02208564554516429</v>
+        <v>0.02094146398336566</v>
       </c>
       <c r="K71" s="171" t="n">
         <v>0.005026439830179385</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04612638250657167</v>
+        <v>0.04533873346023087</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.005013112931644098</v>
+        <v>0.005006977251172484</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.07049804974164142</v>
+        <v>0.06714693660694865</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.005006670860145571</v>
+        <v>0.00500602579214565</v>
       </c>
     </row>
     <row r="72">
@@ -9548,29 +9548,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02159404406380401</v>
+        <v>0.04009441586339473</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005864179801875949</v>
+        <v>0.00318613521964815</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02159404406380401</v>
+        <v>0.02136706466367068</v>
       </c>
       <c r="K72" s="171" t="n">
         <v>0.005864179801875949</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04845676719225767</v>
+        <v>0.04869340135922814</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00584863175358478</v>
+        <v>0.005841473459701231</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07160859235294248</v>
+        <v>0.07003093646307534</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005841116003503166</v>
+        <v>0.005840363424169925</v>
       </c>
     </row>
     <row r="73">
@@ -9594,29 +9594,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02329419279975063</v>
+        <v>0.04380504926466551</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006701919773572514</v>
+        <v>0.0036412973938836</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02329419279975063</v>
+        <v>0.02233882322497917</v>
       </c>
       <c r="K73" s="171" t="n">
         <v>0.006701919773572514</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04658079440483434</v>
+        <v>0.05023190017813348</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006684150575525463</v>
+        <v>0.006675969668229978</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0735603923970386</v>
+        <v>0.07655963713268721</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006675561146860761</v>
+        <v>0.0066747010561942</v>
       </c>
     </row>
     <row r="74">
@@ -9631,29 +9631,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02287462513201481</v>
+        <v>0.04688212486550304</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007539659745269077</v>
+        <v>0.00409645956811905</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02287462513201481</v>
+        <v>0.0230523026106496</v>
       </c>
       <c r="K74" s="171" t="n">
         <v>0.007539659745269077</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04867716638319922</v>
+        <v>0.05009885839414166</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007519669397466146</v>
+        <v>0.007510465876758726</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07617262738723635</v>
+        <v>0.07296970104562595</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007510006290218357</v>
+        <v>0.007509038688218476</v>
       </c>
     </row>
     <row r="75">
@@ -9675,29 +9675,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02406058367221008</v>
+        <v>0.04917235464594054</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008377399716965642</v>
+        <v>0.0045516217423545</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02406058367221008</v>
+        <v>0.0244050761834262</v>
       </c>
       <c r="K75" s="171" t="n">
         <v>0.008377399716965642</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05240165093531671</v>
+        <v>0.04949398183159684</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008355188219406829</v>
+        <v>0.008344962085287472</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07668922120063465</v>
+        <v>0.07484317607381391</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00834445143357595</v>
+        <v>0.00834337632024275</v>
       </c>
     </row>
     <row r="76">
@@ -9717,29 +9717,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02484004177937713</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.009215139688662208</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02484004177937713</v>
+        <v>0.02407042234636218</v>
       </c>
       <c r="K76" s="171" t="n">
         <v>0.009215139688662208</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05301961475185471</v>
+        <v>0.05050781298809837</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.009190707041347513</v>
+        <v>0.009179458293816219</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07803199088576812</v>
+        <v>0.08081271441844629</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.009178896576933547</v>
+        <v>0.009177713952267024</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9754,28 +9754,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02481525402727841</v>
+        <v>0.05122247676604967</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01005287966035877</v>
+        <v>0.0054619460908254</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02481525402727841</v>
+        <v>0.02502800335274548</v>
       </c>
       <c r="K77" t="n">
         <v>0.01005287966035877</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05158393995210703</v>
+        <v>0.05335696809143906</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0100262258632882</v>
+        <v>0.01001395450234497</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08081858288906746</v>
+        <v>0.08089332575011371</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01001334172029114</v>
+        <v>0.0100120515842913</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9794,28 +9794,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02532800336612995</v>
+        <v>0.05190267352700431</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01089061963205533</v>
+        <v>0.00591710826506085</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02532800336612995</v>
+        <v>0.02513169253127932</v>
       </c>
       <c r="K78" t="n">
         <v>0.01089061963205533</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05510806465028015</v>
+        <v>0.05516176317353907</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01086174468522888</v>
+        <v>0.01084845071087371</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07884331054130123</v>
+        <v>0.08190023500407317</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01084778686364874</v>
+        <v>0.01084638921631558</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9836,28 +9836,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02585239056351915</v>
+        <v>0.05257099489715768</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0117283596037519</v>
+        <v>0.0063722704392963</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02585239056351915</v>
+        <v>0.02642709114723241</v>
       </c>
       <c r="K79" t="n">
         <v>0.0117283596037519</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0566048755456835</v>
+        <v>0.05654234094790989</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01169726350716956</v>
+        <v>0.01168294691940246</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08373609223478978</v>
+        <v>0.0813972153874345</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01168223200700633</v>
+        <v>0.01168072684833985</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9867,28 +9867,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02713256193696324</v>
+        <v>0.05322753472188137</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01256609957544846</v>
+        <v>0.00682743261353175</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02713256193696324</v>
+        <v>0.02696069625511115</v>
       </c>
       <c r="K80" t="n">
         <v>0.01256609957544846</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05499393121210733</v>
+        <v>0.05546347634165436</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01253278232911025</v>
+        <v>0.01251744312793121</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08397488489125082</v>
+        <v>0.08553213342856225</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01251667715036393</v>
+        <v>0.01251506448036412</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9904,28 +9904,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02689761943923451</v>
+        <v>0.05387238684654701</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01340383954714503</v>
+        <v>0.007282594787767199</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02689761943923451</v>
+        <v>0.02599661098911596</v>
       </c>
       <c r="K81" t="n">
         <v>0.01340383954714503</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05800680500613817</v>
+        <v>0.05679849806863005</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01336830115105093</v>
+        <v>0.01335193933645996</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08767575833156527</v>
+        <v>0.08598289399409215</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01335112229372152</v>
+        <v>0.0133494021123884</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9938,28 +9938,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02650817069672924</v>
+        <v>0.05450564511652622</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01424157951884159</v>
+        <v>0.00773775696200265</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02650817069672924</v>
+        <v>0.02653933731767241</v>
       </c>
       <c r="K82" t="n">
         <v>0.01424157951884159</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0559504453118484</v>
+        <v>0.05762227974412332</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01420381997299161</v>
+        <v>0.0141864355449887</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08752977731294537</v>
+        <v>0.08525354807941876</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01418556743707912</v>
+        <v>0.01418373974441268</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9969,28 +9969,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0268351232145551</v>
+        <v>0.05512740337719062</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01507931949053815</v>
+        <v>0.008192919136238101</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0268351232145551</v>
+        <v>0.02798060012935988</v>
       </c>
       <c r="K83" t="n">
         <v>0.01507931949053815</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05811181596520909</v>
+        <v>0.05569094510928113</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01503933879493229</v>
+        <v>0.01502093175351745</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08819022797899406</v>
+        <v>0.08308083315722298</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01502001258043671</v>
+        <v>0.01501807737643695</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10005,28 +10005,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02812296934986698</v>
+        <v>0.05573775547391183</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01591705946223472</v>
+        <v>0.00864808131047355</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02812296934986698</v>
+        <v>0.02712846556025481</v>
       </c>
       <c r="K84" t="n">
         <v>0.01591705946223472</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05753710079721591</v>
+        <v>0.0572542126911233</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01587485761687298</v>
+        <v>0.0158554279620462</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08672457604714606</v>
+        <v>0.08477189213861008</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01585445772379431</v>
+        <v>0.01585241500846123</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10045,28 +10045,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02790902407212981</v>
+        <v>0.05633679525206146</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01675479943393128</v>
+        <v>0.009103243484709001</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02790902407212981</v>
+        <v>0.02773531457906421</v>
       </c>
       <c r="K85" t="n">
         <v>0.01675479943393128</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05867157132329845</v>
+        <v>0.05643480589702676</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01671037643881366</v>
+        <v>0.01668992417057494</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08495712441675957</v>
+        <v>0.08852577455887289</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0166889028671519</v>
+        <v>0.0166867526404855</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10087,28 +10087,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02795134537712696</v>
+        <v>0.05692461655701116</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01759253940562785</v>
+        <v>0.00955840565894445</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02795134537712696</v>
+        <v>0.02766163072793312</v>
       </c>
       <c r="K86" t="n">
         <v>0.01759253940562785</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05659239965857271</v>
+        <v>0.05611832533349836</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01754589526075434</v>
+        <v>0.01752442037910369</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09083884508878964</v>
+        <v>0.08521911182697661</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0175233480105095</v>
+        <v>0.01752109027250978</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10118,28 +10118,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02900767852888755</v>
+        <v>0.05750131323413252</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01843027937732442</v>
+        <v>0.0100135678331799</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02900767852888755</v>
+        <v>0.0277811589811959</v>
       </c>
       <c r="K87" t="n">
         <v>0.01843027937732442</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05877228132950557</v>
+        <v>0.05970077117313</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01838141408269503</v>
+        <v>0.01835891658763244</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08697783893474831</v>
+        <v>0.08886959413491391</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01835779315386709</v>
+        <v>0.01835542790453405</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10153,28 +10153,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02867110067671681</v>
+        <v>0.05806697912879716</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01926801934902098</v>
+        <v>0.01046873000741535</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02867110067671681</v>
+        <v>0.02912216774346255</v>
       </c>
       <c r="K88" t="n">
         <v>0.01926801934902098</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05913294977775965</v>
+        <v>0.05698616886788729</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01921693290463571</v>
+        <v>0.01919341279616119</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08831820074234398</v>
+        <v>0.09233712468332972</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01919223829722469</v>
+        <v>0.01918976553655833</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10187,4780 +10187,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02868996102982083</v>
+        <v>0.05862170808637672</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02010575932071754</v>
+        <v>0.0109238921816508</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02868996102982083</v>
+        <v>0.0276970087289784</v>
       </c>
       <c r="K89" t="n">
         <v>0.02010575932071754</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05974177125696517</v>
+        <v>0.05713531833197391</v>
       </c>
       <c r="M89" t="n">
-        <v>0.02005245172657639</v>
+        <v>0.02002790900468994</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08697693921515987</v>
+        <v>0.08889230728452685</v>
       </c>
       <c r="O89" t="n">
-        <v>0.02002668344058229</v>
+        <v>0.0200241031685826</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02898423376493736</v>
+        <v>0.05916559395224281</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0209434992924141</v>
+        <v>0.01137905435588625</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02898423376493736</v>
+        <v>0.02806753064414878</v>
       </c>
       <c r="K90" t="n">
         <v>0.0209434992924141</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05874682894672933</v>
+        <v>0.06063814528856493</v>
       </c>
       <c r="M90" t="n">
-        <v>0.02088797054851707</v>
+        <v>0.02086240521321868</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08942937422306357</v>
+        <v>0.08931090722444546</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02086112858393988</v>
+        <v>0.02085844080060688</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02866883116509464</v>
+        <v>0.05969873057176707</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02178123926411067</v>
+        <v>0.0118342165301217</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02866883116509464</v>
+        <v>0.02821876661678817</v>
       </c>
       <c r="K91" t="n">
         <v>0.02178123926411067</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0588287853931613</v>
+        <v>0.0582834355421617</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02172348937045775</v>
+        <v>0.02169690142174743</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0916248340660184</v>
+        <v>0.08734103591714648</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02169557372729747</v>
+        <v>0.02169277843263115</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02957861350092969</v>
+        <v>0.0602212117903211</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02261897923580724</v>
+        <v>0.01228937870435715</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02957861350092969</v>
+        <v>0.02945153377390136</v>
       </c>
       <c r="K92" t="n">
         <v>0.02261897923580724</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05900242511187057</v>
+        <v>0.06078632961842156</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02255900819239844</v>
+        <v>0.02253139763027618</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09157244566517514</v>
+        <v>0.08989651674016935</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02253001887065507</v>
+        <v>0.02252711606465543</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02819025861665861</v>
+        <v>0.06073313145327652</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0234567192075038</v>
+        <v>0.0127445408785926</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02819025861665861</v>
+        <v>0.02870423650262889</v>
       </c>
       <c r="K93" t="n">
         <v>0.0234567192075038</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06038392930141834</v>
+        <v>0.05947772767711623</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02339452701433912</v>
+        <v>0.02336589383880492</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09205336788798341</v>
+        <v>0.09049223793987549</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02336446401401266</v>
+        <v>0.0233614536966797</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02961417738655991</v>
+        <v>0.06123458340600496</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02429445917920036</v>
+        <v>0.01319970305282805</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02961417738655991</v>
+        <v>0.02832158092004088</v>
       </c>
       <c r="K94" t="n">
         <v>0.02429445917920036</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05900863519250668</v>
+        <v>0.06157020571792762</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0242300458362798</v>
+        <v>0.02420039004733367</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09345475791616487</v>
+        <v>0.09259892081292892</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02419890915737026</v>
+        <v>0.02419579132870398</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.0286859101267458</v>
+        <v>0.06172566149387802</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02513219915089693</v>
+        <v>0.0136548652270635</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0286859101267458</v>
+        <v>0.02875298112671164</v>
       </c>
       <c r="K95" t="n">
         <v>0.02513219915089693</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06126045883898096</v>
+        <v>0.06198144808891173</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02506556465822049</v>
+        <v>0.02503488625586242</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09332260844962575</v>
+        <v>0.08985784439061195</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02503335430072785</v>
+        <v>0.02503012896072825</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02966045843238839</v>
+        <v>0.06220645956226735</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02596993912259349</v>
+        <v>0.01411002740129895</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02966045843238839</v>
+        <v>0.03005971107318776</v>
       </c>
       <c r="K96" t="n">
         <v>0.02596993912259349</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06083127368713459</v>
+        <v>0.06065245639088171</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02590108348016117</v>
+        <v>0.02586938246439116</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09624174884956593</v>
+        <v>0.09538239752353794</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02586779944408545</v>
+        <v>0.02586446659275253</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02945847318760669</v>
+        <v>0.06267707145654454</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02680767909429006</v>
+        <v>0.0145651895755344</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02945847318760669</v>
+        <v>0.02925129779896124</v>
       </c>
       <c r="K97" t="n">
         <v>0.02680767909429006</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06235228546337887</v>
+        <v>0.06006371136959243</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02673660230210185</v>
+        <v>0.02670387867291991</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09357240324709981</v>
+        <v>0.0927376665000702</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02670224458744305</v>
+        <v>0.0266988042247768</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02928984888051449</v>
+        <v>0.06313759102208125</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02764541906598662</v>
+        <v>0.01502035174976985</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02928984888051449</v>
+        <v>0.02953775484784808</v>
       </c>
       <c r="K98" t="n">
         <v>0.02764541906598662</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06012398722769999</v>
+        <v>0.06290430095859706</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02757212112404254</v>
+        <v>0.02753837488144866</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0934730144639479</v>
+        <v>0.09243076070683548</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02753668973080064</v>
+        <v>0.02753314185680108</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0303036528326609</v>
+        <v>0.06358811210424906</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02848315903768318</v>
+        <v>0.0154755139240053</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0303036528326609</v>
+        <v>0.0302359295065236</v>
       </c>
       <c r="K99" t="n">
         <v>0.02848315903768318</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05941830844565332</v>
+        <v>0.06286301621757723</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02840763994598322</v>
+        <v>0.02837287108997741</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09694862427507989</v>
+        <v>0.09694023724907824</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02837113487415823</v>
+        <v>0.02836747948882535</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02950242633872817</v>
+        <v>0.06402872854841959</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02932089900937975</v>
+        <v>0.01593067609824075</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02950242633872817</v>
+        <v>0.03000778592602082</v>
       </c>
       <c r="K100" t="n">
         <v>0.02932089900937975</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06236787766971447</v>
+        <v>0.06103197527050114</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0292431587679239</v>
+        <v>0.02920736729850616</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09440493739595335</v>
+        <v>0.09076972812831735</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02920558001751583</v>
+        <v>0.02920181712084963</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03018378657281796</v>
+        <v>0.06445953419996449</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03015863898107631</v>
+        <v>0.0163858382724762</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03018378657281796</v>
+        <v>0.0302078859200301</v>
       </c>
       <c r="K101" t="n">
         <v>0.03015863898107631</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06096365944840432</v>
+        <v>0.06082765616334918</v>
       </c>
       <c r="M101" t="n">
-        <v>0.03007867758986458</v>
+        <v>0.0300418635070349</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09695487380692952</v>
+        <v>0.09229852682647688</v>
       </c>
       <c r="O101" t="n">
-        <v>0.03004002516087343</v>
+        <v>0.0300361547528739</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0306841662455412</v>
+        <v>0.06488062290425539</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03099637895277288</v>
+        <v>0.01684100044671165</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0306841662455412</v>
+        <v>0.02988779305227332</v>
       </c>
       <c r="K102" t="n">
         <v>0.03099637895277288</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06338426317589763</v>
+        <v>0.06296119809152814</v>
       </c>
       <c r="M102" t="n">
-        <v>0.03091419641180527</v>
+        <v>0.03087635971556365</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09236133643165223</v>
+        <v>0.09609732535943782</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03087447030423102</v>
+        <v>0.03087049238489818</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03041560864779871</v>
+        <v>0.06529208850666386</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03183411892446944</v>
+        <v>0.0172961626209471</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03041560864779871</v>
+        <v>0.02982426689834737</v>
       </c>
       <c r="K103" t="n">
         <v>0.03183411892446944</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06445003375157768</v>
+        <v>0.06047863410424012</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03174971523374595</v>
+        <v>0.0317108559240924</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09268410911471708</v>
+        <v>0.09662326275916971</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03170891544758862</v>
+        <v>0.03170483001692245</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03087393607586758</v>
+        <v>0.06569402485256158</v>
       </c>
       <c r="G104" t="n">
-        <v>0.032671858896166</v>
+        <v>0.01775132479518255</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03087393607586758</v>
+        <v>0.03064971294174623</v>
       </c>
       <c r="K104" t="n">
         <v>0.032671858896166</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06368351078071419</v>
+        <v>0.06479770917993388</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03258523405568663</v>
+        <v>0.03254535213262114</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09830614124211978</v>
+        <v>0.09789355932367233</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03254336059094622</v>
+        <v>0.03253916764894673</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03009051554060546</v>
+        <v>0.06608652578732011</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03350959886786257</v>
+        <v>0.018206486969418</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03009051554060546</v>
+        <v>0.03013586135469577</v>
       </c>
       <c r="K105" t="n">
         <v>0.03350959886786257</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06204012625510813</v>
+        <v>0.0653465691980103</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03342075287762732</v>
+        <v>0.03337984834114989</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09689458521405175</v>
+        <v>0.09430777711182592</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0333778057343038</v>
+        <v>0.033373505280971</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03042970057668683</v>
+        <v>0.06646968515631112</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03434733883955914</v>
+        <v>0.01866164914365345</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03042970057668683</v>
+        <v>0.03067134194151125</v>
       </c>
       <c r="K106" t="n">
         <v>0.03434733883955914</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06471058453452846</v>
+        <v>0.06146195840804627</v>
       </c>
       <c r="M106" t="n">
-        <v>0.034256271699568</v>
+        <v>0.03421434454967864</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09835257973425754</v>
+        <v>0.09672579847461649</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0342122508776614</v>
+        <v>0.03420784291299528</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03135902023414018</v>
+        <v>0.0668435968049062</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0351850788112557</v>
+        <v>0.0191168113178889</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03135902023414018</v>
+        <v>0.03013117169268606</v>
       </c>
       <c r="K107" t="n">
         <v>0.0351850788112557</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06575812080111454</v>
+        <v>0.06520759884743374</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03509179052150868</v>
+        <v>0.03504884075820738</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09939012361767091</v>
+        <v>0.09818595706888178</v>
       </c>
       <c r="O107" t="n">
-        <v>0.035046696021019</v>
+        <v>0.03504218054501956</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03101251564352167</v>
+        <v>0.06720835457847699</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03602281878295226</v>
+        <v>0.01957197349212435</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03101251564352167</v>
+        <v>0.0311016385682007</v>
       </c>
       <c r="K108" t="n">
         <v>0.03602281878295226</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06187819734467162</v>
+        <v>0.0624177284172969</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03592730934344936</v>
+        <v>0.03588333696673613</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09780675137145067</v>
+        <v>0.09598269192446796</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03588114116437659</v>
+        <v>0.03587651817704383</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03159256643928894</v>
+        <v>0.06756405232239508</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03686055875464883</v>
+        <v>0.0200271356663598</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03159256643928894</v>
+        <v>0.03112491686747018</v>
       </c>
       <c r="K109" t="n">
         <v>0.03686055875464883</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06555526714598808</v>
+        <v>0.06155311651960363</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03676282816539005</v>
+        <v>0.03671783317526488</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09753832066308021</v>
+        <v>0.09614999295453169</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03671558630773419</v>
+        <v>0.0367108558090681</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03120514422825624</v>
+        <v>0.06791078388203213</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03769829872634539</v>
+        <v>0.02048229784059525</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03120514422825624</v>
+        <v>0.03112395571921324</v>
       </c>
       <c r="K110" t="n">
         <v>0.03769829872634539</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06454570559839404</v>
+        <v>0.06474848454772222</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03759834698733073</v>
+        <v>0.03755232938379362</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1004981387320706</v>
+        <v>0.09794394809071533</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03755003145109179</v>
+        <v>0.03754519344109238</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03151583621238695</v>
+        <v>0.06824864310275973</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03853603869804195</v>
+        <v>0.0209374600148307</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03151583621238695</v>
+        <v>0.03088689386592613</v>
       </c>
       <c r="K111" t="n">
         <v>0.03853603869804195</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06537424350628693</v>
+        <v>0.06343137263789125</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03843386580927142</v>
+        <v>0.03838682559232237</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09749033299517912</v>
+        <v>0.0957995705070282</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03838447659444938</v>
+        <v>0.03837953107311665</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03090896818656293</v>
+        <v>0.06857772382994952</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03937377866973851</v>
+        <v>0.02139262218906615</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03090896818656293</v>
+        <v>0.03041513319932271</v>
       </c>
       <c r="K112" t="n">
         <v>0.03937377866973851</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06499119201751374</v>
+        <v>0.06625127843870579</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03926938463121209</v>
+        <v>0.03922132180085112</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09455963100258891</v>
+        <v>0.0993889470491115</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03921892173780697</v>
+        <v>0.03921386870514093</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03065402648395529</v>
+        <v>0.06889811990897311</v>
       </c>
       <c r="G113" t="n">
-        <v>0.04021151864143508</v>
+        <v>0.0218477843633016</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03065402648395529</v>
+        <v>0.03147055763507192</v>
       </c>
       <c r="K113" t="n">
         <v>0.04021151864143508</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06496147486622353</v>
+        <v>0.0655636880283528</v>
       </c>
       <c r="M113" t="n">
-        <v>0.04010490345315278</v>
+        <v>0.04005581800937987</v>
       </c>
       <c r="N113" t="n">
-        <v>0.09828105376562413</v>
+        <v>0.09537344733835951</v>
       </c>
       <c r="O113" t="n">
-        <v>0.04005336688116457</v>
+        <v>0.0400482063371652</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.0314786461302279</v>
+        <v>0.06920992518520212</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04104925861313165</v>
+        <v>0.02230294653753705</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0314786461302279</v>
+        <v>0.03188239449914186</v>
       </c>
       <c r="K114" t="n">
         <v>0.04104925861313165</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06237958713616401</v>
+        <v>0.06400607870163924</v>
       </c>
       <c r="M114" t="n">
-        <v>0.04094042227509347</v>
+        <v>0.04089031421790862</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1010973839189045</v>
+        <v>0.09908501831630623</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04088781202452216</v>
+        <v>0.04088254396918948</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03236486412192023</v>
+        <v>0.06951323350400819</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04188699858482821</v>
+        <v>0.0227581087117725</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03236486412192023</v>
+        <v>0.03101256467934048</v>
       </c>
       <c r="K115" t="n">
         <v>0.04188699858482821</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06360343243986469</v>
+        <v>0.06528256981419392</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04177594109703414</v>
+        <v>0.04172481042643737</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09841591291771551</v>
+        <v>0.09938504724972591</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04172225716787976</v>
+        <v>0.04171688160121376</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03053056431403957</v>
+        <v>0.06980813871076291</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04272473855652478</v>
+        <v>0.02321327088600795</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03053056431403957</v>
+        <v>0.03079588194176808</v>
       </c>
       <c r="K116" t="n">
         <v>0.04272473855652478</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06686850425868957</v>
+        <v>0.06386592394741544</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04261145991897483</v>
+        <v>0.04255930663496611</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09810109966645064</v>
+        <v>0.09529276996871244</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04255670231123735</v>
+        <v>0.04255121923323803</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03197756488622099</v>
+        <v>0.07009473465083792</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04356247852822134</v>
+        <v>0.0236684330602434</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03197756488622099</v>
+        <v>0.03223476883950296</v>
       </c>
       <c r="K117" t="n">
         <v>0.04356247852822134</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06635144507072963</v>
+        <v>0.06368663027502072</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04344697874091551</v>
+        <v>0.04339380284349486</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0973823128399402</v>
+        <v>0.09910720038586457</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04339114745459495</v>
+        <v>0.0433855568652623</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03114904948141939</v>
+        <v>0.07037311516960483</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0444002184999179</v>
+        <v>0.02412359523447885</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03114904948141939</v>
+        <v>0.0319097204597054</v>
       </c>
       <c r="K118" t="n">
         <v>0.0444002184999179</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06637996923505185</v>
+        <v>0.06644804447090294</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0442824975628562</v>
+        <v>0.04422829905202361</v>
       </c>
       <c r="N118" t="n">
-        <v>0.09665442369730243</v>
+        <v>0.09763222395512045</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04422559259795254</v>
+        <v>0.04421989449728658</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03138867196433254</v>
+        <v>0.07064337411243526</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04523795847161447</v>
+        <v>0.0245787574087143</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03138867196433254</v>
+        <v>0.03197986347707717</v>
       </c>
       <c r="K119" t="n">
         <v>0.04523795847161447</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06622621878609483</v>
+        <v>0.06518398879362602</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04511801638479688</v>
+        <v>0.04506279526055235</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1017193689943861</v>
+        <v>0.0972235596065551</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04506003774131014</v>
+        <v>0.04505423212931085</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03197920613219889</v>
+        <v>0.07090560532470085</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04607569844331103</v>
+        <v>0.02503391958294975</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03197920613219889</v>
+        <v>0.03144325936044275</v>
       </c>
       <c r="K120" t="n">
         <v>0.04607569844331103</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06515885133283428</v>
+        <v>0.06539116180406263</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04595353520673756</v>
+        <v>0.0458972914690811</v>
       </c>
       <c r="N120" t="n">
-        <v>0.100944746534421</v>
+        <v>0.09650547978694529</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04589448288466774</v>
+        <v>0.04588856976133513</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03179699875006531</v>
+        <v>0.0711599026517732</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04691343841500759</v>
+        <v>0.0254890817571852</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03179699875006531</v>
+        <v>0.03217266727875584</v>
       </c>
       <c r="K121" t="n">
         <v>0.04691343841500759</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06371192611635149</v>
+        <v>0.06641790086415084</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04678905402867824</v>
+        <v>0.04673178767760985</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09774488861005459</v>
+        <v>0.0964088588921368</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04672892802802533</v>
+        <v>0.0467229073933594</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03164150693889892</v>
+        <v>0.07140635993902396</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04775117838670416</v>
+        <v>0.02594424393142065</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03164150693889892</v>
+        <v>0.03252132649696234</v>
       </c>
       <c r="K122" t="n">
         <v>0.04775117838670416</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06571868147702431</v>
+        <v>0.06796473353743149</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04762457285061893</v>
+        <v>0.04756628388613859</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1014804841473875</v>
+        <v>0.09931334653052498</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04756337317138292</v>
+        <v>0.04755724502538368</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03208512408304506</v>
+        <v>0.07164507103182467</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04858891835840072</v>
+        <v>0.0263994061056561</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03208512408304506</v>
+        <v>0.03217409640994573</v>
       </c>
       <c r="K123" t="n">
         <v>0.04858891835840072</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06786546422431577</v>
+        <v>0.06833920756241546</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04846009167255961</v>
+        <v>0.04840078009466734</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1006282535444485</v>
+        <v>0.09884346411516043</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04839781831474052</v>
+        <v>0.04839158265740796</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03234321763205948</v>
+        <v>0.07187612977554707</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04942665833009729</v>
+        <v>0.02685456827989155</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03234321763205948</v>
+        <v>0.03134681325606123</v>
       </c>
       <c r="K124" t="n">
         <v>0.04942665833009729</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06608587383078413</v>
+        <v>0.06504418536906975</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04929561049450029</v>
+        <v>0.04923527630319609</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09964193295166007</v>
+        <v>0.09915159519251937</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04923226345809811</v>
+        <v>0.04922592028943223</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03143325280164286</v>
+        <v>0.0720996300155627</v>
       </c>
       <c r="G125" t="n">
-        <v>0.05026439830179386</v>
+        <v>0.027309730454127</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03143325280164286</v>
+        <v>0.03187319290614764</v>
       </c>
       <c r="K125" t="n">
         <v>0.05026439830179386</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06457564907834604</v>
+        <v>0.06582220814641537</v>
       </c>
       <c r="M125" t="n">
-        <v>0.05013112931644098</v>
+        <v>0.05006977251172483</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1026790539961589</v>
+        <v>0.1036123576840401</v>
       </c>
       <c r="O125" t="n">
-        <v>0.05006670860145571</v>
+        <v>0.0500602579214565</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03200299226694669</v>
+        <v>0.07231566559724317</v>
       </c>
       <c r="G126" t="n">
-        <v>0.05110213827349042</v>
+        <v>0.02776489262836245</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03200299226694669</v>
+        <v>0.03165355316389187</v>
       </c>
       <c r="K126" t="n">
         <v>0.05110213827349042</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0673323840131505</v>
+        <v>0.0681974897499163</v>
       </c>
       <c r="M126" t="n">
-        <v>0.05096664813838166</v>
+        <v>0.05090426872025358</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1022384989207754</v>
+        <v>0.0984622629524794</v>
       </c>
       <c r="O126" t="n">
-        <v>0.05090115374481331</v>
+        <v>0.05089459555348078</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03183511823134438</v>
+        <v>0.07252433036596014</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05193987824518698</v>
+        <v>0.0282200548025979</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03183511823134438</v>
+        <v>0.03163716253365888</v>
       </c>
       <c r="K127" t="n">
         <v>0.05193987824518698</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06667570769311082</v>
+        <v>0.06864997244418047</v>
       </c>
       <c r="M127" t="n">
-        <v>0.05180216696032234</v>
+        <v>0.05173876492878233</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1006490077610296</v>
+        <v>0.09858704488859893</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0517355988881709</v>
+        <v>0.05172893318550505</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03228313475218103</v>
+        <v>0.07272571816708523</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05277761821688355</v>
+        <v>0.02867521697683335</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03228313475218103</v>
+        <v>0.03167398186218764</v>
       </c>
       <c r="K128" t="n">
         <v>0.05277761821688355</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06740761847279281</v>
+        <v>0.06717675443517057</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05263768578226302</v>
+        <v>0.05257326113731108</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09965739737580637</v>
+        <v>0.1025696167365583</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05257004403152849</v>
+        <v>0.05256327081752933</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03234686942342181</v>
+        <v>0.07291992284599007</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05361535818858011</v>
+        <v>0.0291303791510688</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03234686942342181</v>
+        <v>0.03223778827692134</v>
       </c>
       <c r="K129" t="n">
         <v>0.05361535818858011</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06835766881495939</v>
+        <v>0.0655223331472716</v>
       </c>
       <c r="M129" t="n">
-        <v>0.0534732046042037</v>
+        <v>0.05340775734583982</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09871898365968912</v>
+        <v>0.1031775607552629</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05340448917488609</v>
+        <v>0.0533976084495536</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03305636125504764</v>
+        <v>0.07310703824804622</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05445309816027667</v>
+        <v>0.02958554132530425</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03305636125504764</v>
+        <v>0.03190553859322347</v>
       </c>
       <c r="K130" t="n">
         <v>0.05445309816027667</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06892437347962976</v>
+        <v>0.0696511302455961</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05430872342614439</v>
+        <v>0.05424225355436857</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09980567554843134</v>
+        <v>0.1042204472676914</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05423893431824368</v>
+        <v>0.05423194608157787</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0321027745225753</v>
+        <v>0.07328715821862536</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05529083813197324</v>
+        <v>0.0300407034995397</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0321027745225753</v>
+        <v>0.03225006566706876</v>
       </c>
       <c r="K131" t="n">
         <v>0.05529083813197324</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06683347268849227</v>
+        <v>0.06894557268512183</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05514424224808508</v>
+        <v>0.05507674976289732</v>
       </c>
       <c r="N131" t="n">
-        <v>0.10394065415595</v>
+        <v>0.1034695930679447</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05507337946160128</v>
+        <v>0.05506628371360216</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03287957353353871</v>
+        <v>0.07346037660309908</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0561285781036698</v>
+        <v>0.03049586567377515</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03287957353353871</v>
+        <v>0.03191816535765464</v>
       </c>
       <c r="K132" t="n">
         <v>0.0561285781036698</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06571772576471138</v>
+        <v>0.0678532384526096</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05597976107002575</v>
+        <v>0.05591124597142607</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1045906288564616</v>
+        <v>0.1004244788105928</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05590782460495888</v>
+        <v>0.05590062134562643</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03289678988701492</v>
+        <v>0.07362678724683903</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05696631807536636</v>
+        <v>0.0309510278480106</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03289678988701492</v>
+        <v>0.03307150262987893</v>
       </c>
       <c r="K133" t="n">
         <v>0.05696631807536636</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07011332436008211</v>
+        <v>0.06794059372924602</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05681527989196643</v>
+        <v>0.05674574217995482</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1043013075631717</v>
+        <v>0.1002202681460606</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05674226974831647</v>
+        <v>0.05673495897765071</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03264848219822444</v>
+        <v>0.07378648399521678</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05780405804706294</v>
+        <v>0.03140619002224605</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03264848219822444</v>
+        <v>0.03347123540307609</v>
       </c>
       <c r="K134" t="n">
         <v>0.05780405804706294</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07024864202552084</v>
+        <v>0.06645113098942385</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05765079871390712</v>
+        <v>0.05758023838848356</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1045071039965211</v>
+        <v>0.1025866435646127</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05757671489167407</v>
+        <v>0.05756929660967498</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03332374484573669</v>
+        <v>0.07393956069360402</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0586417980187595</v>
+        <v>0.0318613521964815</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03332374484573669</v>
+        <v>0.03302406737431404</v>
       </c>
       <c r="K135" t="n">
         <v>0.0586417980187595</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06764394469612456</v>
+        <v>0.06674347483187346</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05848631753584781</v>
+        <v>0.05841473459701231</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1002516685437028</v>
+        <v>0.1014117913546829</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05841116003503166</v>
+        <v>0.05840363424169926</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03277504278147039</v>
+        <v>0.07408611118737231</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05947953799045606</v>
+        <v>0.03231651437071695</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03277504278147039</v>
+        <v>0.03303334690213114</v>
       </c>
       <c r="K136" t="n">
         <v>0.05947953799045606</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06960203231897427</v>
+        <v>0.06920391010756552</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05932183635778849</v>
+        <v>0.05924923080554106</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1017521473798598</v>
+        <v>0.1033753966437212</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05924560517838925</v>
+        <v>0.05923797187372353</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03291721373841677</v>
+        <v>0.07422622932189331</v>
       </c>
       <c r="G137" t="n">
-        <v>0.06031727796215262</v>
+        <v>0.0327716765449524</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03291721373841677</v>
+        <v>0.0338595150358557</v>
       </c>
       <c r="K137" t="n">
         <v>0.06031727796215262</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06844838936959516</v>
+        <v>0.06625132803273148</v>
       </c>
       <c r="M137" t="n">
-        <v>0.06015735517972916</v>
+        <v>0.0600837270140698</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1015810529841208</v>
+        <v>0.1016173278666443</v>
       </c>
       <c r="O137" t="n">
-        <v>0.06008005032174685</v>
+        <v>0.06007230950574781</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03359359194731953</v>
+        <v>0.07436000894253864</v>
       </c>
       <c r="G138" t="n">
-        <v>0.06115501793384919</v>
+        <v>0.03322683871918785</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03359359194731953</v>
+        <v>0.03267535362749814</v>
       </c>
       <c r="K138" t="n">
         <v>0.06115501793384919</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06832093349634077</v>
+        <v>0.06958642783772426</v>
       </c>
       <c r="M138" t="n">
-        <v>0.06099287400166985</v>
+        <v>0.06091822322259855</v>
       </c>
       <c r="N138" t="n">
-        <v>0.103776428732344</v>
+        <v>0.1052836056565536</v>
       </c>
       <c r="O138" t="n">
-        <v>0.06091449546510445</v>
+        <v>0.06090664713777208</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03293312622394849</v>
+        <v>0.07448754389467985</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06199275790554575</v>
+        <v>0.0336820008934233</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03293312622394849</v>
+        <v>0.03387715977326682</v>
       </c>
       <c r="K139" t="n">
         <v>0.06199275790554575</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07110486012029629</v>
+        <v>0.06904071020131416</v>
       </c>
       <c r="M139" t="n">
-        <v>0.06182839282361054</v>
+        <v>0.0617527194311273</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1063988578554798</v>
+        <v>0.1054839298477311</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06174894060846204</v>
+        <v>0.06174098476979635</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03386857687575821</v>
+        <v>0.07460892802368863</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06283049787724231</v>
+        <v>0.03413716306765874</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03386857687575821</v>
+        <v>0.03282284860724916</v>
       </c>
       <c r="K140" t="n">
         <v>0.06283049787724231</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06921956112493738</v>
+        <v>0.0708058015823704</v>
       </c>
       <c r="M140" t="n">
-        <v>0.06266391164555123</v>
+        <v>0.06258721563965604</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1032451420722912</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06258338575181964</v>
+        <v>0.06257532240182063</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03383983928570455</v>
+        <v>0.07472425517493661</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06366823784893888</v>
+        <v>0.0345923252418942</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03383983928570455</v>
+        <v>0.03357333837242345</v>
       </c>
       <c r="K141" t="n">
         <v>0.06366823784893888</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06892680872453591</v>
+        <v>0.07063334307598698</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0634994304674919</v>
+        <v>0.06342171184818479</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1043798951877951</v>
+        <v>0.107121890791515</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06341783089517723</v>
+        <v>0.06340966003384491</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03371903285301872</v>
+        <v>0.07483361919379539</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06450597782063544</v>
+        <v>0.03504748741612965</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03371903285301872</v>
+        <v>0.03344297767299138</v>
       </c>
       <c r="K142" t="n">
         <v>0.06450597782063544</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07163667695624357</v>
+        <v>0.06889916393285839</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06433494928943259</v>
+        <v>0.06425620805671355</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1078333557148</v>
+        <v>0.1025734715749653</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06425227603853483</v>
+        <v>0.06424399766586919</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03402368048219175</v>
+        <v>0.07493711392563655</v>
       </c>
       <c r="G143" t="n">
-        <v>0.065343717792332</v>
+        <v>0.0355026495903651</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03402368048219175</v>
+        <v>0.03378171934867112</v>
       </c>
       <c r="K143" t="n">
         <v>0.065343717792332</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06970897916972132</v>
+        <v>0.07046686774324043</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06517046811137327</v>
+        <v>0.06509070426524229</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1064568102110326</v>
+        <v>0.1072155107886207</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06508672118189243</v>
+        <v>0.06507833529789346</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03390606554667293</v>
+        <v>0.07503483321583179</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06618145776402858</v>
+        <v>0.03595781176460055</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03390606554667293</v>
+        <v>0.03299200711941348</v>
       </c>
       <c r="K144" t="n">
         <v>0.06618145776402858</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06829861797497438</v>
+        <v>0.07086937736349611</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06600598693331394</v>
+        <v>0.06592520047377104</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1049416807199568</v>
+        <v>0.1058100134798915</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06592116632525002</v>
+        <v>0.06591267292991773</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03450413588560873</v>
+        <v>0.07512687090975265</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06701919773572514</v>
+        <v>0.036412973938836</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03450413588560873</v>
+        <v>0.03313257180231853</v>
       </c>
       <c r="K145" t="n">
         <v>0.06701919773572514</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07163175164103677</v>
+        <v>0.06935074438356542</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06684150575525463</v>
+        <v>0.06675969668229978</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1065513103757808</v>
+        <v>0.1055489321314273</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0667556114686076</v>
+        <v>0.066747010561942</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03455972027991779</v>
+        <v>0.0752133208527708</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0678569377074217</v>
+        <v>0.03686813611307145</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03455972027991779</v>
+        <v>0.03346451295203161</v>
       </c>
       <c r="K146" t="n">
         <v>0.0678569377074217</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07197943657074632</v>
+        <v>0.0707032491431549</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06767702457719532</v>
+        <v>0.06759419289082853</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1060753923295198</v>
+        <v>0.1069570553389709</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06759005661196521</v>
+        <v>0.06758134819396627</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03328886771898093</v>
+        <v>0.07529427689025785</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06869467767911827</v>
+        <v>0.0373232982873069</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03328886771898093</v>
+        <v>0.03398702206893528</v>
       </c>
       <c r="K147" t="n">
         <v>0.06869467767911827</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06984236996474399</v>
+        <v>0.06980244194756172</v>
       </c>
       <c r="M147" t="n">
-        <v>0.068512543399136</v>
+        <v>0.06842868909935727</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1027778002660535</v>
+        <v>0.1029812761671799</v>
       </c>
       <c r="O147" t="n">
-        <v>0.0684245017553228</v>
+        <v>0.06841568582599056</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03487952649869495</v>
+        <v>0.07536983286758542</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06953241765081483</v>
+        <v>0.03777846046154235</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03487952649869495</v>
+        <v>0.03419045996397337</v>
       </c>
       <c r="K148" t="n">
         <v>0.06953241765081483</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07296832206676535</v>
+        <v>0.07049423099031132</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06934806222107667</v>
+        <v>0.06926318530788603</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1032608811813922</v>
+        <v>0.1088953895102036</v>
       </c>
       <c r="O148" t="n">
-        <v>0.0692589468986804</v>
+        <v>0.06925002345801483</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03367022095679588</v>
+        <v>0.07544008263012511</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07037015762251139</v>
+        <v>0.0382336226357778</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03367022095679588</v>
+        <v>0.03476016874859587</v>
       </c>
       <c r="K149" t="n">
         <v>0.07037015762251139</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07029504448567964</v>
+        <v>0.07105461399844365</v>
       </c>
       <c r="M149" t="n">
-        <v>0.07018358104301736</v>
+        <v>0.07009768151641477</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1103122920876666</v>
+        <v>0.1048459516851192</v>
       </c>
       <c r="O149" t="n">
-        <v>0.070093392042038</v>
+        <v>0.07008436109003911</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03426887173849311</v>
+        <v>0.07550512002324859</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07120789759420797</v>
+        <v>0.03868878481001325</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03426887173849311</v>
+        <v>0.03380433195016422</v>
       </c>
       <c r="K150" t="n">
         <v>0.07120789759420797</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07222610208413474</v>
+        <v>0.07002330048273195</v>
       </c>
       <c r="M150" t="n">
-        <v>0.07101909986495805</v>
+        <v>0.07093217772494352</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1055646896331024</v>
+        <v>0.1036855102078009</v>
       </c>
       <c r="O150" t="n">
-        <v>0.0709278371853956</v>
+        <v>0.07091869872206338</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03466463621933007</v>
+        <v>0.07556503889232744</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07204563756590453</v>
+        <v>0.0391439469842487</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03466463621933007</v>
+        <v>0.03361793908222201</v>
       </c>
       <c r="K151" t="n">
         <v>0.07204563756590453</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0695366729763007</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M151" t="n">
-        <v>0.07185461868689873</v>
+        <v>0.07176667393347226</v>
       </c>
       <c r="N151" t="n">
-        <v>0.10878146019141</v>
+        <v>0.1050670363975866</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07176228232875319</v>
+        <v>0.07175303635408765</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03522488346143354</v>
+        <v>0.07561993308273328</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07288337753760109</v>
+        <v>0.03959910915848415</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03522488346143354</v>
+        <v>0.03403764899389468</v>
       </c>
       <c r="K152" t="n">
         <v>0.07288337753760109</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06904962466140396</v>
+        <v>0.07262875602731453</v>
       </c>
       <c r="M152" t="n">
-        <v>0.07269013750883942</v>
+        <v>0.07260117014200101</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1105468980513139</v>
+        <v>0.1042839585445533</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07259672747211078</v>
+        <v>0.07258737398611192</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03477288765047629</v>
+        <v>0.07566989643983775</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07372111750929766</v>
+        <v>0.0400542713327196</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03477288765047629</v>
+        <v>0.03370794208428957</v>
       </c>
       <c r="K153" t="n">
         <v>0.07372111750929766</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07066888889511136</v>
+        <v>0.0701857446802315</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07352565633078011</v>
+        <v>0.07343566635052975</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1090011541476566</v>
+        <v>0.1071479520233019</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07343117261546837</v>
+        <v>0.0734217116181362</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03485948762104947</v>
+        <v>0.07571502280901245</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07455885748099422</v>
+        <v>0.04050943350695504</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03485948762104947</v>
+        <v>0.03401088203700425</v>
       </c>
       <c r="K154" t="n">
         <v>0.07455885748099422</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07246872993988884</v>
+        <v>0.07232777093883791</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07436117515272078</v>
+        <v>0.07427016255905851</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1101345555065842</v>
+        <v>0.1046884856388609</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07426561775882597</v>
+        <v>0.07425604925016048</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03435004774272454</v>
+        <v>0.07575540603562901</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07539659745269078</v>
+        <v>0.0409645956811905</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03435004774272454</v>
+        <v>0.03409411890588036</v>
       </c>
       <c r="K155" t="n">
         <v>0.07539659745269078</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07074817089546842</v>
+        <v>0.07054885909616115</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07519669397466146</v>
+        <v>0.07510465876758725</v>
       </c>
       <c r="N155" t="n">
-        <v>0.106657002911856</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07510006290218357</v>
+        <v>0.07509038688218475</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03520366805238601</v>
+        <v>0.07579113996505907</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07623433742438734</v>
+        <v>0.04141975785542595</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03520366805238601</v>
+        <v>0.03468645999673912</v>
       </c>
       <c r="K156" t="n">
         <v>0.07623433742438734</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07204174303281186</v>
+        <v>0.07347202294768304</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07603221279660215</v>
+        <v>0.075939154976116</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1118400529176763</v>
+        <v>0.1075731394975926</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07593450804554117</v>
+        <v>0.07592472451420904</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03517599714199805</v>
+        <v>0.07582231844267422</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0770720773960839</v>
+        <v>0.0418749200296614</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03517599714199805</v>
+        <v>0.03476393109917003</v>
       </c>
       <c r="K157" t="n">
         <v>0.0770720773960839</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07067571790440355</v>
+        <v>0.0735245354052573</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07686773161854284</v>
+        <v>0.07677365118464474</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1058555876950337</v>
+        <v>0.1109163358747745</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07676895318889876</v>
+        <v>0.07675906214623331</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03477449157798718</v>
+        <v>0.07584903531384607</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07790981736778047</v>
+        <v>0.04233008220389685</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03477449157798718</v>
+        <v>0.03457632279910187</v>
       </c>
       <c r="K158" t="n">
         <v>0.07790981736778047</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07193856857458084</v>
+        <v>0.07349936487900158</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07770325044048351</v>
+        <v>0.0776081473931735</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1077142034761809</v>
+        <v>0.1053977991467527</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07760339833225635</v>
+        <v>0.07759339977825759</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03441139727643711</v>
+        <v>0.07587138442394629</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07874755733947703</v>
+        <v>0.0427852443781323</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03441139727643711</v>
+        <v>0.03558283460790819</v>
       </c>
       <c r="K159" t="n">
         <v>0.07874755733947703</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07032671276324204</v>
+        <v>0.07123215181396858</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07853876926242419</v>
+        <v>0.07844264360170224</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1114305379683569</v>
+        <v>0.1074569664022987</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07843784347561394</v>
+        <v>0.07842773741028186</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03566409455427277</v>
+        <v>0.07588945961834649</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0795852973111736</v>
+        <v>0.04324040655236775</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03566409455427277</v>
+        <v>0.03433481270515808</v>
       </c>
       <c r="K160" t="n">
         <v>0.0795852973111736</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07059009706296901</v>
+        <v>0.07093860843539329</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07937428808436488</v>
+        <v>0.07927713981023099</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1109215526019442</v>
+        <v>0.1113376616491617</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07927228861897154</v>
+        <v>0.07926207504230613</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03403425288289322</v>
+        <v>0.07590335474241824</v>
       </c>
       <c r="G161" t="n">
-        <v>0.08042303728287016</v>
+        <v>0.0436955687266032</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03403425288289322</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K161" t="n">
         <v>0.08042303728287016</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07109584635902286</v>
+        <v>0.07025471854265988</v>
       </c>
       <c r="M161" t="n">
-        <v>0.08020980690630557</v>
+        <v>0.08011163601875974</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1086590688710083</v>
+        <v>0.1084312974466168</v>
       </c>
       <c r="O161" t="n">
-        <v>0.08010673376232914</v>
+        <v>0.0800964126743304</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03460794945726095</v>
+        <v>0.07591316364153319</v>
       </c>
       <c r="G162" t="n">
-        <v>0.08126077725456672</v>
+        <v>0.04415073090083865</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03460794945726095</v>
+        <v>0.03506658997648593</v>
       </c>
       <c r="K162" t="n">
         <v>0.08126077725456672</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07104527524341392</v>
+        <v>0.07192284112074585</v>
       </c>
       <c r="M162" t="n">
-        <v>0.08104532572824624</v>
+        <v>0.08094613222728848</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1115480869115297</v>
+        <v>0.1070797850638417</v>
       </c>
       <c r="O162" t="n">
-        <v>0.08094117890568674</v>
+        <v>0.08093075030635467</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.07591898016106301</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0820985172262633</v>
+        <v>0.0446058930750741</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03513745157760879</v>
       </c>
       <c r="K163" t="n">
         <v>0.0820985172262633</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07220271494889527</v>
+        <v>0.07033743567518741</v>
       </c>
       <c r="M163" t="n">
-        <v>0.08188084455018693</v>
+        <v>0.08178062843581724</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1085496758668293</v>
+        <v>0.1125689732586874</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08177562404904433</v>
+        <v>0.08176508793837896</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03404975588407669</v>
+        <v>0.07592089814637926</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08293625719795986</v>
+        <v>0.04506105524930955</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03404975588407669</v>
+        <v>0.03546626098547953</v>
       </c>
       <c r="K164" t="n">
         <v>0.08293625719795986</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07154592509999924</v>
+        <v>0.07153459808521428</v>
       </c>
       <c r="M164" t="n">
-        <v>0.08271636337212761</v>
+        <v>0.08261512464434598</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1080005699013068</v>
+        <v>0.1097292278293941</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08261006919240192</v>
+        <v>0.08259942557040323</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03417191762964354</v>
+        <v>0.07542089814637924</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08377399716965642</v>
+        <v>0.04506105524930955</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03417191762964354</v>
+        <v>0.03496565017980162</v>
       </c>
       <c r="K165" t="n">
         <v>0.08377399716965642</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07057686125393445</v>
+        <v>0.07287396438237376</v>
       </c>
       <c r="M165" t="n">
-        <v>0.08355188219406828</v>
+        <v>0.08344962085287473</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1081310444276499</v>
+        <v>0.1097314692638839</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08344451433575951</v>
+        <v>0.08343376320242751</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03391869840899711</v>
+        <v>0.07479456727029606</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08461173714135299</v>
+        <v>0.04509360417145135</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03391869840899711</v>
+        <v>0.03447541334780084</v>
       </c>
       <c r="K166" t="n">
         <v>0.08461173714135299</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.07232511691344717</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08438740101600897</v>
+        <v>0.08428411706140347</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1062838141393961</v>
+        <v>0.1099901279004061</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08427895947911711</v>
+        <v>0.08426810083445178</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03540185581325989</v>
+        <v>0.07416650187732679</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08544947711304955</v>
+        <v>0.04512528291965202</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03540185581325989</v>
+        <v>0.0343487361897494</v>
       </c>
       <c r="K167" t="n">
         <v>0.08544947711304955</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06995410164636207</v>
+        <v>0.07010858466841133</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08522291983794966</v>
+        <v>0.08511861326993223</v>
       </c>
       <c r="N167" t="n">
-        <v>0.11061311433541</v>
+        <v>0.1062139331509918</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0851134046224747</v>
+        <v>0.08510243846647607</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0354025391885493</v>
+        <v>0.07353670196747153</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08628721708474611</v>
+        <v>0.04515609149391159</v>
       </c>
       <c r="J168" t="n">
-        <v>0.0354025391885493</v>
+        <v>0.03488640644915331</v>
       </c>
       <c r="K168" t="n">
         <v>0.08628721708474611</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07152200342981416</v>
+        <v>0.0723090859345368</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08605843865989034</v>
+        <v>0.08595310947846097</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1104074984133758</v>
+        <v>0.1066266229391353</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08594784976583231</v>
+        <v>0.08593677609850033</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03489481511191081</v>
+        <v>0.0729051675407302</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08712495705644267</v>
+        <v>0.04518602989423004</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03489481511191081</v>
+        <v>0.03390505640375759</v>
       </c>
       <c r="K169" t="n">
         <v>0.08712495705644267</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07100082270977279</v>
+        <v>0.07288664451538271</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08689395748183101</v>
+        <v>0.08678760568698972</v>
       </c>
       <c r="N169" t="n">
-        <v>0.107047073575627</v>
+        <v>0.1103042180461629</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0867822949091899</v>
+        <v>0.08677111373052461</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03507988438565805</v>
+        <v>0.07227189859710287</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08796269702813925</v>
+        <v>0.04521509812060738</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03507988438565805</v>
+        <v>0.03410146704850994</v>
       </c>
       <c r="K170" t="n">
         <v>0.08796269702813925</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07391981542148693</v>
+        <v>0.07244231492401654</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0877294763037717</v>
+        <v>0.08762210189551846</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1097476410869506</v>
+        <v>0.1111322363443183</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08761674005254749</v>
+        <v>0.08760545136254888</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03391220086854425</v>
+        <v>0.07163689513658951</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08880043699983581</v>
+        <v>0.04524329617304361</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03391220086854425</v>
+        <v>0.03462825227432753</v>
       </c>
       <c r="K171" t="n">
         <v>0.08880043699983581</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07355074954656846</v>
+        <v>0.06973182950368223</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08856499512571239</v>
+        <v>0.08845659810404721</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1105066105082675</v>
+        <v>0.105846809535585</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08845118519590509</v>
+        <v>0.08843978899457315</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0347334897122341</v>
+        <v>0.0710001571591901</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08963817697153237</v>
+        <v>0.04527062405153872</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0347334897122341</v>
+        <v>0.03401370941309548</v>
       </c>
       <c r="K172" t="n">
         <v>0.08963817697153237</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07234870938460808</v>
+        <v>0.07074842402258846</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08940051394765307</v>
+        <v>0.08929109431257595</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1066502223354341</v>
+        <v>0.1069961345575073</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08928563033926268</v>
+        <v>0.08927412662659744</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03573410221621691</v>
+        <v>0.07036168466490468</v>
       </c>
       <c r="G173" t="n">
-        <v>0.09047591694322894</v>
+        <v>0.04529708175609272</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03573410221621691</v>
+        <v>0.03415695261867044</v>
       </c>
       <c r="K173" t="n">
         <v>0.09047591694322894</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07276474710224751</v>
+        <v>0.07159756222462288</v>
       </c>
       <c r="M173" t="n">
-        <v>0.09023603276959376</v>
+        <v>0.09012559052110471</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1110484930975358</v>
+        <v>0.1084789756687696</v>
       </c>
       <c r="O173" t="n">
-        <v>0.09012007548262027</v>
+        <v>0.09010846425862171</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03501625706163428</v>
+        <v>0.06972147765373318</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0913136569149255</v>
+        <v>0.04532266928670559</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03501625706163428</v>
+        <v>0.03434566394400612</v>
       </c>
       <c r="K174" t="n">
         <v>0.0913136569149255</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06977326308614318</v>
+        <v>0.07033753884463317</v>
       </c>
       <c r="M174" t="n">
-        <v>0.09107155159153445</v>
+        <v>0.09096008672963345</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1061396199008859</v>
+        <v>0.1068520234051313</v>
       </c>
       <c r="O174" t="n">
-        <v>0.09095452062597788</v>
+        <v>0.09094280189064599</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03494768553018593</v>
+        <v>0.0690795361256757</v>
       </c>
       <c r="G175" t="n">
-        <v>0.09215139688662206</v>
+        <v>0.04534738664337736</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03494768553018593</v>
+        <v>0.0346384290377805</v>
       </c>
       <c r="K175" t="n">
         <v>0.09215139688662206</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07091972101539656</v>
+        <v>0.06956371974470132</v>
       </c>
       <c r="M175" t="n">
-        <v>0.09190707041347512</v>
+        <v>0.0917945829381622</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1086179297552272</v>
+        <v>0.1080972725533854</v>
       </c>
       <c r="O175" t="n">
-        <v>0.09178896576933547</v>
+        <v>0.09177713952267026</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03475117528562248</v>
+        <v>0.06843586008073217</v>
       </c>
       <c r="G176" t="n">
-        <v>0.09298913685831862</v>
+        <v>0.04537123382610801</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03475117528562248</v>
+        <v>0.0344814426676692</v>
       </c>
       <c r="K176" t="n">
         <v>0.09298913685831862</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07200877004870693</v>
+        <v>0.06979869219836615</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0927425892354158</v>
+        <v>0.09262907914669094</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1073871455013985</v>
+        <v>0.1117627298552177</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09262341091269306</v>
+        <v>0.09261147715469453</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03535355305269933</v>
+        <v>0.0677904495189026</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09382687683001519</v>
+        <v>0.04539421083489756</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03535355305269933</v>
+        <v>0.0344079983011524</v>
       </c>
       <c r="K177" t="n">
         <v>0.09382687683001519</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06980195829036667</v>
+        <v>0.07151911611046172</v>
       </c>
       <c r="M177" t="n">
-        <v>0.09357810805735649</v>
+        <v>0.09346357535521969</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1101661722051653</v>
+        <v>0.1070873268021485</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09345785605605066</v>
+        <v>0.0934458147867188</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03492488790444223</v>
+        <v>0.06714330444018703</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09466461680171175</v>
+        <v>0.04541631766974599</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03492488790444223</v>
+        <v>0.03458732218518334</v>
       </c>
       <c r="K178" t="n">
         <v>0.09466461680171175</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06995565651908331</v>
+        <v>0.07201619659742933</v>
       </c>
       <c r="M178" t="n">
-        <v>0.09441362687929718</v>
+        <v>0.09429807156374843</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1119381737547376</v>
+        <v>0.1064837694618689</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09429230119940825</v>
+        <v>0.09428015241874307</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03442610777160902</v>
+        <v>0.06649442484458537</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09550235677340832</v>
+        <v>0.04543755433065329</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03442610777160902</v>
+        <v>0.03391042456413224</v>
       </c>
       <c r="K179" t="n">
         <v>0.09550235677340832</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07110800857360247</v>
+        <v>0.06963062618968807</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09524914570123785</v>
+        <v>0.09513256777227719</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1067706453204404</v>
+        <v>0.1097885658091044</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09512674634276584</v>
+        <v>0.09511449005076736</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03450061829415313</v>
+        <v>0.06584381073209773</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09634009674510488</v>
+        <v>0.04545792081761949</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03450061829415313</v>
+        <v>0.03384928079775049</v>
       </c>
       <c r="K180" t="n">
         <v>0.09634009674510488</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06928558334455698</v>
+        <v>0.07173420633856059</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09608466452317853</v>
+        <v>0.09596706398080594</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1105351417664578</v>
+        <v>0.1096454849154336</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09596119148612345</v>
+        <v>0.09594882768279163</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0341268206360503</v>
+        <v>0.06519146210272403</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09717783671680144</v>
+        <v>0.04547741713064456</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0341268206360503</v>
+        <v>0.03512756044871267</v>
       </c>
       <c r="K181" t="n">
         <v>0.09717783671680144</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07283098101438326</v>
+        <v>0.07129729091090373</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09692018334511922</v>
+        <v>0.09680156018933468</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1090340290901912</v>
+        <v>0.105659620748041</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09679563662948104</v>
+        <v>0.09678316531481591</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03374904773854585</v>
+        <v>0.06453737895646432</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09801557668849802</v>
+        <v>0.04549604326972854</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03374904773854585</v>
+        <v>0.03475460257461947</v>
       </c>
       <c r="K182" t="n">
         <v>0.09801557668849802</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06963228235779903</v>
+        <v>0.0713472011608548</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09775570216705991</v>
+        <v>0.09763605639786344</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1058774422900106</v>
+        <v>0.1095450438712473</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09763008177283863</v>
+        <v>0.09761750294684018</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03538348584349171</v>
+        <v>0.06388156129331854</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09885331666019458</v>
+        <v>0.04551379923487139</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03538348584349171</v>
+        <v>0.03457479662190405</v>
       </c>
       <c r="K183" t="n">
         <v>0.09885331666019458</v>
       </c>
       <c r="L183" t="n">
-        <v>0.0707017596995029</v>
+        <v>0.07245078018102941</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09859122098900058</v>
+        <v>0.09847055260639218</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1091511313398229</v>
+        <v>0.1083444835968675</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09846452691619623</v>
+        <v>0.09845184057886447</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03524205099966504</v>
+        <v>0.06322400911328677</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09969105663189114</v>
+        <v>0.04553068502607314</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03524205099966504</v>
+        <v>0.03504205099966504</v>
       </c>
       <c r="K184" t="n">
         <v>0.09969105663189114</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07194735434932634</v>
+        <v>0.0724764263158944</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09942673981094127</v>
+        <v>0.09930504881492093</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1040939398220536</v>
+        <v>0.1108891951741127</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09929897205955382</v>
+        <v>0.09928617821088874</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03430863897359077</v>
+        <v>0.06256472241636896</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1005287966035877</v>
+        <v>0.04554670064333376</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03430863897359077</v>
+        <v>0.03381536994342434</v>
       </c>
       <c r="K185" t="n">
         <v>0.1005287966035877</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06975471878122397</v>
+        <v>0.06998526987483852</v>
       </c>
       <c r="M185" t="n">
-        <v>0.100262258632882</v>
+        <v>0.1001395450234497</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1102414382054263</v>
+        <v>0.1061839990681564</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1001334172029114</v>
+        <v>0.100120515842913</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03410549126194719</v>
+        <v>0.0619037012025651</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1013665365752843</v>
+        <v>0.04556184608665328</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03410549126194719</v>
+        <v>0.03501386933614277</v>
       </c>
       <c r="K186" t="n">
         <v>0.1013665365752843</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06908107831155291</v>
+        <v>0.07244760754848853</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1010977774548226</v>
+        <v>0.1009740412319784</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1104505012391305</v>
+        <v>0.1075557554833236</v>
       </c>
       <c r="O186" t="n">
-        <v>0.100967862346269</v>
+        <v>0.1009548534749373</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03479162430550774</v>
+        <v>0.06124094547187522</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1022042765469808</v>
+        <v>0.04557612135603167</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03479162430550774</v>
+        <v>0.03382745807006245</v>
       </c>
       <c r="K187" t="n">
         <v>0.1022042765469808</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06960331701530303</v>
+        <v>0.07082010477808887</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1019332962767633</v>
+        <v>0.1018085374405072</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1110261142355386</v>
+        <v>0.1046455714857258</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1018023074896266</v>
+        <v>0.1017891911069616</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03408278897960941</v>
+        <v>0.0605764552242993</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1030420165186774</v>
+        <v>0.04558952645146895</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03408278897960941</v>
+        <v>0.03478420385574532</v>
       </c>
       <c r="K188" t="n">
         <v>0.1030420165186774</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07023660869757065</v>
+        <v>0.07027845936606072</v>
       </c>
       <c r="M188" t="n">
-        <v>0.102768815098704</v>
+        <v>0.1026430336490359</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1055003311161546</v>
+        <v>0.1111830593059493</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1026367526329842</v>
+        <v>0.1026235287389858</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0345001943625747</v>
+        <v>0.05991023045983734</v>
       </c>
       <c r="G189" t="n">
-        <v>0.103879756490374</v>
+        <v>0.04560206137296512</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0345001943625747</v>
+        <v>0.03415654962357982</v>
       </c>
       <c r="K189" t="n">
         <v>0.103879756490374</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06993682098900722</v>
+        <v>0.06986727449204511</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1036043339206447</v>
+        <v>0.1034775298575647</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1080432150865025</v>
+        <v>0.1112393498076068</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1034711977763418</v>
+        <v>0.1034578663710101</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03521544254266405</v>
+        <v>0.05924227117848935</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1047174964620705</v>
+        <v>0.04561372612052018</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03521544254266405</v>
+        <v>0.03444973811700364</v>
       </c>
       <c r="K190" t="n">
         <v>0.1047174964620705</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07188401732594132</v>
+        <v>0.07322179752223562</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1044398527425854</v>
+        <v>0.1043120260660934</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1083737416715527</v>
+        <v>0.1090315190031297</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1043056429196994</v>
+        <v>0.1042922040030344</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03378944718747506</v>
+        <v>0.05857257738025537</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1055552364337671</v>
+        <v>0.04562452069413412</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03378944718747506</v>
+        <v>0.03363547724731354</v>
       </c>
       <c r="K191" t="n">
         <v>0.1055552364337671</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07307975961681021</v>
+        <v>0.07199083600017772</v>
       </c>
       <c r="M191" t="n">
-        <v>0.105275371564526</v>
+        <v>0.1051465222746222</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1101954814865311</v>
+        <v>0.1097681372779172</v>
       </c>
       <c r="O191" t="n">
-        <v>0.105140088063057</v>
+        <v>0.1051265416350587</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03527739430438771</v>
+        <v>0.05790114906513533</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1063929764054637</v>
+        <v>0.04563444509380696</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03527739430438771</v>
+        <v>0.03527582694805018</v>
       </c>
       <c r="K192" t="n">
         <v>0.1063929764054637</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06941369204306</v>
+        <v>0.07021611140304659</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1061108903864667</v>
+        <v>0.1059810184831509</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1106443590241793</v>
+        <v>0.1056638358118879</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1059745332064146</v>
+        <v>0.1059608792670829</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03504511467552848</v>
+        <v>0.05722798623312925</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1072307163771602</v>
+        <v>0.04564349931953866</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03504511467552848</v>
+        <v>0.03397196162202742</v>
       </c>
       <c r="K193" t="n">
         <v>0.1072307163771602</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07237720030442427</v>
+        <v>0.07309308992372188</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1069464092084074</v>
+        <v>0.1068155146916796</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1046520565051126</v>
+        <v>0.1086550276743452</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1068089783497722</v>
+        <v>0.1067952168991072</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03452967315275977</v>
+        <v>0.05655308888423713</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1080684563488568</v>
+        <v>0.04565168337132926</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03452967315275977</v>
+        <v>0.03441275229438674</v>
       </c>
       <c r="K194" t="n">
         <v>0.1080684563488568</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07274797383219922</v>
+        <v>0.07221440333071538</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1077819280303481</v>
+        <v>0.1076500109002084</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1055429860689437</v>
+        <v>0.1084218125033065</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1076434234931298</v>
+        <v>0.1076295545311315</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03479085813533458</v>
+        <v>0.05587645701845902</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1089061963205533</v>
+        <v>0.04565899724917875</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03479085813533458</v>
+        <v>0.03452168544076437</v>
       </c>
       <c r="K195" t="n">
         <v>0.1089061963205533</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07023379859753803</v>
+        <v>0.07269683936414215</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1086174468522888</v>
+        <v>0.1084845071087371</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1100487205935526</v>
+        <v>0.1087717854777</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1084778686364874</v>
+        <v>0.1084638921631557</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03386924060532899</v>
+        <v>0.05519809063579482</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1097439362922499</v>
+        <v>0.04566544095308712</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03386924060532899</v>
+        <v>0.03378467241238529</v>
       </c>
       <c r="K196" t="n">
         <v>0.1097439362922499</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06949740947475302</v>
+        <v>0.06874289188630006</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1094529656742295</v>
+        <v>0.1093190033172659</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1041928236114299</v>
+        <v>0.1076633014343172</v>
       </c>
       <c r="O196" t="n">
-        <v>0.109312313779845</v>
+        <v>0.10929822979518</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03388190705077776</v>
+        <v>0.05451798973624461</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1105816762639465</v>
+        <v>0.04567101448305436</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03388190705077776</v>
+        <v>0.03526006962000232</v>
       </c>
       <c r="K197" t="n">
         <v>0.1105816762639465</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07021286669220639</v>
+        <v>0.07183616867213763</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1102884844961702</v>
+        <v>0.1101534995257946</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1099318098742557</v>
+        <v>0.1043429345502898</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1101467589232026</v>
+        <v>0.1101325674272043</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.035217484594604</v>
+        <v>0.0538361543198084</v>
       </c>
       <c r="G198" t="n">
-        <v>0.111419416235643</v>
+        <v>0.04567571783908052</v>
       </c>
       <c r="J198" t="n">
-        <v>0.035217484594604</v>
+        <v>0.03422001474597987</v>
       </c>
       <c r="K198" t="n">
         <v>0.111419416235643</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06985553027938451</v>
+        <v>0.07159790503531155</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1111240033181108</v>
+        <v>0.1109879957343234</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1106546334528473</v>
+        <v>0.1077199006374808</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1109812040665601</v>
+        <v>0.1109669050592286</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03419578913027088</v>
+        <v>0.05315258438648612</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1122571562073396</v>
+        <v>0.04567955102116555</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03419578913027088</v>
+        <v>0.03398309217109703</v>
       </c>
       <c r="K199" t="n">
         <v>0.1122571562073396</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07249318586667455</v>
+        <v>0.07137187298717618</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1119595221400515</v>
+        <v>0.1118224919428521</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1080411075086942</v>
+        <v>0.1053581878463826</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1118156492099178</v>
+        <v>0.1118012426912529</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03430097528851495</v>
+        <v>0.05246727993627781</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1130948961790362</v>
+        <v>0.04568251402930946</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03430097528851495</v>
+        <v>0.03376160691180027</v>
       </c>
       <c r="K200" t="n">
         <v>0.1130948961790362</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06967788380923726</v>
+        <v>0.07232910987553992</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1127950409619922</v>
+        <v>0.1126569881513809</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1069321421548136</v>
+        <v>0.1064593110380938</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1126500943532754</v>
+        <v>0.1126355803232771</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03531134888122556</v>
+        <v>0.05178024096918349</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1139326361507327</v>
+        <v>0.04568460686351226</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03531134888122556</v>
+        <v>0.03470449860566623</v>
       </c>
       <c r="K201" t="n">
         <v>0.1139326361507327</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06892022233998679</v>
+        <v>0.07242059654165758</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1136305597839329</v>
+        <v>0.1134914843599096</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1091973879085139</v>
+        <v>0.1090684387211946</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1134845394966329</v>
+        <v>0.1134699179553014</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03474459372318896</v>
+        <v>0.05109146748520314</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1147703761224293</v>
+        <v>0.04568582952377395</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03474459372318896</v>
+        <v>0.0345516920179376</v>
       </c>
       <c r="K202" t="n">
         <v>0.1147703761224293</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06950146323929854</v>
+        <v>0.07159718276791671</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1144660786058736</v>
+        <v>0.1143259805684384</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1042382936843506</v>
+        <v>0.1058185426042664</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1143189846399905</v>
+        <v>0.1143042555873257</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03379536801692122</v>
+        <v>0.05040095948433673</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1156081160941259</v>
+        <v>0.04568618201009451</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03379536801692122</v>
+        <v>0.03463973891592285</v>
       </c>
       <c r="K203" t="n">
         <v>0.1156081160941259</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07153987198774386</v>
+        <v>0.07098558297511043</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1153015974278142</v>
+        <v>0.1151604767769671</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1093282766004537</v>
+        <v>0.1093495949971301</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1151534297833481</v>
+        <v>0.11513859321935</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03513690570051815</v>
+        <v>0.04970871696658428</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1164458560658224</v>
+        <v>0.04568566432247397</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03513690570051815</v>
+        <v>0.03329919551869182</v>
       </c>
       <c r="K204" t="n">
         <v>0.1164458560658224</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07201806590462281</v>
+        <v>0.07081272278897202</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1161371162497549</v>
+        <v>0.1159949729854959</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1068523512600566</v>
+        <v>0.1059301608701928</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1159878749267057</v>
+        <v>0.1159729308513742</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03333940884449259</v>
+        <v>0.04901473993194584</v>
       </c>
       <c r="G205" t="n">
-        <v>0.117283596037519</v>
+        <v>0.04568427646091231</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03333940884449259</v>
+        <v>0.03368288714422581</v>
       </c>
       <c r="K205" t="n">
         <v>0.117283596037519</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07119493659709231</v>
+        <v>0.07285245789529401</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1169726350716956</v>
+        <v>0.1168294691940246</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1092955033917952</v>
+        <v>0.1079721995093426</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1168223200700633</v>
+        <v>0.1168072684833985</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03356272997541974</v>
+        <v>0.04831902838042135</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1181213360092156</v>
+        <v>0.04568201842540955</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03356272997541974</v>
+        <v>0.03475374335779384</v>
       </c>
       <c r="K206" t="n">
         <v>0.1181213360092156</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07095685303298729</v>
+        <v>0.07117493746761672</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1178081538936363</v>
+        <v>0.1176639654025534</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1073271124657795</v>
+        <v>0.1040464523058112</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1176567652134209</v>
+        <v>0.1176416061154228</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03438626029455527</v>
+        <v>0.04762158231201082</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1189590759809121</v>
+        <v>0.04567889021596566</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03438626029455527</v>
+        <v>0.03495147867301525</v>
       </c>
       <c r="K207" t="n">
         <v>0.1189590759809121</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06933141613185489</v>
+        <v>0.06885079603596858</v>
       </c>
       <c r="M207" t="n">
-        <v>0.118643672715577</v>
+        <v>0.1184984616110821</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1055745345282513</v>
+        <v>0.1092471359990498</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1184912103567785</v>
+        <v>0.1184759437474471</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03510951119570443</v>
+        <v>0.04692240172671427</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1197968159526087</v>
+        <v>0.04567489183258067</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03510951119570443</v>
+        <v>0.03388053880784635</v>
       </c>
       <c r="K208" t="n">
         <v>0.1197968159526087</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06955382865000895</v>
+        <v>0.07013691350348841</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1194791915375177</v>
+        <v>0.1193329578196108</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1086380897115511</v>
+        <v>0.10932360151895</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1193256555001361</v>
+        <v>0.1193102813794713</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03471944132788732</v>
+        <v>0.04622148662453168</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1206345559243052</v>
+        <v>0.04567002327525456</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03471944132788732</v>
+        <v>0.03320518836170679</v>
       </c>
       <c r="K209" t="n">
         <v>0.1206345559243052</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06894515223821032</v>
+        <v>0.069394451562488</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1203147103594583</v>
+        <v>0.1201674540281396</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1067076402952014</v>
+        <v>0.1098718070195017</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1201601006434937</v>
+        <v>0.1201446190114956</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03439707976013064</v>
+        <v>0.04551883700546307</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1214722958960018</v>
+        <v>0.04566428454398732</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03439707976013064</v>
+        <v>0.03480523625796811</v>
       </c>
       <c r="K210" t="n">
         <v>0.1214722958960018</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07178249201539924</v>
+        <v>0.07105291520859822</v>
       </c>
       <c r="M210" t="n">
-        <v>0.121150229181399</v>
+        <v>0.1210019502366684</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1086562576778155</v>
+        <v>0.103313234552375</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1209945457868513</v>
+        <v>0.1209789566435199</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0340696203516009</v>
+        <v>0.04481445286950839</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1223100358676984</v>
+        <v>0.04565767563877897</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0340696203516009</v>
+        <v>0.03501018889772693</v>
       </c>
       <c r="K211" t="n">
         <v>0.1223100358676984</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07167810163957383</v>
+        <v>0.0705927947945057</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1219857480033397</v>
+        <v>0.1218364464451971</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1083964233338724</v>
+        <v>0.1064964282399556</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1218289909302089</v>
+        <v>0.1218132942755442</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03438481460550218</v>
+        <v>0.04410833421666772</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1231477758393949</v>
+        <v>0.04565019655962952</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03438481460550218</v>
+        <v>0.03443537403973648</v>
       </c>
       <c r="K212" t="n">
         <v>0.1231477758393949</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06965159852800715</v>
+        <v>0.07207596386944903</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1228212668252804</v>
+        <v>0.1226709426537258</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1087274060085434</v>
+        <v>0.1046855200225306</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1226634360735665</v>
+        <v>0.1226476319075684</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03340415718197545</v>
+        <v>0.04340048104694101</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1239855158110915</v>
+        <v>0.04564184730653895</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03340415718197545</v>
+        <v>0.03444037705015374</v>
       </c>
       <c r="K213" t="n">
         <v>0.1239855158110915</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06846434667381474</v>
+        <v>0.06904702867907486</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1236567856472211</v>
+        <v>0.1235054388622546</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1059436295732272</v>
+        <v>0.107620841125549</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1234978812169241</v>
+        <v>0.1234819695395927</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03452058003436528</v>
+        <v>0.04269089336032825</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1248232557827881</v>
+        <v>0.04563262787950726</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03452058003436528</v>
+        <v>0.03471429689917968</v>
       </c>
       <c r="K214" t="n">
         <v>0.1248232557827881</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07144185136649547</v>
+        <v>0.07008354142742579</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1244923044691618</v>
+        <v>0.1243399350707834</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1099116780983039</v>
+        <v>0.1034305640411681</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1243323263602817</v>
+        <v>0.124316307171617</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03384231839846966</v>
+        <v>0.04197957115682949</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1256609957544846</v>
+        <v>0.04562253827853447</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03384231839846966</v>
+        <v>0.03308657629652373</v>
       </c>
       <c r="K215" t="n">
         <v>0.1256609957544846</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0723928397666487</v>
+        <v>0.06874870089328716</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1253278232911025</v>
+        <v>0.1251744312793121</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1086028362495874</v>
+        <v>0.1050770177631372</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1251667715036393</v>
+        <v>0.1251506448036413</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03394874447257155</v>
+        <v>0.04126651443644466</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1264987357261812</v>
+        <v>0.04561157850362056</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03394874447257155</v>
+        <v>0.03414236169108367</v>
       </c>
       <c r="K216" t="n">
         <v>0.1264987357261812</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0687929461419676</v>
+        <v>0.06925798530069424</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1261633421130431</v>
+        <v>0.1260089274878408</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1079122222419026</v>
+        <v>0.1100030863430345</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1260012166469969</v>
+        <v>0.1259849824356655</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03425343841371815</v>
+        <v>0.04055172319917383</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1273364756978778</v>
+        <v>0.04559974855476554</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03425343841371815</v>
+        <v>0.03365690100799726</v>
       </c>
       <c r="K217" t="n">
         <v>0.1273364756978778</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06920099775528005</v>
+        <v>0.0710395702951529</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1269988609349838</v>
+        <v>0.1268434236963696</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1084477809721099</v>
+        <v>0.1085186807233655</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1268356617903545</v>
+        <v>0.1268193200676898</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03412090324000792</v>
+        <v>0.03983519744501694</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1281742156695743</v>
+        <v>0.04558704843196939</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03412090324000792</v>
+        <v>0.03324589087351812</v>
       </c>
       <c r="K218" t="n">
         <v>0.1281742156695743</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06885858501779774</v>
+        <v>0.06830163265949091</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1278343797569245</v>
+        <v>0.1276779199048984</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1039532816977977</v>
+        <v>0.105842832329089</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1276701069337121</v>
+        <v>0.1276536576997141</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03374207900062848</v>
+        <v>0.03911693717397403</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1290119556412709</v>
+        <v>0.04557347813523214</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03374207900062848</v>
+        <v>0.03400376134263601</v>
       </c>
       <c r="K219" t="n">
         <v>0.1290119556412709</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07163700500071857</v>
+        <v>0.06812448640050003</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1286698985788652</v>
+        <v>0.1285124161134271</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1085929314936823</v>
+        <v>0.1053985363882988</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1285045520770697</v>
+        <v>0.1284879953317384</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03469342692000012</v>
+        <v>0.0383969423860451</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1298496956129674</v>
+        <v>0.04555903766455377</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03469342692000012</v>
+        <v>0.03355164139428128</v>
       </c>
       <c r="K220" t="n">
         <v>0.1298496956129674</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07122766904596628</v>
+        <v>0.06908482555852635</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1295054174008058</v>
+        <v>0.1293469123219558</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1045403189305366</v>
+        <v>0.1024427945430014</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1293389972204272</v>
+        <v>0.1293223329637626</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03385574326780601</v>
+        <v>0.03767521308123013</v>
       </c>
       <c r="G221" t="n">
-        <v>0.130687435584664</v>
+        <v>0.04554372701993429</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03385574326780601</v>
+        <v>0.03476940516557343</v>
       </c>
       <c r="K221" t="n">
         <v>0.130687435584664</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06872192460132168</v>
+        <v>0.07129035151159058</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1303409362227465</v>
+        <v>0.1301814085304846</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1077261669925388</v>
+        <v>0.1066864130295126</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1301734423637849</v>
+        <v>0.1301566705957869</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03314135028633822</v>
+        <v>0.03695174925952911</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1315251755563606</v>
+        <v>0.04552754620137369</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03314135028633822</v>
+        <v>0.03377078981378702</v>
       </c>
       <c r="K222" t="n">
         <v>0.1315251755563606</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07049392137667124</v>
+        <v>0.0685235116288388</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1311764550446872</v>
+        <v>0.1310159047390133</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1067560710191965</v>
+        <v>0.106871789558337</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1310078875071424</v>
+        <v>0.1309910082278112</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0347187573327374</v>
+        <v>0.03622655092094208</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1323629155280572</v>
+        <v>0.04551049520887198</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0347187573327374</v>
+        <v>0.03434991816528021</v>
       </c>
       <c r="K223" t="n">
         <v>0.1323629155280572</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07042676790448835</v>
+        <v>0.0713762398563893</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1320119738666279</v>
+        <v>0.1318504009475421</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1048392847012092</v>
+        <v>0.109040886368293</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1318423326505</v>
+        <v>0.1318253458598355</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03426465909464897</v>
+        <v>0.03549961806546902</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1332006554997537</v>
+        <v>0.04549257404242916</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03426465909464897</v>
+        <v>0.03328885594527532</v>
       </c>
       <c r="K224" t="n">
         <v>0.1332006554997537</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07132053088300039</v>
+        <v>0.06862699738703165</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1328474926885686</v>
+        <v>0.1326848971560708</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1040164411945002</v>
+        <v>0.1061226216641424</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1326767777938576</v>
+        <v>0.1326596834918597</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03341339092079144</v>
+        <v>0.03477095069310991</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1340383954714503</v>
+        <v>0.04547378270204522</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03341339092079144</v>
+        <v>0.03404533721089792</v>
       </c>
       <c r="K225" t="n">
         <v>0.1340383954714503</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0715188490028304</v>
+        <v>0.0690421377582322</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1336830115105093</v>
+        <v>0.1335193933645996</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1081618425009346</v>
+        <v>0.1041615728584721</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1335112229372152</v>
+        <v>0.133494021123884</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03381430005849229</v>
+        <v>0.03404054880386478</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1348761354431468</v>
+        <v>0.04545412118772017</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03381430005849229</v>
+        <v>0.03419342951012817</v>
       </c>
       <c r="K226" t="n">
         <v>0.1348761354431468</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06971041825097798</v>
+        <v>0.06778631667955684</v>
       </c>
       <c r="M226" t="n">
-        <v>0.13451853033245</v>
+        <v>0.1343538895731283</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1075063972536874</v>
+        <v>0.108951845411329</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1343456680805728</v>
+        <v>0.1343283587559083</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03325090255032677</v>
+        <v>0.03330841239773362</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1357138754148434</v>
+        <v>0.045433589499454</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03325090255032677</v>
+        <v>0.03439268151447804</v>
       </c>
       <c r="K227" t="n">
         <v>0.1357138754148434</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06825773308502284</v>
+        <v>0.07094196780775994</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1353540491543906</v>
+        <v>0.1351883857816571</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1023588577210602</v>
+        <v>0.1063460347981811</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1351801132239304</v>
+        <v>0.1351626963879325</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03313886615507007</v>
+        <v>0.03257454147471642</v>
       </c>
       <c r="G228" t="n">
-        <v>0.13655161538654</v>
+        <v>0.04541218763724672</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03313886615507007</v>
+        <v>0.03360856990956725</v>
       </c>
       <c r="K228" t="n">
         <v>0.13655161538654</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06882729179161434</v>
+        <v>0.06894884108311022</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1361895679763313</v>
+        <v>0.1360228819901858</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1041655939917263</v>
+        <v>0.1083971674267091</v>
       </c>
       <c r="O228" t="n">
-        <v>0.136014558367288</v>
+        <v>0.1359970340199569</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03373010112877925</v>
+        <v>0.03183893603481319</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1373893553582365</v>
+        <v>0.04538991560109831</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03373010112877925</v>
+        <v>0.03388102549568443</v>
       </c>
       <c r="K229" t="n">
         <v>0.1373893553582365</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07148783120961824</v>
+        <v>0.06958312600106639</v>
       </c>
       <c r="M229" t="n">
-        <v>0.137025086798272</v>
+        <v>0.1368573781987145</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1046432454973081</v>
+        <v>0.1071991795094302</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1368490035106456</v>
+        <v>0.1368313716519811</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03344879360772365</v>
+        <v>0.03110159607802393</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1382270953299331</v>
+        <v>0.0453667733910088</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03344879360772365</v>
+        <v>0.03278779685717877</v>
       </c>
       <c r="K230" t="n">
         <v>0.1382270953299331</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0693890753429999</v>
+        <v>0.0714540848429828</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1378606056202127</v>
+        <v>0.1376918744072433</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1017293840549129</v>
+        <v>0.1048206180184041</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1376834486540032</v>
+        <v>0.1376657092840054</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0329253694022949</v>
+        <v>0.03036252160434863</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1390648353016297</v>
+        <v>0.04534276100697818</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0329253694022949</v>
+        <v>0.0337805507638714</v>
       </c>
       <c r="K231" t="n">
         <v>0.1390648353016297</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07115550389461561</v>
+        <v>0.06769754710125311</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1386961244421533</v>
+        <v>0.1385263706157721</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1019129936580402</v>
+        <v>0.1016926361766112</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1385178937973608</v>
+        <v>0.1385000469160297</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03319644439870996</v>
+        <v>0.02962171261378732</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1399025752733262</v>
+        <v>0.04531787844900644</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03319644439870996</v>
+        <v>0.03355812960031052</v>
       </c>
       <c r="K232" t="n">
         <v>0.1399025752733262</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06918240306715154</v>
+        <v>0.06853098214654987</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1395316432640941</v>
+        <v>0.1393608668243008</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1019508452305209</v>
+        <v>0.1028010547652374</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1393523389407184</v>
+        <v>0.1393343845480539</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03279014584621599</v>
+        <v>0.02887916910633995</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1407403152450228</v>
+        <v>0.0452921257170936</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03279014584621599</v>
+        <v>0.03278967351468304</v>
       </c>
       <c r="K233" t="n">
         <v>0.1407403152450228</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06927057844814144</v>
+        <v>0.071046309888321</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1403671620860347</v>
+        <v>0.1401953630328295</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1039301940029772</v>
+        <v>0.1076515771262342</v>
       </c>
       <c r="O233" t="n">
-        <v>0.140186784084076</v>
+        <v>0.1401687221800782</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03358831334271938</v>
+        <v>0.02813489108200656</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1415780552167193</v>
+        <v>0.04526550281123962</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03358831334271938</v>
+        <v>0.03320331260304411</v>
       </c>
       <c r="K234" t="n">
         <v>0.1415780552167193</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06977460226973881</v>
+        <v>0.06827513507062899</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1412026809079754</v>
+        <v>0.1410298592413583</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1079764864671809</v>
+        <v>0.1057933987798308</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1410212292274336</v>
+        <v>0.1410030598121025</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03383235995924039</v>
+        <v>0.02738887854078714</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1424157951884159</v>
+        <v>0.04523800973144455</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03383235995924039</v>
+        <v>0.03362319936595276</v>
       </c>
       <c r="K235" t="n">
         <v>0.1424157951884159</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06775672789610926</v>
+        <v>0.07108461544876465</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1420381997299161</v>
+        <v>0.141864355449887</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1036549572775702</v>
+        <v>0.1064731871332928</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1418556743707912</v>
+        <v>0.1418373974441268</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03415110119196282</v>
+        <v>0.02664113148268168</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1432535351601125</v>
+        <v>0.04520964647770835</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03415110119196282</v>
+        <v>0.03272170751763102</v>
       </c>
       <c r="K236" t="n">
         <v>0.1432535351601125</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06895103279100512</v>
+        <v>0.06828631059386217</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1428737185518568</v>
+        <v>0.1426988516584158</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1041843935568177</v>
+        <v>0.1074183516573725</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1426901195141488</v>
+        <v>0.142671735076151</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03332421650205009</v>
+        <v>0.0258916499076902</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1440912751318091</v>
+        <v>0.04518041305003104</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03332421650205009</v>
+        <v>0.03324061672601837</v>
       </c>
       <c r="K237" t="n">
         <v>0.1440912751318091</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06828786194356015</v>
+        <v>0.06931618377686341</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1437092373737975</v>
+        <v>0.1435333478669445</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1009925410491782</v>
+        <v>0.1018440188682938</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1435245646575064</v>
+        <v>0.1435060727081753</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03271480181667306</v>
+        <v>0.02514043381581268</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1449290151035056</v>
+        <v>0.04515030944841262</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03271480181667306</v>
+        <v>0.033892814877657</v>
       </c>
       <c r="K238" t="n">
         <v>0.1449290151035056</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06851775932553492</v>
+        <v>0.06646891141841926</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1445447561957381</v>
+        <v>0.1443678440754733</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1019104096222315</v>
+        <v>0.1053680188042382</v>
       </c>
       <c r="O238" t="n">
-        <v>0.144359009800864</v>
+        <v>0.1443404103401996</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03414340865518892</v>
+        <v>0.02438748320704914</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1457667550752022</v>
+        <v>0.04511933567285308</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03414340865518892</v>
+        <v>0.03374244731145327</v>
       </c>
       <c r="K239" t="n">
         <v>0.1457667550752022</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06813433087513177</v>
+        <v>0.06748440844286718</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1453802750176788</v>
+        <v>0.145202340284002</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1013397182980231</v>
+        <v>0.1024907184353642</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1451934549442216</v>
+        <v>0.1451747479722238</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03332516064895218</v>
+        <v>0.02363279808139956</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1466044950468987</v>
+        <v>0.04508749172335243</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03332516064895218</v>
+        <v>0.03291541140729856</v>
       </c>
       <c r="K240" t="n">
         <v>0.1466044950468987</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06765743060137952</v>
+        <v>0.06638584481259482</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1462157938396195</v>
+        <v>0.1460368364925308</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1073739073583791</v>
+        <v>0.1023926271464272</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1460279000875792</v>
+        <v>0.1460090856042481</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03322391137331659</v>
+        <v>0.02287637843886395</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1474422350185953</v>
+        <v>0.04505477759991067</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03322391137331659</v>
+        <v>0.03322422930108977</v>
       </c>
       <c r="K241" t="n">
         <v>0.1474422350185953</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06703731543205449</v>
+        <v>0.0692719251760717</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1470513126615602</v>
+        <v>0.1468713327010595</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1036470379898056</v>
+        <v>0.1015751800538551</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1468623452309367</v>
+        <v>0.1468434232362724</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03292271917586115</v>
+        <v>0.02211822427944229</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1482799749902919</v>
+        <v>0.04502119330252778</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03292271917586115</v>
+        <v>0.03231367070469944</v>
       </c>
       <c r="K242" t="n">
         <v>0.1482799749902919</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06763309976380377</v>
+        <v>0.06782523491746986</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1478868314835009</v>
+        <v>0.1477058289095883</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1042750133885694</v>
+        <v>0.1060555337985331</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1476967903742944</v>
+        <v>0.1476777608682967</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03366326857786957</v>
+        <v>0.02135833560313462</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1491177149619884</v>
+        <v>0.04498673883120379</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03366326857786957</v>
+        <v>0.03346319289775249</v>
       </c>
       <c r="K243" t="n">
         <v>0.1491177149619884</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06926224052690222</v>
+        <v>0.06997344858732427</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1487223503054416</v>
+        <v>0.148540325118117</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1068069784265288</v>
+        <v>0.1046683321447609</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1485312355176519</v>
+        <v>0.148512098500321</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03295264856785714</v>
+        <v>0.0205967124099409</v>
       </c>
       <c r="G244" t="n">
-        <v>0.149955454933685</v>
+        <v>0.04495141418593868</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03295264856785714</v>
+        <v>0.03391963753719403</v>
       </c>
       <c r="K244" t="n">
         <v>0.149955454933685</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06848943861651827</v>
+        <v>0.06718440801467174</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1495578691273823</v>
+        <v>0.1493748213266458</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1043898419993188</v>
+        <v>0.1026456776795867</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1493656806610095</v>
+        <v>0.1493464361323452</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03374208532880059</v>
+        <v>0.01983335469986117</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1507931949053816</v>
+        <v>0.04491521936673246</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03374208532880059</v>
+        <v>0.03319213730574579</v>
       </c>
       <c r="K245" t="n">
         <v>0.1507931949053816</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0685692622969423</v>
+        <v>0.06950795291999065</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1503933879493229</v>
+        <v>0.1502093175351745</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1055262911614749</v>
+        <v>0.101347939950306</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1502001258043671</v>
+        <v>0.1501807737643695</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03285632182793925</v>
+        <v>0.0190682624728954</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1516309348770781</v>
+        <v>0.04487815437358512</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03285632182793925</v>
+        <v>0.03267292702552581</v>
       </c>
       <c r="K246" t="n">
         <v>0.1516309348770781</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06940086551432181</v>
+        <v>0.06716600763997141</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1512289067712636</v>
+        <v>0.1510438137437033</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1045119209672107</v>
+        <v>0.106718601490126</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1510345709477247</v>
+        <v>0.1510151113963938</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03268671790863599</v>
+        <v>0.01830143572904359</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1524686748487747</v>
+        <v>0.04484021920649667</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03268671790863599</v>
+        <v>0.03301159745550518</v>
       </c>
       <c r="K247" t="n">
         <v>0.1524686748487747</v>
       </c>
       <c r="L247" t="n">
-        <v>0.0692846550243556</v>
+        <v>0.06850557509234437</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1520644255932043</v>
+        <v>0.151878309952232</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1020998714216158</v>
+        <v>0.1009534539021515</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1518690160910823</v>
+        <v>0.1518494490284181</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03211740173847256</v>
+        <v>0.01753287446830575</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1533064148204712</v>
+        <v>0.04480141386546711</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03211740173847256</v>
+        <v>0.03294984545132837</v>
       </c>
       <c r="K248" t="n">
         <v>0.1533064148204712</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06757339446132968</v>
+        <v>0.06815841800651068</v>
       </c>
       <c r="M248" t="n">
-        <v>0.152899944415145</v>
+        <v>0.1527128061607607</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1066060720619571</v>
+        <v>0.1048153765946904</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1527034612344399</v>
+        <v>0.1526837866604423</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03366937605632737</v>
+        <v>0.01676257869068189</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1541441547921678</v>
+        <v>0.04476173835049643</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03366937605632737</v>
+        <v>0.03279599473033287</v>
       </c>
       <c r="K249" t="n">
         <v>0.1541441547921678</v>
       </c>
       <c r="L249" t="n">
-        <v>0.068343248069307</v>
+        <v>0.06950510766237292</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1537354632370857</v>
+        <v>0.1535473023692895</v>
       </c>
       <c r="N249" t="n">
-        <v>0.103019205965073</v>
+        <v>0.1017398676906841</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1535379063777975</v>
+        <v>0.1535181242924666</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.032160193488147</v>
+        <v>0.01599054839617198</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1549818947638644</v>
+        <v>0.04472119266158464</v>
       </c>
       <c r="J250" t="n">
-        <v>0.032160193488147</v>
+        <v>0.03369000124120766</v>
       </c>
       <c r="K250" t="n">
         <v>0.1549818947638644</v>
       </c>
       <c r="L250" t="n">
-        <v>0.0696853032641028</v>
+        <v>0.06640212842524282</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1545709820590263</v>
+        <v>0.1543817985778183</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1055125151419521</v>
+        <v>0.1011944761447846</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1543723515211551</v>
+        <v>0.1543524619244909</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03351945989809337</v>
+        <v>0.01521678358477605</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1558196347355609</v>
+        <v>0.04467977679873173</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03351945989809337</v>
+        <v>0.03364384053662556</v>
       </c>
       <c r="K251" t="n">
         <v>0.1558196347355609</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06671711130945587</v>
+        <v>0.06586114718292088</v>
       </c>
       <c r="M251" t="n">
-        <v>0.155406500880967</v>
+        <v>0.155216294786347</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1025143656369603</v>
+        <v>0.1029442451001637</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1552067966645127</v>
+        <v>0.1551867995565152</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03332300718291914</v>
+        <v>0.01444128425649407</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1566573747072575</v>
+        <v>0.04463749076193771</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03332300718291914</v>
+        <v>0.03286582413912092</v>
       </c>
       <c r="K252" t="n">
         <v>0.1566573747072575</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06945904551310078</v>
+        <v>0.0673853105994062</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1562420197029077</v>
+        <v>0.1560507909948757</v>
       </c>
       <c r="N252" t="n">
-        <v>0.103243601862705</v>
+        <v>0.1018884932544856</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1560412418078703</v>
+        <v>0.1560211371885394</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03262811858653547</v>
+        <v>0.01366405041132608</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1574951146789541</v>
+        <v>0.04459433455120257</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03262811858653547</v>
+        <v>0.03307609932297406</v>
       </c>
       <c r="K253" t="n">
         <v>0.1574951146789541</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06662406673450944</v>
+        <v>0.06816609357011466</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1570775385248484</v>
+        <v>0.1568852872034045</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1004516819901003</v>
+        <v>0.09970361143351664</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1568756869512279</v>
+        <v>0.1568554748205637</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03346166265602618</v>
+        <v>0.01288508204927205</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1583328546506506</v>
+        <v>0.04455030816652632</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03346166265602618</v>
+        <v>0.03342016834228648</v>
       </c>
       <c r="K254" t="n">
         <v>0.1583328546506506</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06703563418361311</v>
+        <v>0.06983414748618674</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1579130573467891</v>
+        <v>0.1577197834119332</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1000019665951902</v>
+        <v>0.1038264526843917</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1577101320945855</v>
+        <v>0.157689812452588</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03267444529181678</v>
+        <v>0.012104379170332</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1591705946223472</v>
+        <v>0.04450541160790895</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03267444529181678</v>
+        <v>0.03227674792927462</v>
       </c>
       <c r="K255" t="n">
         <v>0.1591705946223472</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06619796467613537</v>
+        <v>0.06573047287116571</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1587485761687298</v>
+        <v>0.158554279620462</v>
       </c>
       <c r="N255" t="n">
-        <v>0.102475185886913</v>
+        <v>0.1007869742529051</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1585445772379431</v>
+        <v>0.1585241500846123</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03348176245309284</v>
+        <v>0.01132194177450591</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1600083345940438</v>
+        <v>0.04445964487535049</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03348176245309284</v>
+        <v>0.03229513119310692</v>
       </c>
       <c r="K256" t="n">
         <v>0.1600083345940438</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06896629546374863</v>
+        <v>0.06551959636724061</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1595840949906704</v>
+        <v>0.1593887758289907</v>
       </c>
       <c r="N256" t="n">
-        <v>0.09985956716432526</v>
+        <v>0.09895387727432964</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1593790223813007</v>
+        <v>0.1593584877166365</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03340807037795081</v>
+        <v>0.01053776986179377</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1608460745657403</v>
+        <v>0.04441300796885089</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03340807037795081</v>
+        <v>0.03354121858704109</v>
       </c>
       <c r="K257" t="n">
         <v>0.1608460745657403</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06871979464478778</v>
+        <v>0.06681967062977173</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1604196138126111</v>
+        <v>0.1602232720375195</v>
       </c>
       <c r="N257" t="n">
-        <v>0.099713244829368</v>
+        <v>0.1054972144835521</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1602134675246583</v>
+        <v>0.1601928253486608</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03204307193471073</v>
+        <v>0.009751863432195612</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1616838145374369</v>
+        <v>0.04436550088841019</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03204307193471073</v>
+        <v>0.03191054302970363</v>
       </c>
       <c r="K258" t="n">
         <v>0.1616838145374369</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06783566231760588</v>
+        <v>0.06604939383953379</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1612551326345518</v>
+        <v>0.1610577682460482</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1054251196272903</v>
+        <v>0.1030630429647202</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1610479126680159</v>
+        <v>0.1610271629806851</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03248269797601122</v>
+        <v>0.008964222485711416</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1625215545091334</v>
+        <v>0.04431712363402836</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03248269797601122</v>
+        <v>0.03330167058794045</v>
       </c>
       <c r="K259" t="n">
         <v>0.1625215545091334</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06882770512453942</v>
+        <v>0.06656415938495572</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1620906514564925</v>
+        <v>0.161892264454577</v>
       </c>
       <c r="N259" t="n">
-        <v>0.09921275205659169</v>
+        <v>0.09865544451171643</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1618823578113735</v>
+        <v>0.1618615006127093</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03201193505024641</v>
+        <v>0.008174847022341204</v>
       </c>
       <c r="G260" t="n">
-        <v>0.16335929448083</v>
+        <v>0.04426787620570543</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03201193505024641</v>
+        <v>0.03206985991641165</v>
       </c>
       <c r="K260" t="n">
         <v>0.16335929448083</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06591568726833588</v>
+        <v>0.06570680989279087</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1629261702784332</v>
+        <v>0.1627267606631057</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1033683481675389</v>
+        <v>0.1036080770092836</v>
       </c>
       <c r="O260" t="n">
-        <v>0.162716802954731</v>
+        <v>0.1626958382447337</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0318466012739794</v>
+        <v>0.007383737042084955</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1641970344525266</v>
+        <v>0.04421775860344138</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0318466012739794</v>
+        <v>0.0331879857862437</v>
       </c>
       <c r="K261" t="n">
         <v>0.1641970344525266</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06715442727149848</v>
+        <v>0.06521897015841968</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1637616891003739</v>
+        <v>0.1635612568716345</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1020266106884855</v>
+        <v>0.09860931242987009</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1635512480980887</v>
+        <v>0.1635301758767579</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03308798343535739</v>
+        <v>0.006590892544942661</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1650347744242232</v>
+        <v>0.04416677082723622</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03308798343535739</v>
+        <v>0.03339465336944016</v>
       </c>
       <c r="K262" t="n">
         <v>0.1650347744242232</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06723521700048965</v>
+        <v>0.0676826671282644</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1645972079223145</v>
+        <v>0.1643957530801632</v>
       </c>
       <c r="N262" t="n">
-        <v>0.09811940281059633</v>
+        <v>0.1045094620766684</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1643856932414463</v>
+        <v>0.1643645135087822</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03250844726720611</v>
+        <v>0.005796313530914345</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1658725143959197</v>
+        <v>0.04411491287708994</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03250844726720611</v>
+        <v>0.03211438325099723</v>
       </c>
       <c r="K263" t="n">
         <v>0.1658725143959197</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06873627415218792</v>
+        <v>0.06774955832996155</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1654327267442552</v>
+        <v>0.165230249288692</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1042726378823621</v>
+        <v>0.1020908414215173</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1652201383848038</v>
+        <v>0.1651988511408065</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03175746742181533</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1667102543676163</v>
+        <v>0.04406218475300255</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03175746742181533</v>
+        <v>0.03285584944187796</v>
       </c>
       <c r="K264" t="n">
         <v>0.1667102543676163</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06666526592500829</v>
+        <v>0.0673294376543265</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1662682455661959</v>
+        <v>0.1660647454972207</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1022390579124052</v>
+        <v>0.1010465789413727</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1660545835281614</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1660331887728307</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04406218475300255</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005636380870981693</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04402963583086076</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006274394228444349</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04399795708266007</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006914040072387988</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04396714850840051</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007555318402812587</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04393721010808205</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008198229219718162</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04390814188170472</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008842772523104718</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.0438799438292685</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009488948312972229</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04385261595077338</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01013675658932073</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.0438261582462194</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01078619735215017</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.0438005707156065</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01143727060146061</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04377585335893474</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01208997633725201</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04375200617620408</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01274431455952438</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04372902916741454</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01340028526827775</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04370692233256613</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01405788846351205</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04368568567165881</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01471712414522735</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04366531918469261</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0153779923134236</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04364582287166752</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01604049296810083</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04362719673258356</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01670462610925903</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0436094407674407</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01737039173689821</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04359255497623897</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01803778985101837</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04357653935897834</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01870682045161947</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04356139391565882</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01937748353870157</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04354711864628043</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02004977911226462</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04353371355084314</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02072370717230865</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04352117862934698</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02139926771883366</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04350951388179191</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02207646075183964</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04349871930817798</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02275528627132657</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04348879490850516</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.0234357442772945</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04347974068277344</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02411783476974337</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04347155663098284</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02480155774867324</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04346424275313335</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02548691321408406</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04345779904922498</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02617390116597586</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04345222551925772</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02686252160434864</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04344752216323158</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02755277452920239</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04344368898114656</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0282446599405371</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04344072597300264</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02893817783835279</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04343863313879984</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02963332822264945</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04343741047853816</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03033011109342706</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04343705799221759</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03102852645068566</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04343757567983812</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03172857429442524</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04343896354139978</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0324302546246458</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04344122157690256</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03313356744134729</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04344434978634643</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03383851274452979</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04344834816973144</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03454509053419325</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04345321672705755</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03525330081033767</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04345895545832478</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03596314357296307</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04346556436353312</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03667461882206945</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04347304344268257</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03738772655765678</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04348139269577314</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03810246677972509</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04349061212280483</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0388188394882744</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04350070172377763</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03953684468330465</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04351166149869154</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04025648236481588</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04352349144754657</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04097775253280807</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04353619157034271</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04170065518728125</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04354976186707996</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04242519032823538</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04356420233775832</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.0431513579556705</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04357951298237781</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04387915806958657</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.0435956938009384</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04460859066998364</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04361274479344012</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04533965575686168</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04363066595988294</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04607235333022067</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04364945730026688</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04680668339006064</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04366911881459194</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04754264593638158</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.0436896505028581</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0482802409691835</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04371105236506539</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04901946848846638</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04373332440121378</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04976032849423022</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04375646661130329</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05050282098647506</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04378047899533392</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05124694596520085</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04380536155330566</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.05199270343040761</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04383111428521851</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05274009338209537</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04385773719107247</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05348911582026408</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04388523027086755</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05423977074491376</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04391359352460375</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.0549920581560444</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04394282695228105</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05574597805365604</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04397293055389948</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05650153043774864</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04400390432945902</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05725871530832222</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04403574827895967</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05801753266537675</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04406846240240143</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05877798250891225</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04410204669978432</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05954006483892874</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0441365011711083</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.06030377965542617</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04417182581637341</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.06106912695840462</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04420802063557965</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.06183610674786402</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04424508562872698</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06260471902380439</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04428302079581543</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06337496378622572</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.044321826136845</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.06414684103512804</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04436150165181568</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.06492035077051132</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04440204734072746</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06569549299237556</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04444346320358037</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06647226770072079</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04448574924037439</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06725067489554698</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04452890545110953</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06803071457685417</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04457293183578578</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0688123867446423</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04461782839440314</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.06959569139891141</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04466359512696162</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0703806285396615</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04471023203346121</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.07116719816689253</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04475773911390191</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.07195540028060456</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04480611636828374</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.07274523488079757</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04485536379660667</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.07353670196747153</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04490548139887072</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.07432980154062646</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04495646917507588</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.07512453360026237</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04500832712522216</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.07592089814637924</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04506105524930955</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.07542089814637924</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04506105524930955</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.07617930732859997</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04672735273422163</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.07692877715604449</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.04839365021913371</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07766925134062104</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05005994770404579</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07840067359423784</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05172624518895787</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.07912298762880313</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05339254267386996</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.07983613715622508</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.05505884015878205</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.08054006588841195</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.05672513764369412</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.08123471753727193</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.05839143512860621</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.08192003581471326</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06005773261351829</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.08259596443264415</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06172403009843037</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.08326244710297281</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06339032758334245</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.08391942753760748</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06505662506825453</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.08456684944845635</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.06672292255316663</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.08520465654742765</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.06838922003807871</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.08583279254642961</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07005551752299077</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.08645120115737046</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07172181500790287</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.08705982609215837</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07338811249281496</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.08765861106270159</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07505440997772703</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.08824749978090829</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.07672070746263911</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.08882643595868681</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.0783870049475512</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.08939536330794526</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08005330243246328</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.08995422554059185</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08171959991737536</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.09050296636853486</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08338589740228744</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.09104152950368252</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08505219488719953</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.09156985865794298</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.08671849237211161</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.0920878975432245</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.08838478985702369</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.09259558987143529</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09005108734193577</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.09309287935448357</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09171738482684787</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.09357970970427754</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09338368231175993</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.09406242313798324</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09504997979667201</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.09456417106299841</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09671627728158411</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.09508236278480237</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.09838257476649619</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.09561162665605979</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1000488722514083</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.09614659102943543</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1017151697363203</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.09668188425759383</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1033814672212324</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.09721213469319975</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1050477647061445</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.09773197068891784</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1067140621910566</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.09823602059741277</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1083803596759687</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.09871891277134917</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1100466571608808</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.09917527556339178</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1117129546457929</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.09959973732620522</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1133792521307049</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.09998692641245421</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.115045549615617</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.1003314711748033</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1167118471005291</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.1006279999659174</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1183781445854412</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.1008711411384609</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1200444420703533</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.1010555230450987</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1217107395552653</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1233770370401774</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.1012265224713155</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1250433345250895</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.1012244503520018</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1267096320100016</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.1012111282239333</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1283759294949137</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.1011882130639499</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1300422269798258</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.1011562072155996</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1317085244647378</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.1011156130224302</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1333748219496499</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.1010669328279898</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.135041119434562</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.1010106689758262</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1367074169194741</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.1009473238094875</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1383737144043862</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.1008773996725215</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1400400118892982</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.1008013989084763</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1417063093742103</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.1007198238608997</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1433726068591224</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.1006331768733398</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1450389043440345</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.1005419602893443</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1467052018289466</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.1004466764524614</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1483714993138587</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.1003478277062389</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.1002459163942249</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1517040942836828</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.1001414448599671</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1533703917685949</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.1000349154470137</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.155036689253507</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.09992683049891246</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1567029867384191</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.09981769235921142</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1583692842233312</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.09970800337145852</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1600355817082432</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.09959826587920165</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1617018791931553</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.09948898222598884</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1633681766780674</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.09938057380451767</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1650344741629795</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.09926827727540849</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1667007716478915</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.09914918573278886</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1683670691328036</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.09902345360782405</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1700333666177157</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.0988912353316794</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1716996641026278</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.09875268533552012</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1733659615875399</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.09860795805051148</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.175032259072452</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.09845720790781878</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1766985565573641</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.0983005893386073</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1783648540422761</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.09813825677404237</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1800311515271882</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.09797036464528916</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1816974490121003</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.09779706738351301</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1833637464970124</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.09761851941987915</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1850300439819245</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.09743487518555291</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1866963414668366</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.09724628911169952</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1883626389517486</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.09705291562948426</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1900289364366607</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.09685490917007245</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1916952339215728</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.09665242416462935</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1933615314064849</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.0964456150443202</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.195027828891397</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.09623463624031031</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.196694126376309</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.09601964218376494</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1983604238612211</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.09580078730584937</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2000267213461332</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.09557822603772886</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2016930188310453</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.09535211281056874</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2033593163159574</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.09512260205553422</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2050256138008695</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.09488984820379062</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2066919112857815</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.09465400568650323</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2083582087706936</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.09441522893483723</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2100245062556057</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
